--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -482,11 +482,14 @@
   <si>
     <t>xuất cho an khánh</t>
   </si>
+  <si>
+    <t>j</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -866,118 +869,118 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,6 +993,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1038,7 +1044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1073,7 +1079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1288,7 +1294,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,11 +1322,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1356,11 +1362,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1396,235 +1402,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="61" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="69" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="70" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="61" t="s">
+      <c r="I7" s="87"/>
+      <c r="J7" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="71" t="s">
+      <c r="K7" s="70"/>
+      <c r="L7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="61" t="s">
+      <c r="M7" s="88"/>
+      <c r="N7" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="70"/>
+      <c r="P7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="61" t="s">
+      <c r="Q7" s="76"/>
+      <c r="R7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="61"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="70"/>
+      <c r="T7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="61" t="s">
+      <c r="U7" s="77"/>
+      <c r="V7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="70"/>
+      <c r="X7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="61" t="s">
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="72" t="s">
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="61" t="s">
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="73" t="s">
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="73" t="s">
+      <c r="AG7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AH7" s="61"/>
+      <c r="AH7" s="70"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1709,9 +1715,9 @@
       <c r="AE8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="61"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="70"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -2204,7 +2210,9 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="C20" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="31"/>
@@ -3765,76 +3773,76 @@
       <c r="C56" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="75">
+      <c r="D56" s="73">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
         <v>72</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="58">
+      <c r="E56" s="73"/>
+      <c r="F56" s="56">
         <f>SUM(F9:F55)-SUM(G9:G55)</f>
         <v>36</v>
       </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="76">
+      <c r="G56" s="56"/>
+      <c r="H56" s="74">
         <f>SUM(H9:H55)-SUM(I9:I55)</f>
         <v>86</v>
       </c>
-      <c r="I56" s="76"/>
-      <c r="J56" s="58">
+      <c r="I56" s="74"/>
+      <c r="J56" s="56">
         <f>SUM(J9:J55)-SUM(K9:K55)</f>
         <v>12</v>
       </c>
-      <c r="K56" s="58"/>
-      <c r="L56" s="77">
+      <c r="K56" s="56"/>
+      <c r="L56" s="75">
         <f>SUM(L9:L55)-SUM(M9:M55)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="77"/>
-      <c r="N56" s="58">
+      <c r="M56" s="75"/>
+      <c r="N56" s="56">
         <f>SUM(N9:N55)-SUM(O9:O55)</f>
         <v>0</v>
       </c>
-      <c r="O56" s="58"/>
-      <c r="P56" s="87">
+      <c r="O56" s="56"/>
+      <c r="P56" s="62">
         <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="58">
+      <c r="Q56" s="62"/>
+      <c r="R56" s="56">
         <f>SUM(R9:R55)-SUM(S9:S55)</f>
         <v>0</v>
       </c>
-      <c r="S56" s="58"/>
-      <c r="T56" s="88">
+      <c r="S56" s="56"/>
+      <c r="T56" s="63">
         <f>SUM(T9:T55)-SUM(U9:U55)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="88"/>
-      <c r="V56" s="58">
+      <c r="U56" s="63"/>
+      <c r="V56" s="56">
         <f>SUM(V9:V55)-SUM(W9:W55)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="58"/>
-      <c r="X56" s="89">
+      <c r="W56" s="56"/>
+      <c r="X56" s="64">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
         <v>0</v>
       </c>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="58">
+      <c r="Y56" s="64"/>
+      <c r="Z56" s="56">
         <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
         <v>0</v>
       </c>
-      <c r="AA56" s="58"/>
-      <c r="AB56" s="81">
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="55">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
         <v>0</v>
       </c>
-      <c r="AC56" s="81"/>
-      <c r="AD56" s="58">
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="56">
         <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
         <v>0</v>
       </c>
-      <c r="AE56" s="58"/>
+      <c r="AE56" s="56"/>
       <c r="AF56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3851,111 +3859,111 @@
       <c r="C57" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="90">
+      <c r="D57" s="65">
         <f>D56/24</f>
         <v>3</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="56">
+      <c r="E57" s="65"/>
+      <c r="F57" s="66">
         <f>F56/12</f>
         <v>3</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="91">
+      <c r="G57" s="66"/>
+      <c r="H57" s="67">
         <f>H56/24</f>
         <v>3.5833333333333335</v>
       </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="56">
+      <c r="I57" s="67"/>
+      <c r="J57" s="66">
         <f>J56/12</f>
         <v>1</v>
       </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="92">
+      <c r="K57" s="66"/>
+      <c r="L57" s="68">
         <f>L56/24</f>
         <v>0</v>
       </c>
-      <c r="M57" s="92"/>
-      <c r="N57" s="56">
+      <c r="M57" s="68"/>
+      <c r="N57" s="66">
         <f>N56/12</f>
         <v>0</v>
       </c>
-      <c r="O57" s="56"/>
-      <c r="P57" s="59">
+      <c r="O57" s="66"/>
+      <c r="P57" s="91">
         <f>P56/24</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="56">
+      <c r="Q57" s="91"/>
+      <c r="R57" s="66">
         <f>R56/12</f>
         <v>0</v>
       </c>
-      <c r="S57" s="56"/>
-      <c r="T57" s="60">
+      <c r="S57" s="66"/>
+      <c r="T57" s="92">
         <f>T56/24</f>
         <v>0</v>
       </c>
-      <c r="U57" s="60"/>
-      <c r="V57" s="56">
+      <c r="U57" s="92"/>
+      <c r="V57" s="66">
         <f>V56/12</f>
         <v>0</v>
       </c>
-      <c r="W57" s="56"/>
-      <c r="X57" s="55">
+      <c r="W57" s="66"/>
+      <c r="X57" s="89">
         <f>X56/12</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="56">
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="66">
         <f>Z56/12</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="57">
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="90">
         <f>AB56/24</f>
         <v>0</v>
       </c>
-      <c r="AC57" s="57"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
+      <c r="AC57" s="90"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="56"/>
       <c r="AF57" s="20"/>
       <c r="AG57" s="20"/>
       <c r="AH57" s="51"/>
     </row>
     <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
-      <c r="X58" s="83"/>
-      <c r="Y58" s="83"/>
-      <c r="Z58" s="83"/>
-      <c r="AA58" s="83"/>
-      <c r="AB58" s="83"/>
-      <c r="AC58" s="83"/>
-      <c r="AD58" s="83"/>
-      <c r="AE58" s="84"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="58"/>
+      <c r="U58" s="58"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="58"/>
+      <c r="X58" s="58"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="58"/>
+      <c r="AA58" s="58"/>
+      <c r="AB58" s="58"/>
+      <c r="AC58" s="58"/>
+      <c r="AD58" s="58"/>
+      <c r="AE58" s="59"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
         <v>0</v>
@@ -3967,48 +3975,89 @@
       <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="83"/>
-      <c r="T59" s="83"/>
-      <c r="U59" s="83"/>
-      <c r="V59" s="83"/>
-      <c r="W59" s="83"/>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="83"/>
-      <c r="Z59" s="83"/>
-      <c r="AA59" s="83"/>
-      <c r="AB59" s="83"/>
-      <c r="AC59" s="83"/>
-      <c r="AD59" s="83"/>
-      <c r="AE59" s="84"/>
-      <c r="AF59" s="85">
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="58"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="58"/>
+      <c r="X59" s="58"/>
+      <c r="Y59" s="58"/>
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="58"/>
+      <c r="AB59" s="58"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="60">
         <f>AG58-AF58</f>
         <v>206</v>
       </c>
-      <c r="AG59" s="86"/>
+      <c r="AG59" s="61"/>
       <c r="AH59" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB56:AC56"/>
     <mergeCell ref="AD56:AE56"/>
     <mergeCell ref="A58:AE58"/>
@@ -4025,47 +4074,6 @@
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="L57:M57"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -481,9 +481,6 @@
   </si>
   <si>
     <t>xuất cho an khánh</t>
-  </si>
-  <si>
-    <t>j</t>
   </si>
 </sst>
 </file>
@@ -869,12 +866,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -902,85 +974,10 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1291,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,11 +1319,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1362,11 +1359,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1402,235 +1399,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="70" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="86" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="70" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="87" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="70" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="88" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="70" t="s">
+      <c r="M7" s="71"/>
+      <c r="N7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="76" t="s">
+      <c r="O7" s="61"/>
+      <c r="P7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="70" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="77" t="s">
+      <c r="S7" s="61"/>
+      <c r="T7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="77"/>
-      <c r="V7" s="70" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="70"/>
-      <c r="X7" s="78" t="s">
+      <c r="W7" s="61"/>
+      <c r="X7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="70" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="69" t="s">
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="70" t="s">
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="71" t="s">
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="71" t="s">
+      <c r="AG7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AH7" s="70"/>
+      <c r="AH7" s="61"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1715,9 +1712,9 @@
       <c r="AE8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="70"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="61"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -2210,9 +2207,7 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
-        <v>39</v>
-      </c>
+      <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="31"/>
@@ -3773,76 +3768,76 @@
       <c r="C56" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="73">
+      <c r="D56" s="75">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
         <v>72</v>
       </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="56">
+      <c r="E56" s="75"/>
+      <c r="F56" s="58">
         <f>SUM(F9:F55)-SUM(G9:G55)</f>
         <v>36</v>
       </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="74">
+      <c r="G56" s="58"/>
+      <c r="H56" s="76">
         <f>SUM(H9:H55)-SUM(I9:I55)</f>
         <v>86</v>
       </c>
-      <c r="I56" s="74"/>
-      <c r="J56" s="56">
+      <c r="I56" s="76"/>
+      <c r="J56" s="58">
         <f>SUM(J9:J55)-SUM(K9:K55)</f>
         <v>12</v>
       </c>
-      <c r="K56" s="56"/>
-      <c r="L56" s="75">
+      <c r="K56" s="58"/>
+      <c r="L56" s="77">
         <f>SUM(L9:L55)-SUM(M9:M55)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="75"/>
-      <c r="N56" s="56">
+      <c r="M56" s="77"/>
+      <c r="N56" s="58">
         <f>SUM(N9:N55)-SUM(O9:O55)</f>
         <v>0</v>
       </c>
-      <c r="O56" s="56"/>
-      <c r="P56" s="62">
+      <c r="O56" s="58"/>
+      <c r="P56" s="87">
         <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="56">
+      <c r="Q56" s="87"/>
+      <c r="R56" s="58">
         <f>SUM(R9:R55)-SUM(S9:S55)</f>
         <v>0</v>
       </c>
-      <c r="S56" s="56"/>
-      <c r="T56" s="63">
+      <c r="S56" s="58"/>
+      <c r="T56" s="88">
         <f>SUM(T9:T55)-SUM(U9:U55)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="63"/>
-      <c r="V56" s="56">
+      <c r="U56" s="88"/>
+      <c r="V56" s="58">
         <f>SUM(V9:V55)-SUM(W9:W55)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="56"/>
-      <c r="X56" s="64">
+      <c r="W56" s="58"/>
+      <c r="X56" s="89">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
         <v>0</v>
       </c>
-      <c r="Y56" s="64"/>
-      <c r="Z56" s="56">
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="58">
         <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
         <v>0</v>
       </c>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="55">
+      <c r="AA56" s="58"/>
+      <c r="AB56" s="81">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
         <v>0</v>
       </c>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="56">
+      <c r="AC56" s="81"/>
+      <c r="AD56" s="58">
         <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
         <v>0</v>
       </c>
-      <c r="AE56" s="56"/>
+      <c r="AE56" s="58"/>
       <c r="AF56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3859,111 +3854,111 @@
       <c r="C57" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="90">
         <f>D56/24</f>
         <v>3</v>
       </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="66">
+      <c r="E57" s="90"/>
+      <c r="F57" s="56">
         <f>F56/12</f>
         <v>3</v>
       </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="67">
+      <c r="G57" s="56"/>
+      <c r="H57" s="91">
         <f>H56/24</f>
         <v>3.5833333333333335</v>
       </c>
-      <c r="I57" s="67"/>
-      <c r="J57" s="66">
+      <c r="I57" s="91"/>
+      <c r="J57" s="56">
         <f>J56/12</f>
         <v>1</v>
       </c>
-      <c r="K57" s="66"/>
-      <c r="L57" s="68">
+      <c r="K57" s="56"/>
+      <c r="L57" s="92">
         <f>L56/24</f>
         <v>0</v>
       </c>
-      <c r="M57" s="68"/>
-      <c r="N57" s="66">
+      <c r="M57" s="92"/>
+      <c r="N57" s="56">
         <f>N56/12</f>
         <v>0</v>
       </c>
-      <c r="O57" s="66"/>
-      <c r="P57" s="91">
+      <c r="O57" s="56"/>
+      <c r="P57" s="59">
         <f>P56/24</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="66">
+      <c r="Q57" s="59"/>
+      <c r="R57" s="56">
         <f>R56/12</f>
         <v>0</v>
       </c>
-      <c r="S57" s="66"/>
-      <c r="T57" s="92">
+      <c r="S57" s="56"/>
+      <c r="T57" s="60">
         <f>T56/24</f>
         <v>0</v>
       </c>
-      <c r="U57" s="92"/>
-      <c r="V57" s="66">
+      <c r="U57" s="60"/>
+      <c r="V57" s="56">
         <f>V56/12</f>
         <v>0</v>
       </c>
-      <c r="W57" s="66"/>
-      <c r="X57" s="89">
+      <c r="W57" s="56"/>
+      <c r="X57" s="55">
         <f>X56/12</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="89"/>
-      <c r="Z57" s="66">
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="56">
         <f>Z56/12</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="90">
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="57">
         <f>AB56/24</f>
         <v>0</v>
       </c>
-      <c r="AC57" s="90"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="56"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
       <c r="AF57" s="20"/>
       <c r="AG57" s="20"/>
       <c r="AH57" s="51"/>
     </row>
     <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
-      <c r="U58" s="58"/>
-      <c r="V58" s="58"/>
-      <c r="W58" s="58"/>
-      <c r="X58" s="58"/>
-      <c r="Y58" s="58"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="58"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="59"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="83"/>
+      <c r="U58" s="83"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
+      <c r="X58" s="83"/>
+      <c r="Y58" s="83"/>
+      <c r="Z58" s="83"/>
+      <c r="AA58" s="83"/>
+      <c r="AB58" s="83"/>
+      <c r="AC58" s="83"/>
+      <c r="AD58" s="83"/>
+      <c r="AE58" s="84"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
         <v>0</v>
@@ -3975,57 +3970,80 @@
       <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="58"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="58"/>
-      <c r="W59" s="58"/>
-      <c r="X59" s="58"/>
-      <c r="Y59" s="58"/>
-      <c r="Z59" s="58"/>
-      <c r="AA59" s="58"/>
-      <c r="AB59" s="58"/>
-      <c r="AC59" s="58"/>
-      <c r="AD59" s="58"/>
-      <c r="AE59" s="59"/>
-      <c r="AF59" s="60">
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="83"/>
+      <c r="V59" s="83"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="83"/>
+      <c r="AA59" s="83"/>
+      <c r="AB59" s="83"/>
+      <c r="AC59" s="83"/>
+      <c r="AD59" s="83"/>
+      <c r="AE59" s="84"/>
+      <c r="AF59" s="85">
         <f>AG58-AF58</f>
         <v>206</v>
       </c>
-      <c r="AG59" s="61"/>
+      <c r="AG59" s="86"/>
       <c r="AH59" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="A58:AE58"/>
+    <mergeCell ref="A59:AE59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4042,38 +4060,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="A58:AE58"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t xml:space="preserve">SỔ THEO DÕI KHO MỞ </t>
-  </si>
-  <si>
-    <t>Tháng 4/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -465,22 +462,10 @@
     <t>Thùng</t>
   </si>
   <si>
-    <t>Tồn kho kiểm 30/5</t>
+    <t>kín</t>
   </si>
   <si>
-    <t>Hàng Cường oanh trả</t>
-  </si>
-  <si>
-    <t>Hàng tình thu trả</t>
-  </si>
-  <si>
-    <t>hàng chị sáu trả</t>
-  </si>
-  <si>
-    <t>xuất cho anh hoàng</t>
-  </si>
-  <si>
-    <t>xuất cho an khánh</t>
+    <t>Tháng 9/6</t>
   </si>
 </sst>
 </file>
@@ -1288,10 +1273,10 @@
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1296,9 @@
     <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
     <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
     <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
@@ -1438,7 +1425,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -1512,16 +1499,16 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="C6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>9</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
@@ -1553,7 +1540,7 @@
       <c r="AF6" s="67"/>
       <c r="AG6" s="68"/>
       <c r="AH6" s="61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1561,66 +1548,66 @@
       <c r="B7" s="65"/>
       <c r="C7" s="61"/>
       <c r="D7" s="69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="61"/>
       <c r="H7" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="70"/>
       <c r="J7" s="61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="61"/>
       <c r="L7" s="71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="71"/>
       <c r="N7" s="61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="61"/>
       <c r="P7" s="78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="78"/>
       <c r="R7" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S7" s="61"/>
       <c r="T7" s="79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U7" s="79"/>
       <c r="V7" s="61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W7" s="61"/>
       <c r="X7" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="80"/>
       <c r="Z7" s="61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA7" s="61"/>
       <c r="AB7" s="72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC7" s="72"/>
       <c r="AD7" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE7" s="61"/>
       <c r="AF7" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="73" t="s">
         <v>25</v>
-      </c>
-      <c r="AG7" s="73" t="s">
-        <v>26</v>
       </c>
       <c r="AH7" s="61"/>
     </row>
@@ -1629,138 +1616,158 @@
       <c r="B8" s="65"/>
       <c r="C8" s="61"/>
       <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="J8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="N8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="R8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="T8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="V8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="X8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="18" t="s">
-        <v>28</v>
-      </c>
       <c r="Z8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="AB8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="AD8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
       <c r="AH8" s="61"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>1</v>
-      </c>
+      <c r="A9" s="20"/>
       <c r="B9" s="21">
-        <v>43910</v>
+        <v>43991</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="22">
-        <v>72</v>
+        <f>2*24+22</f>
+        <v>70</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="20">
-        <v>36</v>
-      </c>
+      <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="23">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="20">
+        <v>2</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="24">
+        <v>14</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="20">
+        <v>1</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="20">
+        <v>5</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="26">
+        <v>8</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="20">
         <v>12</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="20"/>
       <c r="W9" s="20"/>
-      <c r="X9" s="27"/>
+      <c r="X9" s="27">
+        <f>10*12+8</f>
+        <v>128</v>
+      </c>
       <c r="Y9" s="27"/>
-      <c r="Z9" s="20"/>
+      <c r="Z9" s="20">
+        <v>12</v>
+      </c>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="28">
+        <f>3*24+12</f>
+        <v>84</v>
+      </c>
       <c r="AC9" s="28"/>
-      <c r="AD9" s="20"/>
+      <c r="AD9" s="20">
+        <f>92+45</f>
+        <v>137</v>
+      </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20">
         <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
@@ -1768,18 +1775,14 @@
       </c>
       <c r="AG9" s="20">
         <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
-        <v>206</v>
+        <v>484</v>
       </c>
       <c r="AH9" s="20"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>11</v>
-      </c>
+      <c r="A10" s="20"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="C10" s="31"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="31"/>
@@ -1821,9 +1824,7 @@
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
@@ -1865,9 +1866,7 @@
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31"/>
@@ -1909,9 +1908,7 @@
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
-        <v>37</v>
-      </c>
+      <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="31"/>
@@ -1953,9 +1950,7 @@
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3766,76 +3761,76 @@
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
       <c r="C56" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="75">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="58">
         <f>SUM(F9:F55)-SUM(G9:G55)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G56" s="58"/>
       <c r="H56" s="76">
         <f>SUM(H9:H55)-SUM(I9:I55)</f>
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="I56" s="76"/>
       <c r="J56" s="58">
         <f>SUM(J9:J55)-SUM(K9:K55)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K56" s="58"/>
       <c r="L56" s="77">
         <f>SUM(L9:L55)-SUM(M9:M55)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M56" s="77"/>
       <c r="N56" s="58">
         <f>SUM(N9:N55)-SUM(O9:O55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="58"/>
       <c r="P56" s="87">
         <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="87"/>
       <c r="R56" s="58">
         <f>SUM(R9:R55)-SUM(S9:S55)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S56" s="58"/>
       <c r="T56" s="88">
         <f>SUM(T9:T55)-SUM(U9:U55)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U56" s="88"/>
       <c r="V56" s="58">
         <f>SUM(V9:V55)-SUM(W9:W55)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W56" s="58"/>
       <c r="X56" s="89">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="Y56" s="89"/>
       <c r="Z56" s="58">
         <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA56" s="58"/>
       <c r="AB56" s="81">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AC56" s="81"/>
       <c r="AD56" s="58">
         <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AE56" s="58"/>
       <c r="AF56" s="20">
@@ -3844,7 +3839,7 @@
       </c>
       <c r="AG56" s="20">
         <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>206</v>
+        <v>484</v>
       </c>
       <c r="AH56" s="51"/>
     </row>
@@ -3852,71 +3847,71 @@
       <c r="A57" s="48"/>
       <c r="B57" s="49"/>
       <c r="C57" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="90">
         <f>D56/24</f>
-        <v>3</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="E57" s="90"/>
       <c r="F57" s="56">
         <f>F56/12</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G57" s="56"/>
       <c r="H57" s="91">
         <f>H56/24</f>
-        <v>3.5833333333333335</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I57" s="91"/>
       <c r="J57" s="56">
         <f>J56/12</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K57" s="56"/>
       <c r="L57" s="92">
         <f>L56/24</f>
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M57" s="92"/>
       <c r="N57" s="56">
         <f>N56/12</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O57" s="56"/>
       <c r="P57" s="59">
         <f>P56/24</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q57" s="59"/>
       <c r="R57" s="56">
         <f>R56/12</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S57" s="56"/>
       <c r="T57" s="60">
         <f>T56/24</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U57" s="60"/>
       <c r="V57" s="56">
         <f>V56/12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="56"/>
       <c r="X57" s="55">
         <f>X56/12</f>
-        <v>0</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="Y57" s="55"/>
       <c r="Z57" s="56">
         <f>Z56/12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57" s="56"/>
       <c r="AB57" s="57">
         <f>AB56/24</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AC57" s="57"/>
       <c r="AD57" s="58"/>
@@ -3927,7 +3922,7 @@
     </row>
     <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" s="83"/>
       <c r="C58" s="83"/>
@@ -3965,13 +3960,13 @@
       </c>
       <c r="AG58" s="52">
         <f>SUM(AG9:AG55)</f>
-        <v>206</v>
+        <v>484</v>
       </c>
       <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="83"/>
       <c r="C59" s="83"/>
@@ -4005,7 +4000,7 @@
       <c r="AE59" s="84"/>
       <c r="AF59" s="85">
         <f>AG58-AF58</f>
-        <v>206</v>
+        <v>484</v>
       </c>
       <c r="AG59" s="86"/>
       <c r="AH59" s="53"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="T3" sheetId="1" r:id="rId1"/>
+    <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -851,118 +851,118 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1061,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1276,41 +1276,41 @@
       <pane xSplit="2" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1346,11 +1346,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1386,235 +1386,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="61" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="69" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="70" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="61" t="s">
+      <c r="I7" s="87"/>
+      <c r="J7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="71" t="s">
+      <c r="K7" s="70"/>
+      <c r="L7" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="61" t="s">
+      <c r="M7" s="88"/>
+      <c r="N7" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="70"/>
+      <c r="P7" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="61" t="s">
+      <c r="Q7" s="76"/>
+      <c r="R7" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="61"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="70"/>
+      <c r="T7" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="61" t="s">
+      <c r="U7" s="77"/>
+      <c r="V7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="70"/>
+      <c r="X7" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="61" t="s">
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="72" t="s">
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="61" t="s">
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="73" t="s">
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="73" t="s">
+      <c r="AG7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="61"/>
+      <c r="AH7" s="70"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1699,9 +1699,9 @@
       <c r="AE8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="61"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="70"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3763,76 +3763,76 @@
       <c r="C56" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="75">
+      <c r="D56" s="73">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
         <v>70</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="58">
+      <c r="E56" s="73"/>
+      <c r="F56" s="56">
         <f>SUM(F9:F55)-SUM(G9:G55)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="76">
+      <c r="G56" s="56"/>
+      <c r="H56" s="74">
         <f>SUM(H9:H55)-SUM(I9:I55)</f>
         <v>10</v>
       </c>
-      <c r="I56" s="76"/>
-      <c r="J56" s="58">
+      <c r="I56" s="74"/>
+      <c r="J56" s="56">
         <f>SUM(J9:J55)-SUM(K9:K55)</f>
         <v>2</v>
       </c>
-      <c r="K56" s="58"/>
-      <c r="L56" s="77">
+      <c r="K56" s="56"/>
+      <c r="L56" s="75">
         <f>SUM(L9:L55)-SUM(M9:M55)</f>
         <v>14</v>
       </c>
-      <c r="M56" s="77"/>
-      <c r="N56" s="58">
+      <c r="M56" s="75"/>
+      <c r="N56" s="56">
         <f>SUM(N9:N55)-SUM(O9:O55)</f>
         <v>1</v>
       </c>
-      <c r="O56" s="58"/>
-      <c r="P56" s="87">
+      <c r="O56" s="56"/>
+      <c r="P56" s="62">
         <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
         <v>1</v>
       </c>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="58">
+      <c r="Q56" s="62"/>
+      <c r="R56" s="56">
         <f>SUM(R9:R55)-SUM(S9:S55)</f>
         <v>5</v>
       </c>
-      <c r="S56" s="58"/>
-      <c r="T56" s="88">
+      <c r="S56" s="56"/>
+      <c r="T56" s="63">
         <f>SUM(T9:T55)-SUM(U9:U55)</f>
         <v>8</v>
       </c>
-      <c r="U56" s="88"/>
-      <c r="V56" s="58">
+      <c r="U56" s="63"/>
+      <c r="V56" s="56">
         <f>SUM(V9:V55)-SUM(W9:W55)</f>
         <v>12</v>
       </c>
-      <c r="W56" s="58"/>
-      <c r="X56" s="89">
+      <c r="W56" s="56"/>
+      <c r="X56" s="64">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
         <v>128</v>
       </c>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="58">
+      <c r="Y56" s="64"/>
+      <c r="Z56" s="56">
         <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
         <v>12</v>
       </c>
-      <c r="AA56" s="58"/>
-      <c r="AB56" s="81">
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="55">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
         <v>84</v>
       </c>
-      <c r="AC56" s="81"/>
-      <c r="AD56" s="58">
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="56">
         <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
         <v>137</v>
       </c>
-      <c r="AE56" s="58"/>
+      <c r="AE56" s="56"/>
       <c r="AF56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3849,111 +3849,111 @@
       <c r="C57" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="90">
+      <c r="D57" s="65">
         <f>D56/24</f>
         <v>2.9166666666666665</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="56">
+      <c r="E57" s="65"/>
+      <c r="F57" s="66">
         <f>F56/12</f>
         <v>0</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="91">
+      <c r="G57" s="66"/>
+      <c r="H57" s="67">
         <f>H56/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="56">
+      <c r="I57" s="67"/>
+      <c r="J57" s="66">
         <f>J56/12</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="92">
+      <c r="K57" s="66"/>
+      <c r="L57" s="68">
         <f>L56/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="M57" s="92"/>
-      <c r="N57" s="56">
+      <c r="M57" s="68"/>
+      <c r="N57" s="66">
         <f>N56/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="O57" s="56"/>
-      <c r="P57" s="59">
+      <c r="O57" s="66"/>
+      <c r="P57" s="91">
         <f>P56/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="56">
+      <c r="Q57" s="91"/>
+      <c r="R57" s="66">
         <f>R56/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="S57" s="56"/>
-      <c r="T57" s="60">
+      <c r="S57" s="66"/>
+      <c r="T57" s="92">
         <f>T56/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U57" s="60"/>
-      <c r="V57" s="56">
+      <c r="U57" s="92"/>
+      <c r="V57" s="66">
         <f>V56/12</f>
         <v>1</v>
       </c>
-      <c r="W57" s="56"/>
-      <c r="X57" s="55">
+      <c r="W57" s="66"/>
+      <c r="X57" s="89">
         <f>X56/12</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="56">
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="66">
         <f>Z56/12</f>
         <v>1</v>
       </c>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="57">
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="90">
         <f>AB56/24</f>
         <v>3.5</v>
       </c>
-      <c r="AC57" s="57"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
+      <c r="AC57" s="90"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="56"/>
       <c r="AF57" s="20"/>
       <c r="AG57" s="20"/>
       <c r="AH57" s="51"/>
     </row>
     <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
-      <c r="X58" s="83"/>
-      <c r="Y58" s="83"/>
-      <c r="Z58" s="83"/>
-      <c r="AA58" s="83"/>
-      <c r="AB58" s="83"/>
-      <c r="AC58" s="83"/>
-      <c r="AD58" s="83"/>
-      <c r="AE58" s="84"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="58"/>
+      <c r="U58" s="58"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="58"/>
+      <c r="X58" s="58"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="58"/>
+      <c r="AA58" s="58"/>
+      <c r="AB58" s="58"/>
+      <c r="AC58" s="58"/>
+      <c r="AD58" s="58"/>
+      <c r="AE58" s="59"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
         <v>0</v>
@@ -3965,48 +3965,89 @@
       <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="83"/>
-      <c r="T59" s="83"/>
-      <c r="U59" s="83"/>
-      <c r="V59" s="83"/>
-      <c r="W59" s="83"/>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="83"/>
-      <c r="Z59" s="83"/>
-      <c r="AA59" s="83"/>
-      <c r="AB59" s="83"/>
-      <c r="AC59" s="83"/>
-      <c r="AD59" s="83"/>
-      <c r="AE59" s="84"/>
-      <c r="AF59" s="85">
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="58"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="58"/>
+      <c r="X59" s="58"/>
+      <c r="Y59" s="58"/>
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="58"/>
+      <c r="AB59" s="58"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="60">
         <f>AG58-AF58</f>
         <v>484</v>
       </c>
-      <c r="AG59" s="86"/>
+      <c r="AG59" s="61"/>
       <c r="AH59" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB56:AC56"/>
     <mergeCell ref="AD56:AE56"/>
     <mergeCell ref="A58:AE58"/>
@@ -4023,47 +4064,6 @@
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="L57:M57"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4077,7 +4077,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4089,7 +4089,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -465,13 +465,31 @@
     <t>kín</t>
   </si>
   <si>
-    <t>Tháng 9/6</t>
+    <t>Thanh Hà trả hàng</t>
+  </si>
+  <si>
+    <t>Xuất Thanh Hà</t>
+  </si>
+  <si>
+    <t>Anh Đạt Demo</t>
+  </si>
+  <si>
+    <t>Xuất chị Nguyệt Bắc Giang</t>
+  </si>
+  <si>
+    <t>Xuất An Khánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuất chị Phú </t>
+  </si>
+  <si>
+    <t>Tháng 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -851,12 +869,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -884,85 +977,10 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1273,44 +1291,44 @@
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1346,11 +1364,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1386,235 +1404,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
+      <c r="A4" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="70" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="86" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="70" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="87" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="70" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="88" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="70" t="s">
+      <c r="M7" s="71"/>
+      <c r="N7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="76" t="s">
+      <c r="O7" s="61"/>
+      <c r="P7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="70" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="77" t="s">
+      <c r="S7" s="61"/>
+      <c r="T7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="77"/>
-      <c r="V7" s="70" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="70"/>
-      <c r="X7" s="78" t="s">
+      <c r="W7" s="61"/>
+      <c r="X7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="70" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="69" t="s">
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="70" t="s">
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="71" t="s">
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="71" t="s">
+      <c r="AG7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="70"/>
+      <c r="AH7" s="61"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1699,9 +1717,9 @@
       <c r="AE8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="70"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="61"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1751,8 +1769,8 @@
       </c>
       <c r="W9" s="20"/>
       <c r="X9" s="27">
-        <f>10*12+8</f>
-        <v>128</v>
+        <f>11*12+8</f>
+        <v>140</v>
       </c>
       <c r="Y9" s="27"/>
       <c r="Z9" s="20">
@@ -1775,17 +1793,23 @@
       </c>
       <c r="AG9" s="20">
         <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="AH9" s="20"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="30">
+        <v>43995</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
+      <c r="F10" s="31">
+        <v>12</v>
+      </c>
       <c r="G10" s="31"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -1817,14 +1841,18 @@
       </c>
       <c r="AG10" s="20">
         <f t="shared" ref="AG10:AG55" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH10" s="31"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="30">
+        <v>43995</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
@@ -1844,18 +1872,22 @@
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
       <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
+      <c r="W11" s="31">
+        <v>12</v>
+      </c>
       <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
       <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
+      <c r="AA11" s="31">
+        <v>12</v>
+      </c>
       <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
       <c r="AF11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG11" s="20">
         <f t="shared" si="1"/>
@@ -1865,12 +1897,18 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="30">
+        <v>43995</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="31">
+        <v>10</v>
+      </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="31"/>
@@ -1892,12 +1930,14 @@
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
       <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
+      <c r="AC12" s="38">
+        <v>5</v>
+      </c>
       <c r="AD12" s="31"/>
       <c r="AE12" s="31"/>
       <c r="AF12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG12" s="20">
         <f t="shared" si="1"/>
@@ -1907,26 +1947,40 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="30">
+        <v>43995</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="34">
+        <v>1</v>
+      </c>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="Q13" s="35">
+        <v>1</v>
+      </c>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="U13" s="36">
+        <v>1</v>
+      </c>
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="37"/>
@@ -1934,12 +1988,16 @@
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
+      <c r="AC13" s="38">
+        <v>1</v>
+      </c>
       <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
+      <c r="AE13" s="31">
+        <v>10</v>
+      </c>
       <c r="AF13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG13" s="20">
         <f t="shared" si="1"/>
@@ -1949,12 +2007,18 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="30">
+        <v>43995</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="31"/>
@@ -1981,7 +2045,7 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="20">
         <f t="shared" si="1"/>
@@ -1991,12 +2055,18 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="30">
+        <v>43995</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="31"/>
@@ -2023,7 +2093,7 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="20">
         <f t="shared" si="1"/>
@@ -3763,83 +3833,83 @@
       <c r="C56" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="73">
+      <c r="D56" s="75">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
-        <v>70</v>
-      </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="56">
+        <v>69</v>
+      </c>
+      <c r="E56" s="75"/>
+      <c r="F56" s="58">
         <f>SUM(F9:F55)-SUM(G9:G55)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="74">
+      <c r="G56" s="58"/>
+      <c r="H56" s="76">
         <f>SUM(H9:H55)-SUM(I9:I55)</f>
-        <v>10</v>
-      </c>
-      <c r="I56" s="74"/>
-      <c r="J56" s="56">
+        <v>9</v>
+      </c>
+      <c r="I56" s="76"/>
+      <c r="J56" s="58">
         <f>SUM(J9:J55)-SUM(K9:K55)</f>
         <v>2</v>
       </c>
-      <c r="K56" s="56"/>
-      <c r="L56" s="75">
+      <c r="K56" s="58"/>
+      <c r="L56" s="77">
         <f>SUM(L9:L55)-SUM(M9:M55)</f>
-        <v>14</v>
-      </c>
-      <c r="M56" s="75"/>
-      <c r="N56" s="56">
+        <v>13</v>
+      </c>
+      <c r="M56" s="77"/>
+      <c r="N56" s="58">
         <f>SUM(N9:N55)-SUM(O9:O55)</f>
         <v>1</v>
       </c>
-      <c r="O56" s="56"/>
-      <c r="P56" s="62">
+      <c r="O56" s="58"/>
+      <c r="P56" s="87">
         <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
-        <v>1</v>
-      </c>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="58">
         <f>SUM(R9:R55)-SUM(S9:S55)</f>
         <v>5</v>
       </c>
-      <c r="S56" s="56"/>
-      <c r="T56" s="63">
+      <c r="S56" s="58"/>
+      <c r="T56" s="88">
         <f>SUM(T9:T55)-SUM(U9:U55)</f>
-        <v>8</v>
-      </c>
-      <c r="U56" s="63"/>
-      <c r="V56" s="56">
+        <v>7</v>
+      </c>
+      <c r="U56" s="88"/>
+      <c r="V56" s="58">
         <f>SUM(V9:V55)-SUM(W9:W55)</f>
-        <v>12</v>
-      </c>
-      <c r="W56" s="56"/>
-      <c r="X56" s="64">
+        <v>0</v>
+      </c>
+      <c r="W56" s="58"/>
+      <c r="X56" s="89">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
-        <v>128</v>
-      </c>
-      <c r="Y56" s="64"/>
-      <c r="Z56" s="56">
+        <v>140</v>
+      </c>
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="58">
         <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
-        <v>12</v>
-      </c>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="55">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="58"/>
+      <c r="AB56" s="81">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
-        <v>84</v>
-      </c>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="56">
+        <v>78</v>
+      </c>
+      <c r="AC56" s="81"/>
+      <c r="AD56" s="58">
         <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
-        <v>137</v>
-      </c>
-      <c r="AE56" s="56"/>
+        <v>127</v>
+      </c>
+      <c r="AE56" s="58"/>
       <c r="AF56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG56" s="20">
         <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="AH56" s="51"/>
     </row>
@@ -3849,173 +3919,196 @@
       <c r="C57" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="90">
         <f>D56/24</f>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="66">
+        <v>2.875</v>
+      </c>
+      <c r="E57" s="90"/>
+      <c r="F57" s="56">
         <f>F56/12</f>
         <v>0</v>
       </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="67">
+      <c r="G57" s="56"/>
+      <c r="H57" s="91">
         <f>H56/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I57" s="67"/>
-      <c r="J57" s="66">
+        <v>0.375</v>
+      </c>
+      <c r="I57" s="91"/>
+      <c r="J57" s="56">
         <f>J56/12</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K57" s="66"/>
-      <c r="L57" s="68">
+      <c r="K57" s="56"/>
+      <c r="L57" s="92">
         <f>L56/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M57" s="68"/>
-      <c r="N57" s="66">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M57" s="92"/>
+      <c r="N57" s="56">
         <f>N56/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="O57" s="66"/>
-      <c r="P57" s="91">
+      <c r="O57" s="56"/>
+      <c r="P57" s="59">
         <f>P56/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="56">
         <f>R56/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="S57" s="66"/>
-      <c r="T57" s="92">
+      <c r="S57" s="56"/>
+      <c r="T57" s="60">
         <f>T56/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U57" s="92"/>
-      <c r="V57" s="66">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U57" s="60"/>
+      <c r="V57" s="56">
         <f>V56/12</f>
-        <v>1</v>
-      </c>
-      <c r="W57" s="66"/>
-      <c r="X57" s="89">
+        <v>0</v>
+      </c>
+      <c r="W57" s="56"/>
+      <c r="X57" s="55">
         <f>X56/12</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="Y57" s="89"/>
-      <c r="Z57" s="66">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="56">
         <f>Z56/12</f>
-        <v>1</v>
-      </c>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="90">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="57">
         <f>AB56/24</f>
-        <v>3.5</v>
-      </c>
-      <c r="AC57" s="90"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="56"/>
+        <v>3.25</v>
+      </c>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
       <c r="AF57" s="20"/>
       <c r="AG57" s="20"/>
       <c r="AH57" s="51"/>
     </row>
     <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
-      <c r="U58" s="58"/>
-      <c r="V58" s="58"/>
-      <c r="W58" s="58"/>
-      <c r="X58" s="58"/>
-      <c r="Y58" s="58"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="58"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="59"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="83"/>
+      <c r="U58" s="83"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
+      <c r="X58" s="83"/>
+      <c r="Y58" s="83"/>
+      <c r="Z58" s="83"/>
+      <c r="AA58" s="83"/>
+      <c r="AB58" s="83"/>
+      <c r="AC58" s="83"/>
+      <c r="AD58" s="83"/>
+      <c r="AE58" s="84"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AG58" s="52">
         <f>SUM(AG9:AG55)</f>
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="58"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="58"/>
-      <c r="W59" s="58"/>
-      <c r="X59" s="58"/>
-      <c r="Y59" s="58"/>
-      <c r="Z59" s="58"/>
-      <c r="AA59" s="58"/>
-      <c r="AB59" s="58"/>
-      <c r="AC59" s="58"/>
-      <c r="AD59" s="58"/>
-      <c r="AE59" s="59"/>
-      <c r="AF59" s="60">
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="83"/>
+      <c r="V59" s="83"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="83"/>
+      <c r="AA59" s="83"/>
+      <c r="AB59" s="83"/>
+      <c r="AC59" s="83"/>
+      <c r="AD59" s="83"/>
+      <c r="AE59" s="84"/>
+      <c r="AF59" s="85">
         <f>AG58-AF58</f>
-        <v>484</v>
-      </c>
-      <c r="AG59" s="61"/>
+        <v>451</v>
+      </c>
+      <c r="AG59" s="86"/>
       <c r="AH59" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="A58:AE58"/>
+    <mergeCell ref="A59:AE59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4032,38 +4125,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="A58:AE58"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4077,7 +4147,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4089,7 +4159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t xml:space="preserve">       Độc lập – Tự do – Hạnh phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SỔ THEO DÕI KHO MỞ </t>
   </si>
   <si>
     <t>STT</t>
@@ -484,6 +481,15 @@
   </si>
   <si>
     <t>Tháng 6</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI KÍN</t>
+  </si>
+  <si>
+    <t>ChỊ Huệ Điện Biên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1288,13 +1294,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AD15" sqref="AD15"/>
+      <selection pane="bottomRight" activeCell="X64" sqref="X64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1411,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -1443,7 +1449,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -1517,16 +1523,16 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="C6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="66" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
@@ -1558,7 +1564,7 @@
       <c r="AF6" s="67"/>
       <c r="AG6" s="68"/>
       <c r="AH6" s="61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1566,66 +1572,66 @@
       <c r="B7" s="65"/>
       <c r="C7" s="61"/>
       <c r="D7" s="69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="61"/>
       <c r="H7" s="70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="70"/>
       <c r="J7" s="61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="61"/>
       <c r="L7" s="71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="71"/>
       <c r="N7" s="61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="61"/>
       <c r="P7" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="78"/>
       <c r="R7" s="61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S7" s="61"/>
       <c r="T7" s="79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U7" s="79"/>
       <c r="V7" s="61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W7" s="61"/>
       <c r="X7" s="80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y7" s="80"/>
       <c r="Z7" s="61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA7" s="61"/>
       <c r="AB7" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC7" s="72"/>
       <c r="AD7" s="61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE7" s="61"/>
       <c r="AF7" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG7" s="73" t="s">
         <v>24</v>
-      </c>
-      <c r="AG7" s="73" t="s">
-        <v>25</v>
       </c>
       <c r="AH7" s="61"/>
     </row>
@@ -1634,88 +1640,88 @@
       <c r="B8" s="65"/>
       <c r="C8" s="61"/>
       <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="J8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="L8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="N8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="P8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="R8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="T8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="V8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="X8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="Z8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="AB8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AC8" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="AD8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
@@ -1727,7 +1733,7 @@
         <v>43991</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="22">
         <f>2*24+22</f>
@@ -1803,7 +1809,7 @@
         <v>43995</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -1851,7 +1857,7 @@
         <v>43995</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -1901,7 +1907,7 @@
         <v>43995</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -1951,7 +1957,7 @@
         <v>43995</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32">
@@ -2011,7 +2017,7 @@
         <v>43995</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -2059,7 +2065,7 @@
         <v>43995</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -2103,8 +2109,12 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="30">
+        <v>43997</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="31"/>
@@ -2112,15 +2122,21 @@
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="31">
+        <v>2</v>
+      </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="O16" s="31">
+        <v>1</v>
+      </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
+      <c r="S16" s="31">
+        <v>5</v>
+      </c>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
       <c r="V16" s="31"/>
@@ -2135,7 +2151,7 @@
       <c r="AE16" s="31"/>
       <c r="AF16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG16" s="20">
         <f t="shared" si="1"/>
@@ -3831,7 +3847,7 @@
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
       <c r="C56" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="75">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
@@ -3850,7 +3866,7 @@
       <c r="I56" s="76"/>
       <c r="J56" s="58">
         <f>SUM(J9:J55)-SUM(K9:K55)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" s="58"/>
       <c r="L56" s="77">
@@ -3860,7 +3876,7 @@
       <c r="M56" s="77"/>
       <c r="N56" s="58">
         <f>SUM(N9:N55)-SUM(O9:O55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="58"/>
       <c r="P56" s="87">
@@ -3870,7 +3886,7 @@
       <c r="Q56" s="87"/>
       <c r="R56" s="58">
         <f>SUM(R9:R55)-SUM(S9:S55)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S56" s="58"/>
       <c r="T56" s="88">
@@ -3909,7 +3925,7 @@
       </c>
       <c r="AG56" s="20">
         <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AH56" s="51"/>
     </row>
@@ -3917,7 +3933,7 @@
       <c r="A57" s="48"/>
       <c r="B57" s="49"/>
       <c r="C57" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="90">
         <f>D56/24</f>
@@ -3936,7 +3952,7 @@
       <c r="I57" s="91"/>
       <c r="J57" s="56">
         <f>J56/12</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K57" s="56"/>
       <c r="L57" s="92">
@@ -3946,7 +3962,7 @@
       <c r="M57" s="92"/>
       <c r="N57" s="56">
         <f>N56/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="O57" s="56"/>
       <c r="P57" s="59">
@@ -3956,7 +3972,7 @@
       <c r="Q57" s="59"/>
       <c r="R57" s="56">
         <f>R56/12</f>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="S57" s="56"/>
       <c r="T57" s="60">
@@ -3992,7 +4008,7 @@
     </row>
     <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" s="83"/>
       <c r="C58" s="83"/>
@@ -4026,7 +4042,7 @@
       <c r="AE58" s="84"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AG58" s="52">
         <f>SUM(AG9:AG55)</f>
@@ -4036,7 +4052,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="83"/>
       <c r="C59" s="83"/>
@@ -4070,10 +4086,15 @@
       <c r="AE59" s="84"/>
       <c r="AF59" s="85">
         <f>AG58-AF58</f>
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AG59" s="86"/>
       <c r="AH59" s="53"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X64" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="57">

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Demo khách linna</t>
+  </si>
+  <si>
+    <t>Xuất về văn phòng</t>
+  </si>
+  <si>
+    <t>Linna</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1306,10 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="X64" sqref="X64"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58:AE58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,8 +2170,12 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="30">
+        <v>44000</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
@@ -2184,7 +2197,9 @@
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
       <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
+      <c r="Y17" s="37">
+        <v>4</v>
+      </c>
       <c r="Z17" s="31"/>
       <c r="AA17" s="31"/>
       <c r="AB17" s="38"/>
@@ -2193,7 +2208,7 @@
       <c r="AE17" s="31"/>
       <c r="AF17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG17" s="20">
         <f t="shared" si="1"/>
@@ -2203,10 +2218,16 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="30">
+        <v>44000</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="32">
+        <v>3</v>
+      </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="33"/>
@@ -2235,7 +2256,7 @@
       <c r="AE18" s="31"/>
       <c r="AF18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="20">
         <f t="shared" si="1"/>
@@ -2245,14 +2266,22 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="30">
+        <v>44000</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32">
+        <v>24</v>
+      </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="33">
+        <v>2</v>
+      </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="34"/>
@@ -2268,16 +2297,20 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
+      <c r="Y19" s="37">
+        <v>12</v>
+      </c>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
+      <c r="AC19" s="38">
+        <v>24</v>
+      </c>
       <c r="AD19" s="31"/>
       <c r="AE19" s="31"/>
       <c r="AF19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AG19" s="20">
         <f t="shared" si="1"/>
@@ -3851,7 +3884,7 @@
       </c>
       <c r="D56" s="75">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="58">
@@ -3861,7 +3894,7 @@
       <c r="G56" s="58"/>
       <c r="H56" s="76">
         <f>SUM(H9:H55)-SUM(I9:I55)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I56" s="76"/>
       <c r="J56" s="58">
@@ -3901,7 +3934,7 @@
       <c r="W56" s="58"/>
       <c r="X56" s="89">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Y56" s="89"/>
       <c r="Z56" s="58">
@@ -3911,7 +3944,7 @@
       <c r="AA56" s="58"/>
       <c r="AB56" s="81">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="AC56" s="81"/>
       <c r="AD56" s="58">
@@ -3925,7 +3958,7 @@
       </c>
       <c r="AG56" s="20">
         <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="AH56" s="51"/>
     </row>
@@ -3937,7 +3970,7 @@
       </c>
       <c r="D57" s="90">
         <f>D56/24</f>
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="E57" s="90"/>
       <c r="F57" s="56">
@@ -3947,7 +3980,7 @@
       <c r="G57" s="56"/>
       <c r="H57" s="91">
         <f>H56/24</f>
-        <v>0.375</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="I57" s="91"/>
       <c r="J57" s="56">
@@ -3987,7 +4020,7 @@
       <c r="W57" s="56"/>
       <c r="X57" s="55">
         <f>X56/12</f>
-        <v>11.666666666666666</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="Y57" s="55"/>
       <c r="Z57" s="56">
@@ -3997,7 +4030,7 @@
       <c r="AA57" s="56"/>
       <c r="AB57" s="57">
         <f>AB56/24</f>
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="AC57" s="57"/>
       <c r="AD57" s="58"/>
@@ -4042,7 +4075,7 @@
       <c r="AE58" s="84"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="AG58" s="52">
         <f>SUM(AG9:AG55)</f>
@@ -4086,7 +4119,7 @@
       <c r="AE59" s="84"/>
       <c r="AF59" s="85">
         <f>AG58-AF58</f>
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="AG59" s="86"/>
       <c r="AH59" s="53"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -499,12 +499,21 @@
   </si>
   <si>
     <t>Linna</t>
+  </si>
+  <si>
+    <t>kho-&gt; An Khánh</t>
+  </si>
+  <si>
+    <t>Nhập hàng</t>
+  </si>
+  <si>
+    <t>Xuất demo Anh Lâm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1059,7 +1068,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1094,7 +1103,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1306,36 +1315,36 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58:AE58"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2320,12 +2329,18 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="30">
+        <v>44002</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="31">
+        <v>12</v>
+      </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="31"/>
@@ -2352,7 +2367,7 @@
       <c r="AE20" s="31"/>
       <c r="AF20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG20" s="20">
         <f t="shared" si="1"/>
@@ -2362,11 +2377,18 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="30">
+        <v>44002</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
+      <c r="F21" s="31">
+        <f>30*12</f>
+        <v>360</v>
+      </c>
       <c r="G21" s="31"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
@@ -2398,14 +2420,18 @@
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AH21" s="31"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="30">
+        <v>44006</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="31"/>
@@ -2427,16 +2453,20 @@
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
       <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
+      <c r="Y22" s="37">
+        <v>1</v>
+      </c>
       <c r="Z22" s="31"/>
       <c r="AA22" s="31"/>
       <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
+      <c r="AC22" s="38">
+        <v>1</v>
+      </c>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22" s="20">
         <f t="shared" si="1"/>
@@ -2446,8 +2476,12 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="30">
+        <v>44006</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
@@ -2466,7 +2500,9 @@
       <c r="S23" s="31"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="31"/>
+      <c r="V23" s="31">
+        <v>24</v>
+      </c>
       <c r="W23" s="31"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
@@ -2482,14 +2518,18 @@
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH23" s="31"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="30">
+        <v>44006</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="31"/>
@@ -2509,7 +2549,9 @@
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
       <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
+      <c r="W24" s="31">
+        <v>12</v>
+      </c>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="31"/>
@@ -2520,7 +2562,7 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG24" s="20">
         <f t="shared" si="1"/>
@@ -2530,12 +2572,20 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="30">
+        <v>44006</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="E25" s="32">
+        <v>24</v>
+      </c>
       <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="G25" s="31">
+        <v>24</v>
+      </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="J25" s="31"/>
@@ -2551,7 +2601,9 @@
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
       <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
+      <c r="W25" s="31">
+        <v>12</v>
+      </c>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="31"/>
@@ -2562,7 +2614,7 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG25" s="20">
         <f t="shared" si="1"/>
@@ -3884,12 +3936,12 @@
       </c>
       <c r="D56" s="75">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="58">
         <f>SUM(F9:F55)-SUM(G9:G55)</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G56" s="58"/>
       <c r="H56" s="76">
@@ -3934,7 +3986,7 @@
       <c r="W56" s="58"/>
       <c r="X56" s="89">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y56" s="89"/>
       <c r="Z56" s="58">
@@ -3944,7 +3996,7 @@
       <c r="AA56" s="58"/>
       <c r="AB56" s="81">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC56" s="81"/>
       <c r="AD56" s="58">
@@ -3958,7 +4010,7 @@
       </c>
       <c r="AG56" s="20">
         <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>374</v>
+        <v>672</v>
       </c>
       <c r="AH56" s="51"/>
     </row>
@@ -3970,12 +4022,12 @@
       </c>
       <c r="D57" s="90">
         <f>D56/24</f>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="E57" s="90"/>
       <c r="F57" s="56">
         <f>F56/12</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G57" s="56"/>
       <c r="H57" s="91">
@@ -4020,7 +4072,7 @@
       <c r="W57" s="56"/>
       <c r="X57" s="55">
         <f>X56/12</f>
-        <v>10.333333333333334</v>
+        <v>10.25</v>
       </c>
       <c r="Y57" s="55"/>
       <c r="Z57" s="56">
@@ -4030,7 +4082,7 @@
       <c r="AA57" s="56"/>
       <c r="AB57" s="57">
         <f>AB56/24</f>
-        <v>2.25</v>
+        <v>2.2083333333333335</v>
       </c>
       <c r="AC57" s="57"/>
       <c r="AD57" s="58"/>
@@ -4075,11 +4127,11 @@
       <c r="AE58" s="84"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="AG58" s="52">
         <f>SUM(AG9:AG55)</f>
-        <v>508</v>
+        <v>892</v>
       </c>
       <c r="AH58" s="53"/>
     </row>
@@ -4119,7 +4171,7 @@
       <c r="AE59" s="84"/>
       <c r="AF59" s="85">
         <f>AG58-AF58</f>
-        <v>374</v>
+        <v>672</v>
       </c>
       <c r="AG59" s="86"/>
       <c r="AH59" s="53"/>
@@ -4201,7 +4253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4213,7 +4265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Xuất demo Anh Lâm</t>
+  </si>
+  <si>
+    <t>hoàng Nanomilk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh hà </t>
   </si>
 </sst>
 </file>
@@ -893,118 +899,118 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1312,13 +1318,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1348,11 +1354,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1388,11 +1394,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1428,235 +1434,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="61" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="70" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="69" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="70" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="61" t="s">
+      <c r="I7" s="87"/>
+      <c r="J7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="71" t="s">
+      <c r="K7" s="70"/>
+      <c r="L7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="61" t="s">
+      <c r="M7" s="88"/>
+      <c r="N7" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="70"/>
+      <c r="P7" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="61" t="s">
+      <c r="Q7" s="76"/>
+      <c r="R7" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="61"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="70"/>
+      <c r="T7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="61" t="s">
+      <c r="U7" s="77"/>
+      <c r="V7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="70"/>
+      <c r="X7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="61" t="s">
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="72" t="s">
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="61" t="s">
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="73" t="s">
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="73" t="s">
+      <c r="AG7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="61"/>
+      <c r="AH7" s="70"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1741,9 +1747,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="61"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="70"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1860,11 +1866,11 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF56" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF57" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>0</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG55" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG56" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>12</v>
       </c>
       <c r="AH10" s="31"/>
@@ -2427,15 +2433,18 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="30">
-        <v>44006</v>
+        <v>44002</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="G22" s="31">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="31"/>
@@ -2453,20 +2462,16 @@
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
       <c r="X22" s="37"/>
-      <c r="Y22" s="37">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="37"/>
       <c r="Z22" s="31"/>
       <c r="AA22" s="31"/>
       <c r="AB22" s="38"/>
-      <c r="AC22" s="38">
-        <v>1</v>
-      </c>
+      <c r="AC22" s="38"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AG22" s="20">
         <f t="shared" si="1"/>
@@ -2480,7 +2485,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -2500,25 +2505,27 @@
       <c r="S23" s="31"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="31">
-        <v>24</v>
-      </c>
+      <c r="V23" s="31"/>
       <c r="W23" s="31"/>
       <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
+      <c r="Y23" s="37">
+        <v>1</v>
+      </c>
       <c r="Z23" s="31"/>
       <c r="AA23" s="31"/>
       <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
+      <c r="AC23" s="38">
+        <v>1</v>
+      </c>
       <c r="AD23" s="31"/>
       <c r="AE23" s="31"/>
       <c r="AF23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="31"/>
     </row>
@@ -2528,7 +2535,7 @@
         <v>44006</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -2548,10 +2555,10 @@
       <c r="S24" s="31"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31">
-        <v>12</v>
-      </c>
+      <c r="V24" s="31">
+        <v>24</v>
+      </c>
+      <c r="W24" s="31"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="31"/>
@@ -2562,11 +2569,11 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH24" s="31"/>
     </row>
@@ -2576,16 +2583,12 @@
         <v>44006</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D25" s="32"/>
-      <c r="E25" s="32">
-        <v>24</v>
-      </c>
+      <c r="E25" s="32"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="31">
-        <v>24</v>
-      </c>
+      <c r="G25" s="31"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="J25" s="31"/>
@@ -2614,7 +2617,7 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="20">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AG25" s="20">
         <f t="shared" si="1"/>
@@ -2624,12 +2627,20 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="30">
+        <v>44006</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="32">
+        <v>24</v>
+      </c>
       <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="31">
+        <v>24</v>
+      </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="31"/>
@@ -2645,7 +2656,9 @@
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
+      <c r="W26" s="31">
+        <v>12</v>
+      </c>
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="31"/>
@@ -2656,7 +2669,7 @@
       <c r="AE26" s="31"/>
       <c r="AF26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG26" s="20">
         <f t="shared" si="1"/>
@@ -2666,14 +2679,22 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="30">
+        <v>44007</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="E27" s="32">
+        <v>2</v>
+      </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
       <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="33">
+        <v>2</v>
+      </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="34"/>
@@ -2698,7 +2719,7 @@
       <c r="AE27" s="31"/>
       <c r="AF27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG27" s="20">
         <f t="shared" si="1"/>
@@ -2917,9 +2938,7 @@
       <c r="AH32" s="31"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
-        <v>12</v>
-      </c>
+      <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
@@ -2961,8 +2980,8 @@
       <c r="AH33" s="31"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>13</v>
+      <c r="A34" s="29">
+        <v>12</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
@@ -3005,8 +3024,8 @@
       <c r="AH34" s="31"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
-        <v>14</v>
+      <c r="A35" s="20">
+        <v>13</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
@@ -3049,8 +3068,8 @@
       <c r="AH35" s="31"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>15</v>
+      <c r="A36" s="29">
+        <v>14</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
@@ -3093,8 +3112,8 @@
       <c r="AH36" s="31"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
-        <v>16</v>
+      <c r="A37" s="20">
+        <v>15</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
@@ -3137,8 +3156,8 @@
       <c r="AH37" s="31"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>17</v>
+      <c r="A38" s="29">
+        <v>16</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
@@ -3181,8 +3200,8 @@
       <c r="AH38" s="31"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
-        <v>18</v>
+      <c r="A39" s="20">
+        <v>17</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
@@ -3225,8 +3244,8 @@
       <c r="AH39" s="31"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>19</v>
+      <c r="A40" s="29">
+        <v>18</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
@@ -3269,8 +3288,8 @@
       <c r="AH40" s="31"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
-        <v>20</v>
+      <c r="A41" s="20">
+        <v>19</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
@@ -3313,8 +3332,8 @@
       <c r="AH41" s="31"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
-        <v>21</v>
+      <c r="A42" s="29">
+        <v>20</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
@@ -3357,8 +3376,8 @@
       <c r="AH42" s="31"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
-        <v>22</v>
+      <c r="A43" s="20">
+        <v>21</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
@@ -3401,8 +3420,8 @@
       <c r="AH43" s="31"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>23</v>
+      <c r="A44" s="29">
+        <v>22</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
@@ -3445,8 +3464,8 @@
       <c r="AH44" s="31"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
-        <v>24</v>
+      <c r="A45" s="20">
+        <v>23</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
@@ -3489,8 +3508,8 @@
       <c r="AH45" s="31"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>25</v>
+      <c r="A46" s="29">
+        <v>24</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
@@ -3533,8 +3552,8 @@
       <c r="AH46" s="31"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
-        <v>26</v>
+      <c r="A47" s="20">
+        <v>25</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
@@ -3577,8 +3596,8 @@
       <c r="AH47" s="31"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>27</v>
+      <c r="A48" s="29">
+        <v>26</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
@@ -3621,8 +3640,8 @@
       <c r="AH48" s="31"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
-        <v>28</v>
+      <c r="A49" s="20">
+        <v>27</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
@@ -3665,8 +3684,8 @@
       <c r="AH49" s="31"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
-        <v>29</v>
+      <c r="A50" s="29">
+        <v>28</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
@@ -3709,8 +3728,8 @@
       <c r="AH50" s="31"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="29">
-        <v>30</v>
+      <c r="A51" s="20">
+        <v>29</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
@@ -3753,8 +3772,8 @@
       <c r="AH51" s="31"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>31</v>
+      <c r="A52" s="29">
+        <v>30</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
@@ -3797,52 +3816,52 @@
       <c r="AH52" s="31"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+      <c r="A53" s="20">
+        <v>31</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="38"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="31"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" s="29">
         <v>32</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="40"/>
-      <c r="AE53" s="40"/>
-      <c r="AF53" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="40"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>33</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="40"/>
@@ -3885,8 +3904,8 @@
       <c r="AH54" s="40"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
-        <v>34</v>
+      <c r="A55" s="20">
+        <v>33</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="40"/>
@@ -3929,292 +3948,313 @@
       <c r="AH55" s="40"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="75">
-        <f>SUM(D9:D55)-SUM(E9:E55)</f>
-        <v>18</v>
-      </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="58">
-        <f>SUM(F9:F55)-SUM(G9:G55)</f>
-        <v>324</v>
-      </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="76">
-        <f>SUM(H9:H55)-SUM(I9:I55)</f>
-        <v>7</v>
-      </c>
-      <c r="I56" s="76"/>
-      <c r="J56" s="58">
-        <f>SUM(J9:J55)-SUM(K9:K55)</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="58"/>
-      <c r="L56" s="77">
-        <f>SUM(L9:L55)-SUM(M9:M55)</f>
-        <v>13</v>
-      </c>
-      <c r="M56" s="77"/>
-      <c r="N56" s="58">
-        <f>SUM(N9:N55)-SUM(O9:O55)</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="58"/>
-      <c r="P56" s="87">
-        <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="58">
-        <f>SUM(R9:R55)-SUM(S9:S55)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="58"/>
-      <c r="T56" s="88">
-        <f>SUM(T9:T55)-SUM(U9:U55)</f>
-        <v>7</v>
-      </c>
-      <c r="U56" s="88"/>
-      <c r="V56" s="58">
-        <f>SUM(V9:V55)-SUM(W9:W55)</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="58"/>
-      <c r="X56" s="89">
-        <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
-        <v>123</v>
-      </c>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="58">
-        <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="58"/>
-      <c r="AB56" s="81">
-        <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
-        <v>53</v>
-      </c>
-      <c r="AC56" s="81"/>
-      <c r="AD56" s="58">
-        <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
-        <v>127</v>
-      </c>
-      <c r="AE56" s="58"/>
+      <c r="A56" s="29">
+        <v>34</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="40"/>
+      <c r="AE56" s="40"/>
       <c r="AF56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG56" s="20">
-        <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>672</v>
-      </c>
-      <c r="AH56" s="51"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="40"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="49"/>
       <c r="C57" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="73">
+        <f>SUM(D9:D56)-SUM(E9:E56)</f>
+        <v>16</v>
+      </c>
+      <c r="E57" s="73"/>
+      <c r="F57" s="56">
+        <f>SUM(F9:F56)-SUM(G9:G56)</f>
+        <v>264</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="74">
+        <f>SUM(H9:H56)-SUM(I9:I56)</f>
+        <v>5</v>
+      </c>
+      <c r="I57" s="74"/>
+      <c r="J57" s="56">
+        <f>SUM(J9:J56)-SUM(K9:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="56"/>
+      <c r="L57" s="75">
+        <f>SUM(L9:L56)-SUM(M9:M56)</f>
+        <v>13</v>
+      </c>
+      <c r="M57" s="75"/>
+      <c r="N57" s="56">
+        <f>SUM(N9:N56)-SUM(O9:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="56"/>
+      <c r="P57" s="62">
+        <f>SUM(P9:P56)-SUM(Q9:Q56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="56">
+        <f>SUM(R9:R56)-SUM(S9:S56)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="56"/>
+      <c r="T57" s="63">
+        <f>SUM(T9:T56)-SUM(U9:U56)</f>
+        <v>7</v>
+      </c>
+      <c r="U57" s="63"/>
+      <c r="V57" s="56">
+        <f>SUM(V9:V56)-SUM(W9:W56)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="56"/>
+      <c r="X57" s="64">
+        <f>SUM(X9:X56)-SUM(Y9:Y56)</f>
+        <v>123</v>
+      </c>
+      <c r="Y57" s="64"/>
+      <c r="Z57" s="56">
+        <f>SUM(Z9:Z56)-SUM(AA9:AA56)</f>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="55">
+        <f>SUM(AB9:AB56)-SUM(AC9:AC56)</f>
+        <v>53</v>
+      </c>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="56">
+        <f>SUM(AD9:AD56)-SUM(AE9:AE56)</f>
+        <v>127</v>
+      </c>
+      <c r="AE57" s="56"/>
+      <c r="AF57" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="20">
+        <f>D57+F57+H57+J57+L57+N57+P57+R57+T57+V57+X57+Z57+AB57+AD57</f>
+        <v>608</v>
+      </c>
+      <c r="AH57" s="51"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="90">
-        <f>D56/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="56">
-        <f>F56/12</f>
+      <c r="D58" s="65">
+        <f>D57/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E58" s="65"/>
+      <c r="F58" s="66">
+        <f>F57/12</f>
+        <v>22</v>
+      </c>
+      <c r="G58" s="66"/>
+      <c r="H58" s="67">
+        <f>H57/24</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I58" s="67"/>
+      <c r="J58" s="66">
+        <f>J57/12</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="66"/>
+      <c r="L58" s="68">
+        <f>L57/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M58" s="68"/>
+      <c r="N58" s="66">
+        <f>N57/12</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="66"/>
+      <c r="P58" s="91">
+        <f>P57/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="66">
+        <f>R57/12</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="66"/>
+      <c r="T58" s="92">
+        <f>T57/24</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U58" s="92"/>
+      <c r="V58" s="66">
+        <f>V57/12</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="66"/>
+      <c r="X58" s="89">
+        <f>X57/12</f>
+        <v>10.25</v>
+      </c>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="66">
+        <f>Z57/12</f>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="66"/>
+      <c r="AB58" s="90">
+        <f>AB57/24</f>
+        <v>2.2083333333333335</v>
+      </c>
+      <c r="AC58" s="90"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="51"/>
+    </row>
+    <row r="59" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="91">
-        <f>H56/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="56">
-        <f>J56/12</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="92">
-        <f>L56/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M57" s="92"/>
-      <c r="N57" s="56">
-        <f>N56/12</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="56"/>
-      <c r="P57" s="59">
-        <f>P56/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="56">
-        <f>R56/12</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="56"/>
-      <c r="T57" s="60">
-        <f>T56/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="U57" s="60"/>
-      <c r="V57" s="56">
-        <f>V56/12</f>
-        <v>0</v>
-      </c>
-      <c r="W57" s="56"/>
-      <c r="X57" s="55">
-        <f>X56/12</f>
-        <v>10.25</v>
-      </c>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="56">
-        <f>Z56/12</f>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="57">
-        <f>AB56/24</f>
-        <v>2.2083333333333335</v>
-      </c>
-      <c r="AC57" s="57"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="51"/>
-    </row>
-    <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
-      <c r="X58" s="83"/>
-      <c r="Y58" s="83"/>
-      <c r="Z58" s="83"/>
-      <c r="AA58" s="83"/>
-      <c r="AB58" s="83"/>
-      <c r="AC58" s="83"/>
-      <c r="AD58" s="83"/>
-      <c r="AE58" s="84"/>
-      <c r="AF58" s="52">
-        <f>SUM(AF9:AF55)</f>
-        <v>220</v>
-      </c>
-      <c r="AG58" s="52">
-        <f>SUM(AG9:AG55)</f>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="58"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="58"/>
+      <c r="X59" s="58"/>
+      <c r="Y59" s="58"/>
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="58"/>
+      <c r="AB59" s="58"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="52">
+        <f>SUM(AF9:AF56)</f>
+        <v>284</v>
+      </c>
+      <c r="AG59" s="52">
+        <f>SUM(AG9:AG56)</f>
         <v>892</v>
       </c>
-      <c r="AH58" s="53"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="s">
+      <c r="AH59" s="53"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="83"/>
-      <c r="T59" s="83"/>
-      <c r="U59" s="83"/>
-      <c r="V59" s="83"/>
-      <c r="W59" s="83"/>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="83"/>
-      <c r="Z59" s="83"/>
-      <c r="AA59" s="83"/>
-      <c r="AB59" s="83"/>
-      <c r="AC59" s="83"/>
-      <c r="AD59" s="83"/>
-      <c r="AE59" s="84"/>
-      <c r="AF59" s="85">
-        <f>AG58-AF58</f>
-        <v>672</v>
-      </c>
-      <c r="AG59" s="86"/>
-      <c r="AH59" s="53"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="X64" s="6" t="s">
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="58"/>
+      <c r="S60" s="58"/>
+      <c r="T60" s="58"/>
+      <c r="U60" s="58"/>
+      <c r="V60" s="58"/>
+      <c r="W60" s="58"/>
+      <c r="X60" s="58"/>
+      <c r="Y60" s="58"/>
+      <c r="Z60" s="58"/>
+      <c r="AA60" s="58"/>
+      <c r="AB60" s="58"/>
+      <c r="AC60" s="58"/>
+      <c r="AD60" s="58"/>
+      <c r="AE60" s="59"/>
+      <c r="AF60" s="60">
+        <f>AG59-AF59</f>
+        <v>608</v>
+      </c>
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="53"/>
+    </row>
+    <row r="65" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X65" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="A58:AE58"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4231,15 +4271,38 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB57:AC57"/>
     <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A59:AE59"/>
+    <mergeCell ref="A60:AE60"/>
+    <mergeCell ref="AF60:AG60"/>
     <mergeCell ref="P57:Q57"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="T57:U57"/>
     <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t xml:space="preserve">Thanh hà </t>
+  </si>
+  <si>
+    <t>Dđại Lý Thanh hóa</t>
+  </si>
+  <si>
+    <t>Chị Phương Yên Châu</t>
+  </si>
+  <si>
+    <t>10 bộ cốc</t>
   </si>
 </sst>
 </file>
@@ -1321,36 +1330,36 @@
   <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57:I57"/>
+      <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2477,7 +2486,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="31"/>
+      <c r="AH22" s="31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
@@ -2729,12 +2740,18 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="G28" s="31">
+        <v>36</v>
+      </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="31"/>
@@ -2752,16 +2769,21 @@
       <c r="V28" s="31"/>
       <c r="W28" s="31"/>
       <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
+      <c r="Y28" s="37">
+        <v>36</v>
+      </c>
       <c r="Z28" s="31"/>
       <c r="AA28" s="31"/>
       <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
+      <c r="AC28" s="38">
+        <f>72-19</f>
+        <v>53</v>
+      </c>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="1"/>
@@ -2771,15 +2793,21 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
+      <c r="B29" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
-      <c r="J29" s="31"/>
+      <c r="J29" s="31">
+        <v>3</v>
+      </c>
       <c r="K29" s="31"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
@@ -2791,7 +2819,9 @@
       <c r="S29" s="31"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
-      <c r="V29" s="31"/>
+      <c r="V29" s="31">
+        <v>3</v>
+      </c>
       <c r="W29" s="31"/>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
@@ -2807,14 +2837,18 @@
       </c>
       <c r="AG29" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH29" s="31"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="31"/>
@@ -2822,7 +2856,9 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="K30" s="31">
+        <v>3</v>
+      </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="31"/>
@@ -2834,7 +2870,9 @@
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
       <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
+      <c r="W30" s="31">
+        <v>3</v>
+      </c>
       <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
       <c r="Z30" s="31"/>
@@ -2845,7 +2883,7 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="1"/>
@@ -4004,7 +4042,7 @@
       <c r="E57" s="73"/>
       <c r="F57" s="56">
         <f>SUM(F9:F56)-SUM(G9:G56)</f>
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="G57" s="56"/>
       <c r="H57" s="74">
@@ -4049,7 +4087,7 @@
       <c r="W57" s="56"/>
       <c r="X57" s="64">
         <f>SUM(X9:X56)-SUM(Y9:Y56)</f>
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="Y57" s="64"/>
       <c r="Z57" s="56">
@@ -4059,7 +4097,7 @@
       <c r="AA57" s="56"/>
       <c r="AB57" s="55">
         <f>SUM(AB9:AB56)-SUM(AC9:AC56)</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="55"/>
       <c r="AD57" s="56">
@@ -4073,7 +4111,7 @@
       </c>
       <c r="AG57" s="20">
         <f>D57+F57+H57+J57+L57+N57+P57+R57+T57+V57+X57+Z57+AB57+AD57</f>
-        <v>608</v>
+        <v>483</v>
       </c>
       <c r="AH57" s="51"/>
     </row>
@@ -4090,7 +4128,7 @@
       <c r="E58" s="65"/>
       <c r="F58" s="66">
         <f>F57/12</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G58" s="66"/>
       <c r="H58" s="67">
@@ -4135,7 +4173,7 @@
       <c r="W58" s="66"/>
       <c r="X58" s="89">
         <f>X57/12</f>
-        <v>10.25</v>
+        <v>7.25</v>
       </c>
       <c r="Y58" s="89"/>
       <c r="Z58" s="66">
@@ -4145,7 +4183,7 @@
       <c r="AA58" s="66"/>
       <c r="AB58" s="90">
         <f>AB57/24</f>
-        <v>2.2083333333333335</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="90"/>
       <c r="AD58" s="56"/>
@@ -4190,11 +4228,11 @@
       <c r="AE59" s="59"/>
       <c r="AF59" s="52">
         <f>SUM(AF9:AF56)</f>
-        <v>284</v>
+        <v>415</v>
       </c>
       <c r="AG59" s="52">
         <f>SUM(AG9:AG56)</f>
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="AH59" s="53"/>
     </row>
@@ -4234,7 +4272,7 @@
       <c r="AE60" s="59"/>
       <c r="AF60" s="60">
         <f>AG59-AF59</f>
-        <v>608</v>
+        <v>483</v>
       </c>
       <c r="AG60" s="61"/>
       <c r="AH60" s="53"/>
@@ -4316,7 +4354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4328,7 +4366,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,355 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -528,7 +876,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -651,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -784,19 +1132,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -818,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,28 +1227,127 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -941,85 +1375,10 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,7 +1477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1327,23 +1686,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH65"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
     <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
@@ -1363,11 +1724,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1403,11 +1764,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1443,235 +1804,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="70" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="86" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="70" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="87" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="70" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="88" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="70" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="76" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="70" t="s">
+      <c r="Q7" s="80"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="77" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="77"/>
-      <c r="V7" s="70" t="s">
+      <c r="U7" s="81"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="70"/>
-      <c r="X7" s="78" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="70" t="s">
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="69" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="70" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="71" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="71" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="70"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1756,9 +2117,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="70"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1875,11 +2236,11 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF57" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF32" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>0</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG56" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG31" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>12</v>
       </c>
       <c r="AH10" s="31"/>
@@ -2750,8 +3111,1787 @@
       <c r="E28" s="32"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31">
+        <f>7*12</f>
+        <v>84</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31">
+        <v>60</v>
+      </c>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31">
+        <f>72-24</f>
+        <v>48</v>
+      </c>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31">
+        <v>24</v>
+      </c>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37">
+        <v>84</v>
+      </c>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31">
+        <v>48</v>
+      </c>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38">
+        <f>72-19</f>
+        <v>53</v>
+      </c>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="20">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="31"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="31">
+        <v>3</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="31">
+        <v>3</v>
+      </c>
+      <c r="W29" s="31"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AH29" s="31"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31">
+        <v>3</v>
+      </c>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31">
+        <v>3</v>
+      </c>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="31"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="31">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="O31" s="31"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="S31" s="31"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="31">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="W31" s="31"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="AH31" s="31"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="77">
+        <f>SUM(D9:D31)-SUM(E9:E31)</f>
+        <v>16</v>
+      </c>
+      <c r="E32" s="77"/>
+      <c r="F32" s="60">
+        <f>SUM(F9:F31)-SUM(G9:G31)</f>
+        <v>420</v>
+      </c>
+      <c r="G32" s="60"/>
+      <c r="H32" s="78">
+        <f>SUM(H9:H31)-SUM(I9:I31)</f>
+        <v>5</v>
+      </c>
+      <c r="I32" s="78"/>
+      <c r="J32" s="60">
+        <f>SUM(J9:J31)-SUM(K9:K31)</f>
+        <v>60</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="79">
+        <f>SUM(L9:L31)-SUM(M9:M31)</f>
+        <v>13</v>
+      </c>
+      <c r="M32" s="79"/>
+      <c r="N32" s="60">
+        <f>SUM(N9:N31)-SUM(O9:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="60"/>
+      <c r="P32" s="89">
+        <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="60">
+        <f>SUM(R9:R31)-SUM(S9:S31)</f>
+        <v>72</v>
+      </c>
+      <c r="S32" s="60"/>
+      <c r="T32" s="90">
+        <f>SUM(T9:T31)-SUM(U9:U31)</f>
+        <v>7</v>
+      </c>
+      <c r="U32" s="90"/>
+      <c r="V32" s="60">
+        <f>SUM(V9:V31)-SUM(W9:W31)</f>
         <v>36</v>
       </c>
+      <c r="W32" s="60"/>
+      <c r="X32" s="91">
+        <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
+        <v>39</v>
+      </c>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="60">
+        <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
+        <v>72</v>
+      </c>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="83">
+        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="60">
+        <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
+        <v>127</v>
+      </c>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="20">
+        <f>D32+F32+H32+J32+L32+N32+P32+R32+T32+V32+X32+Z32+AB32+AD32</f>
+        <v>867</v>
+      </c>
+      <c r="AH32" s="42"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="92">
+        <f>D32/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E33" s="92"/>
+      <c r="F33" s="58">
+        <f>F32/12</f>
+        <v>35</v>
+      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="93">
+        <f>H32/24</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I33" s="93"/>
+      <c r="J33" s="58">
+        <f>J32/12</f>
+        <v>5</v>
+      </c>
+      <c r="K33" s="58"/>
+      <c r="L33" s="94">
+        <f>L32/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M33" s="94"/>
+      <c r="N33" s="58">
+        <f>N32/12</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="58"/>
+      <c r="P33" s="61">
+        <f>P32/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="58">
+        <f>R32/12</f>
+        <v>6</v>
+      </c>
+      <c r="S33" s="58"/>
+      <c r="T33" s="62">
+        <f>T32/24</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U33" s="62"/>
+      <c r="V33" s="58">
+        <f>V32/12</f>
+        <v>3</v>
+      </c>
+      <c r="W33" s="58"/>
+      <c r="X33" s="57">
+        <f>X32/12</f>
+        <v>3.25</v>
+      </c>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="58">
+        <f>Z32/12</f>
+        <v>6</v>
+      </c>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="59">
+        <f>AB32/24</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="42"/>
+    </row>
+    <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="85"/>
+      <c r="AE34" s="86"/>
+      <c r="AF34" s="43">
+        <f>SUM(AF9:AF31)</f>
+        <v>751</v>
+      </c>
+      <c r="AG34" s="43">
+        <f>SUM(AG9:AG31)</f>
+        <v>1618</v>
+      </c>
+      <c r="AH34" s="44"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="87">
+        <f>AG34-AF34</f>
+        <v>867</v>
+      </c>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="44"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X40" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="4" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="63"/>
+      <c r="P7" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="63"/>
+      <c r="T7" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="81"/>
+      <c r="V7" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="63"/>
+      <c r="X7" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG7" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH7" s="63"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21">
+        <v>44012</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="20"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="20">
+        <f t="shared" ref="AF10:AF32" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="20">
+        <f t="shared" ref="AG10:AG31" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="31"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="31"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="31"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="31"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="31"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="31"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="31"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="31"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="31"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="31"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="31"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="31"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="31"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="31"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="31"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="31"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="31"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="31"/>
@@ -2769,21 +4909,16 @@
       <c r="V28" s="31"/>
       <c r="W28" s="31"/>
       <c r="X28" s="37"/>
-      <c r="Y28" s="37">
-        <v>36</v>
-      </c>
+      <c r="Y28" s="37"/>
       <c r="Z28" s="31"/>
       <c r="AA28" s="31"/>
       <c r="AB28" s="38"/>
-      <c r="AC28" s="38">
-        <f>72-19</f>
-        <v>53</v>
-      </c>
+      <c r="AC28" s="38"/>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="20">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="1"/>
@@ -2793,21 +4928,15 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="30">
-        <v>44009</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
-      <c r="J29" s="31">
-        <v>3</v>
-      </c>
+      <c r="J29" s="31"/>
       <c r="K29" s="31"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
@@ -2819,9 +4948,7 @@
       <c r="S29" s="31"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
-      <c r="V29" s="31">
-        <v>3</v>
-      </c>
+      <c r="V29" s="31"/>
       <c r="W29" s="31"/>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
@@ -2837,18 +4964,14 @@
       </c>
       <c r="AG29" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="31"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="30">
-        <v>44009</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>51</v>
-      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="31"/>
@@ -2856,9 +4979,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="31">
-        <v>3</v>
-      </c>
+      <c r="K30" s="31"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="31"/>
@@ -2870,9 +4991,7 @@
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
       <c r="V30" s="31"/>
-      <c r="W30" s="31">
-        <v>3</v>
-      </c>
+      <c r="W30" s="31"/>
       <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
       <c r="Z30" s="31"/>
@@ -2883,7 +5002,7 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="1"/>
@@ -2934,1365 +5053,306 @@
       <c r="AH31" s="31"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="77">
+        <f>SUM(D9:D31)-SUM(E9:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="77"/>
+      <c r="F32" s="60">
+        <f>SUM(F9:F31)-SUM(G9:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="60"/>
+      <c r="H32" s="78">
+        <f>SUM(H9:H31)-SUM(I9:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="78"/>
+      <c r="J32" s="60">
+        <f>SUM(J9:J31)-SUM(K9:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="79">
+        <f>SUM(L9:L31)-SUM(M9:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="79"/>
+      <c r="N32" s="60">
+        <f>SUM(N9:N31)-SUM(O9:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="60"/>
+      <c r="P32" s="89">
+        <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="60">
+        <f>SUM(R9:R31)-SUM(S9:S31)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="60"/>
+      <c r="T32" s="90">
+        <f>SUM(T9:T31)-SUM(U9:U31)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="90"/>
+      <c r="V32" s="60">
+        <f>SUM(V9:V31)-SUM(W9:W31)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="60"/>
+      <c r="X32" s="91">
+        <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="60">
+        <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="83">
+        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="60">
+        <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="60"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG32" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="31"/>
+        <f>D32+F32+H32+J32+L32+N32+P32+R32+T32+V32+X32+Z32+AB32+AD32</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="42"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="31"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
-        <v>12</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="31"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="92">
+        <f>D32/24</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="92"/>
+      <c r="F33" s="58">
+        <f>F32/12</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="93">
+        <f>H32/24</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="93"/>
+      <c r="J33" s="58">
+        <f>J32/12</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="58"/>
+      <c r="L33" s="94">
+        <f>L32/24</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="94"/>
+      <c r="N33" s="58">
+        <f>N32/12</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="58"/>
+      <c r="P33" s="61">
+        <f>P32/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="58">
+        <f>R32/12</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="58"/>
+      <c r="T33" s="62">
+        <f>T32/24</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="62"/>
+      <c r="V33" s="58">
+        <f>V32/12</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="58"/>
+      <c r="X33" s="57">
+        <f>X32/12</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="58">
+        <f>Z32/12</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="59">
+        <f>AB32/24</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="42"/>
+    </row>
+    <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="85"/>
+      <c r="AE34" s="86"/>
+      <c r="AF34" s="43">
+        <f>SUM(AF9:AF31)</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="43">
+        <f>SUM(AG9:AG31)</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="44"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>13</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="31"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
-        <v>14</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="31"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>15</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="31"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
-        <v>16</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="31"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>17</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="38"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="31"/>
+      <c r="A35" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="87">
+        <f>AG34-AF34</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
-        <v>18</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="31"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>19</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="31"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
-        <v>20</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="31"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
-        <v>21</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="31"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
-        <v>22</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="31"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
-        <v>23</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="31"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
-        <v>24</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="31"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>25</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="31"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
-        <v>26</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="31"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>27</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="31"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>28</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="31"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>29</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH51" s="31"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
-        <v>30</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="38"/>
-      <c r="AC52" s="38"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG52" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH52" s="31"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
-        <v>31</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="38"/>
-      <c r="AC53" s="38"/>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
-      <c r="AF53" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="31"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
-        <v>32</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="40"/>
-      <c r="AE54" s="40"/>
-      <c r="AF54" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG54" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH54" s="40"/>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
-        <v>33</v>
-      </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="40"/>
-      <c r="AA55" s="40"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="40"/>
-      <c r="AE55" s="40"/>
-      <c r="AF55" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH55" s="40"/>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
-        <v>34</v>
-      </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="40"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="40"/>
-      <c r="AE56" s="40"/>
-      <c r="AF56" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG56" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH56" s="40"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="73">
-        <f>SUM(D9:D56)-SUM(E9:E56)</f>
-        <v>16</v>
-      </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="56">
-        <f>SUM(F9:F56)-SUM(G9:G56)</f>
-        <v>228</v>
-      </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="74">
-        <f>SUM(H9:H56)-SUM(I9:I56)</f>
-        <v>5</v>
-      </c>
-      <c r="I57" s="74"/>
-      <c r="J57" s="56">
-        <f>SUM(J9:J56)-SUM(K9:K56)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="75">
-        <f>SUM(L9:L56)-SUM(M9:M56)</f>
-        <v>13</v>
-      </c>
-      <c r="M57" s="75"/>
-      <c r="N57" s="56">
-        <f>SUM(N9:N56)-SUM(O9:O56)</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="56"/>
-      <c r="P57" s="62">
-        <f>SUM(P9:P56)-SUM(Q9:Q56)</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="56">
-        <f>SUM(R9:R56)-SUM(S9:S56)</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="56"/>
-      <c r="T57" s="63">
-        <f>SUM(T9:T56)-SUM(U9:U56)</f>
-        <v>7</v>
-      </c>
-      <c r="U57" s="63"/>
-      <c r="V57" s="56">
-        <f>SUM(V9:V56)-SUM(W9:W56)</f>
-        <v>0</v>
-      </c>
-      <c r="W57" s="56"/>
-      <c r="X57" s="64">
-        <f>SUM(X9:X56)-SUM(Y9:Y56)</f>
-        <v>87</v>
-      </c>
-      <c r="Y57" s="64"/>
-      <c r="Z57" s="56">
-        <f>SUM(Z9:Z56)-SUM(AA9:AA56)</f>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="55">
-        <f>SUM(AB9:AB56)-SUM(AC9:AC56)</f>
-        <v>0</v>
-      </c>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="56">
-        <f>SUM(AD9:AD56)-SUM(AE9:AE56)</f>
-        <v>127</v>
-      </c>
-      <c r="AE57" s="56"/>
-      <c r="AF57" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="20">
-        <f>D57+F57+H57+J57+L57+N57+P57+R57+T57+V57+X57+Z57+AB57+AD57</f>
-        <v>483</v>
-      </c>
-      <c r="AH57" s="51"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="65">
-        <f>D57/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E58" s="65"/>
-      <c r="F58" s="66">
-        <f>F57/12</f>
-        <v>19</v>
-      </c>
-      <c r="G58" s="66"/>
-      <c r="H58" s="67">
-        <f>H57/24</f>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="I58" s="67"/>
-      <c r="J58" s="66">
-        <f>J57/12</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="66"/>
-      <c r="L58" s="68">
-        <f>L57/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M58" s="68"/>
-      <c r="N58" s="66">
-        <f>N57/12</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="66"/>
-      <c r="P58" s="91">
-        <f>P57/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="91"/>
-      <c r="R58" s="66">
-        <f>R57/12</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="66"/>
-      <c r="T58" s="92">
-        <f>T57/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="U58" s="92"/>
-      <c r="V58" s="66">
-        <f>V57/12</f>
-        <v>0</v>
-      </c>
-      <c r="W58" s="66"/>
-      <c r="X58" s="89">
-        <f>X57/12</f>
-        <v>7.25</v>
-      </c>
-      <c r="Y58" s="89"/>
-      <c r="Z58" s="66">
-        <f>Z57/12</f>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="66"/>
-      <c r="AB58" s="90">
-        <f>AB57/24</f>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="90"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="20"/>
-      <c r="AG58" s="20"/>
-      <c r="AH58" s="51"/>
-    </row>
-    <row r="59" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="58"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="58"/>
-      <c r="W59" s="58"/>
-      <c r="X59" s="58"/>
-      <c r="Y59" s="58"/>
-      <c r="Z59" s="58"/>
-      <c r="AA59" s="58"/>
-      <c r="AB59" s="58"/>
-      <c r="AC59" s="58"/>
-      <c r="AD59" s="58"/>
-      <c r="AE59" s="59"/>
-      <c r="AF59" s="52">
-        <f>SUM(AF9:AF56)</f>
-        <v>415</v>
-      </c>
-      <c r="AG59" s="52">
-        <f>SUM(AG9:AG56)</f>
-        <v>898</v>
-      </c>
-      <c r="AH59" s="53"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="58"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="58"/>
-      <c r="U60" s="58"/>
-      <c r="V60" s="58"/>
-      <c r="W60" s="58"/>
-      <c r="X60" s="58"/>
-      <c r="Y60" s="58"/>
-      <c r="Z60" s="58"/>
-      <c r="AA60" s="58"/>
-      <c r="AB60" s="58"/>
-      <c r="AC60" s="58"/>
-      <c r="AD60" s="58"/>
-      <c r="AE60" s="59"/>
-      <c r="AF60" s="60">
-        <f>AG59-AF59</f>
-        <v>483</v>
-      </c>
-      <c r="AG60" s="61"/>
-      <c r="AH60" s="53"/>
-    </row>
-    <row r="65" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X65" s="6" t="s">
+      <c r="X40" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4304,59 +5364,9 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:AG6"/>
     <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="A60:AE60"/>
-    <mergeCell ref="AF60:AG60"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1267,118 +1267,118 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1442,7 +1442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1477,7 +1477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1695,40 +1695,40 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1764,11 +1764,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1804,235 +1804,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="89"/>
+      <c r="J7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="72"/>
+      <c r="L7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="90"/>
+      <c r="N7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="80" t="s">
+      <c r="O7" s="72"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="81" t="s">
+      <c r="S7" s="72"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="81"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="82" t="s">
+      <c r="W7" s="72"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="72"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2117,9 +2117,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="72"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3335,76 +3335,76 @@
       <c r="C32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="75">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>16</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="60">
+      <c r="E32" s="75"/>
+      <c r="F32" s="58">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
         <v>420</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="78">
+      <c r="G32" s="58"/>
+      <c r="H32" s="76">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>5</v>
       </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="60">
+      <c r="I32" s="76"/>
+      <c r="J32" s="58">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
         <v>60</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="79">
+      <c r="K32" s="58"/>
+      <c r="L32" s="77">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>13</v>
       </c>
-      <c r="M32" s="79"/>
-      <c r="N32" s="60">
+      <c r="M32" s="77"/>
+      <c r="N32" s="58">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="60"/>
-      <c r="P32" s="89">
+      <c r="O32" s="58"/>
+      <c r="P32" s="64">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="60">
+      <c r="Q32" s="64"/>
+      <c r="R32" s="58">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>72</v>
       </c>
-      <c r="S32" s="60"/>
-      <c r="T32" s="90">
+      <c r="S32" s="58"/>
+      <c r="T32" s="65">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>7</v>
       </c>
-      <c r="U32" s="90"/>
-      <c r="V32" s="60">
+      <c r="U32" s="65"/>
+      <c r="V32" s="58">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
         <v>36</v>
       </c>
-      <c r="W32" s="60"/>
-      <c r="X32" s="91">
+      <c r="W32" s="58"/>
+      <c r="X32" s="66">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
         <v>39</v>
       </c>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="60">
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="58">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
         <v>72</v>
       </c>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="83">
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="57">
         <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="60">
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="58">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
         <v>127</v>
       </c>
-      <c r="AE32" s="60"/>
+      <c r="AE32" s="58"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3421,111 +3421,111 @@
       <c r="C33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="67">
         <f>D32/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="58">
+      <c r="E33" s="67"/>
+      <c r="F33" s="68">
         <f>F32/12</f>
         <v>35</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="93">
+      <c r="G33" s="68"/>
+      <c r="H33" s="69">
         <f>H32/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I33" s="93"/>
-      <c r="J33" s="58">
+      <c r="I33" s="69"/>
+      <c r="J33" s="68">
         <f>J32/12</f>
         <v>5</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="94">
+      <c r="K33" s="68"/>
+      <c r="L33" s="70">
         <f>L32/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="58">
+      <c r="M33" s="70"/>
+      <c r="N33" s="68">
         <f>N32/12</f>
         <v>0</v>
       </c>
-      <c r="O33" s="58"/>
-      <c r="P33" s="61">
+      <c r="O33" s="68"/>
+      <c r="P33" s="93">
         <f>P32/24</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="58">
+      <c r="Q33" s="93"/>
+      <c r="R33" s="68">
         <f>R32/12</f>
         <v>6</v>
       </c>
-      <c r="S33" s="58"/>
-      <c r="T33" s="62">
+      <c r="S33" s="68"/>
+      <c r="T33" s="94">
         <f>T32/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U33" s="62"/>
-      <c r="V33" s="58">
+      <c r="U33" s="94"/>
+      <c r="V33" s="68">
         <f>V32/12</f>
         <v>3</v>
       </c>
-      <c r="W33" s="58"/>
-      <c r="X33" s="57">
+      <c r="W33" s="68"/>
+      <c r="X33" s="91">
         <f>X32/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="58">
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="68">
         <f>Z32/12</f>
         <v>6</v>
       </c>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="59">
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="92">
         <f>AB32/24</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
       <c r="AH33" s="42"/>
     </row>
     <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="86"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="61"/>
       <c r="AF34" s="43">
         <f>SUM(AF9:AF31)</f>
         <v>751</v>
@@ -3537,44 +3537,44 @@
       <c r="AH34" s="44"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="87">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="62">
         <f>AG34-AF34</f>
         <v>867</v>
       </c>
-      <c r="AG35" s="88"/>
+      <c r="AG35" s="63"/>
       <c r="AH35" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
@@ -3584,6 +3584,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="AD32:AE32"/>
     <mergeCell ref="A34:AE34"/>
@@ -3600,47 +3641,6 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3653,43 +3653,43 @@
   <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -3725,11 +3725,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3765,235 +3765,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="89"/>
+      <c r="J7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="72"/>
+      <c r="L7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="90"/>
+      <c r="N7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="80" t="s">
+      <c r="O7" s="72"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="81" t="s">
+      <c r="S7" s="72"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="81"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="82" t="s">
+      <c r="W7" s="72"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="72"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4078,16 +4078,18 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="72"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="21">
         <v>44012</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="20"/>
@@ -5058,76 +5060,76 @@
       <c r="C32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="75">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="60">
+      <c r="E32" s="75"/>
+      <c r="F32" s="58">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="78">
+      <c r="G32" s="58"/>
+      <c r="H32" s="76">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="60">
+      <c r="I32" s="76"/>
+      <c r="J32" s="58">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="79">
+      <c r="K32" s="58"/>
+      <c r="L32" s="77">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="79"/>
-      <c r="N32" s="60">
+      <c r="M32" s="77"/>
+      <c r="N32" s="58">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="60"/>
-      <c r="P32" s="89">
+      <c r="O32" s="58"/>
+      <c r="P32" s="64">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="60">
+      <c r="Q32" s="64"/>
+      <c r="R32" s="58">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="60"/>
-      <c r="T32" s="90">
+      <c r="S32" s="58"/>
+      <c r="T32" s="65">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>0</v>
       </c>
-      <c r="U32" s="90"/>
-      <c r="V32" s="60">
+      <c r="U32" s="65"/>
+      <c r="V32" s="58">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="60"/>
-      <c r="X32" s="91">
+      <c r="W32" s="58"/>
+      <c r="X32" s="66">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="60">
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="58">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
         <v>0</v>
       </c>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="83">
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="57">
         <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="60">
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="58">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="60"/>
+      <c r="AE32" s="58"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5144,111 +5146,111 @@
       <c r="C33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="67">
         <f>D32/24</f>
         <v>0</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="58">
+      <c r="E33" s="67"/>
+      <c r="F33" s="68">
         <f>F32/12</f>
         <v>0</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="93">
+      <c r="G33" s="68"/>
+      <c r="H33" s="69">
         <f>H32/24</f>
         <v>0</v>
       </c>
-      <c r="I33" s="93"/>
-      <c r="J33" s="58">
+      <c r="I33" s="69"/>
+      <c r="J33" s="68">
         <f>J32/12</f>
         <v>0</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="94">
+      <c r="K33" s="68"/>
+      <c r="L33" s="70">
         <f>L32/24</f>
         <v>0</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="58">
+      <c r="M33" s="70"/>
+      <c r="N33" s="68">
         <f>N32/12</f>
         <v>0</v>
       </c>
-      <c r="O33" s="58"/>
-      <c r="P33" s="61">
+      <c r="O33" s="68"/>
+      <c r="P33" s="93">
         <f>P32/24</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="58">
+      <c r="Q33" s="93"/>
+      <c r="R33" s="68">
         <f>R32/12</f>
         <v>0</v>
       </c>
-      <c r="S33" s="58"/>
-      <c r="T33" s="62">
+      <c r="S33" s="68"/>
+      <c r="T33" s="94">
         <f>T32/24</f>
         <v>0</v>
       </c>
-      <c r="U33" s="62"/>
-      <c r="V33" s="58">
+      <c r="U33" s="94"/>
+      <c r="V33" s="68">
         <f>V32/12</f>
         <v>0</v>
       </c>
-      <c r="W33" s="58"/>
-      <c r="X33" s="57">
+      <c r="W33" s="68"/>
+      <c r="X33" s="91">
         <f>X32/12</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="58">
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="68">
         <f>Z32/12</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="59">
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="92">
         <f>AB32/24</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
       <c r="AH33" s="42"/>
     </row>
     <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="86"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="61"/>
       <c r="AF34" s="43">
         <f>SUM(AF9:AF31)</f>
         <v>0</v>
@@ -5260,44 +5262,44 @@
       <c r="AH34" s="44"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="87">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="62">
         <f>AG34-AF34</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="88"/>
+      <c r="AG35" s="63"/>
       <c r="AH35" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
@@ -5307,15 +5309,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="AD32:AE32"/>
     <mergeCell ref="D33:E33"/>
@@ -5332,38 +5357,15 @@
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5376,7 +5378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -871,12 +871,27 @@
   </si>
   <si>
     <t>10 bộ cốc</t>
+  </si>
+  <si>
+    <t>Tâm nanomilk</t>
+  </si>
+  <si>
+    <t>Kín -&gt; An Khánh</t>
+  </si>
+  <si>
+    <t>Tồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kho -&gt; An Khánh </t>
+  </si>
+  <si>
+    <t>Tháng 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1153,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,12 +1282,87 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1300,85 +1390,13 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1442,7 +1460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1477,7 +1495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1686,49 +1704,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1764,11 +1782,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1804,235 +1822,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="72" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="88" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="72" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="89" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="72" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="90" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="72" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="72" t="s">
+      <c r="Q7" s="80"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="72" t="s">
+      <c r="U7" s="81"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="72"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="72" t="s">
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="71" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="72" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="73" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="72"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2117,9 +2135,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="72"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -2236,7 +2254,7 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF32" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>0</v>
       </c>
       <c r="AG10" s="20">
@@ -3118,8 +3136,7 @@
       <c r="I28" s="33"/>
       <c r="J28" s="31"/>
       <c r="K28" s="31">
-        <f>5*12</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -3157,7 +3174,7 @@
       <c r="AE28" s="31"/>
       <c r="AF28" s="20">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="1"/>
@@ -3330,269 +3347,342 @@
       <c r="AH31" s="31"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="75">
-        <f>SUM(D9:D31)-SUM(E9:E31)</f>
-        <v>16</v>
-      </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="58">
-        <f>SUM(F9:F31)-SUM(G9:G31)</f>
-        <v>420</v>
-      </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="76">
-        <f>SUM(H9:H31)-SUM(I9:I31)</f>
-        <v>5</v>
-      </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="58">
-        <f>SUM(J9:J31)-SUM(K9:K31)</f>
-        <v>60</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="77">
-        <f>SUM(L9:L31)-SUM(M9:M31)</f>
-        <v>13</v>
-      </c>
-      <c r="M32" s="77"/>
-      <c r="N32" s="58">
-        <f>SUM(N9:N31)-SUM(O9:O31)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="64">
-        <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="58">
-        <f>SUM(R9:R31)-SUM(S9:S31)</f>
-        <v>72</v>
-      </c>
-      <c r="S32" s="58"/>
-      <c r="T32" s="65">
-        <f>SUM(T9:T31)-SUM(U9:U31)</f>
-        <v>7</v>
-      </c>
-      <c r="U32" s="65"/>
-      <c r="V32" s="58">
-        <f>SUM(V9:V31)-SUM(W9:W31)</f>
-        <v>36</v>
-      </c>
-      <c r="W32" s="58"/>
-      <c r="X32" s="66">
-        <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
-        <v>39</v>
-      </c>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="58">
-        <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
-        <v>72</v>
-      </c>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="57">
-        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="58">
-        <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
-        <v>127</v>
-      </c>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="20">
-        <f>D32+F32+H32+J32+L32+N32+P32+R32+T32+V32+X32+Z32+AB32+AD32</f>
-        <v>867</v>
-      </c>
-      <c r="AH32" s="42"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30">
+        <v>44011</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31">
+        <v>24</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31">
+        <v>12</v>
+      </c>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31">
+        <v>24</v>
+      </c>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31">
+        <v>12</v>
+      </c>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="31"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="77">
+        <f>SUM(D9:D32)-SUM(E9:E32)</f>
+        <v>16</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77">
+        <f t="shared" ref="F33" si="2">SUM(F9:F32)-SUM(G9:G32)</f>
+        <v>396</v>
+      </c>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77">
+        <f t="shared" ref="H33" si="3">SUM(H9:H32)-SUM(I9:I32)</f>
+        <v>5</v>
+      </c>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77">
+        <f t="shared" ref="J33" si="4">SUM(J9:J32)-SUM(K9:K32)</f>
+        <v>36</v>
+      </c>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77">
+        <f t="shared" ref="L33" si="5">SUM(L9:L32)-SUM(M9:M32)</f>
+        <v>13</v>
+      </c>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77">
+        <f t="shared" ref="N33" si="6">SUM(N9:N32)-SUM(O9:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77">
+        <f t="shared" ref="P33" si="7">SUM(P9:P32)-SUM(Q9:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77">
+        <f t="shared" ref="R33" si="8">SUM(R9:R32)-SUM(S9:S32)</f>
+        <v>48</v>
+      </c>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77">
+        <f t="shared" ref="T33" si="9">SUM(T9:T32)-SUM(U9:U32)</f>
+        <v>7</v>
+      </c>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77">
+        <f t="shared" ref="V33" si="10">SUM(V9:V32)-SUM(W9:W32)</f>
+        <v>24</v>
+      </c>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77">
+        <f t="shared" ref="X33" si="11">SUM(X9:X32)-SUM(Y9:Y32)</f>
+        <v>39</v>
+      </c>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77">
+        <f t="shared" ref="Z33" si="12">SUM(Z9:Z32)-SUM(AA9:AA32)</f>
+        <v>60</v>
+      </c>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77">
+        <f t="shared" ref="AB33" si="13">SUM(AB9:AB32)-SUM(AC9:AC32)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77">
+        <f t="shared" ref="AD33" si="14">SUM(AD9:AD32)-SUM(AE9:AE32)</f>
+        <v>127</v>
+      </c>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20">
+        <f>D33+F33+H33+J33+L33+N33+P33+R33+T33+V33+X33+Z33+AB33+AD33</f>
+        <v>771</v>
+      </c>
+      <c r="AH33" s="42"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="67">
-        <f>D32/24</f>
+      <c r="D34" s="92">
+        <f>D33/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68">
-        <f>F32/12</f>
-        <v>35</v>
-      </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69">
-        <f>H32/24</f>
+      <c r="E34" s="92"/>
+      <c r="F34" s="58">
+        <f>F33/12</f>
+        <v>33</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="93">
+        <f>H33/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="68">
-        <f>J32/12</f>
+      <c r="I34" s="93"/>
+      <c r="J34" s="58">
+        <f>J33/12</f>
+        <v>3</v>
+      </c>
+      <c r="K34" s="58"/>
+      <c r="L34" s="94">
+        <f>L33/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M34" s="94"/>
+      <c r="N34" s="58">
+        <f>N33/12</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="58"/>
+      <c r="P34" s="61">
+        <f>P33/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="58">
+        <f>R33/12</f>
+        <v>4</v>
+      </c>
+      <c r="S34" s="58"/>
+      <c r="T34" s="62">
+        <f>T33/24</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U34" s="62"/>
+      <c r="V34" s="58">
+        <f>V33/12</f>
+        <v>2</v>
+      </c>
+      <c r="W34" s="58"/>
+      <c r="X34" s="57">
+        <f>X33/12</f>
+        <v>3.25</v>
+      </c>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58">
+        <f>Z33/12</f>
         <v>5</v>
       </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="70">
-        <f>L32/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M33" s="70"/>
-      <c r="N33" s="68">
-        <f>N32/12</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="68"/>
-      <c r="P33" s="93">
-        <f>P32/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="68">
-        <f>R32/12</f>
-        <v>6</v>
-      </c>
-      <c r="S33" s="68"/>
-      <c r="T33" s="94">
-        <f>T32/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="68">
-        <f>V32/12</f>
-        <v>3</v>
-      </c>
-      <c r="W33" s="68"/>
-      <c r="X33" s="91">
-        <f>X32/12</f>
-        <v>3.25</v>
-      </c>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="68">
-        <f>Z32/12</f>
-        <v>6</v>
-      </c>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="92">
-        <f>AB32/24</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="42"/>
-    </row>
-    <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="59">
+        <f>AB33/24</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="42"/>
+    </row>
+    <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="43">
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="43">
         <f>SUM(AF9:AF31)</f>
-        <v>751</v>
-      </c>
-      <c r="AG34" s="43">
+        <v>763</v>
+      </c>
+      <c r="AG35" s="43">
         <f>SUM(AG9:AG31)</f>
         <v>1618</v>
       </c>
-      <c r="AH34" s="44"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="AH35" s="44"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="60"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="62">
-        <f>AG34-AF34</f>
-        <v>867</v>
-      </c>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="44"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="X40" s="6" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="85"/>
+      <c r="AE36" s="86"/>
+      <c r="AF36" s="87">
+        <f>AG35-AF35</f>
+        <v>855</v>
+      </c>
+      <c r="AG36" s="88"/>
+      <c r="AH36" s="44"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
     <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3609,38 +3699,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3652,44 +3719,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -3725,11 +3792,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3765,235 +3832,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="A4" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="72" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="88" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="72" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="89" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="72" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="90" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="72" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="72" t="s">
+      <c r="Q7" s="80"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="72" t="s">
+      <c r="U7" s="81"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="72"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="72" t="s">
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="71" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="72" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="73" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="72"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4078,9 +4145,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="72"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4088,35 +4155,63 @@
         <v>44012</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="D9" s="22">
+        <v>16</v>
+      </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20">
+        <v>396</v>
+      </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="23">
+        <v>5</v>
+      </c>
       <c r="I9" s="23"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="20">
+        <v>36</v>
+      </c>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="24">
+        <v>13</v>
+      </c>
       <c r="M9" s="24"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
       <c r="O9" s="20"/>
-      <c r="P9" s="25"/>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
       <c r="Q9" s="25"/>
-      <c r="R9" s="20"/>
+      <c r="R9" s="20">
+        <v>48</v>
+      </c>
       <c r="S9" s="20"/>
-      <c r="T9" s="26"/>
+      <c r="T9" s="26">
+        <v>7</v>
+      </c>
       <c r="U9" s="26"/>
-      <c r="V9" s="20"/>
+      <c r="V9" s="20">
+        <v>24</v>
+      </c>
       <c r="W9" s="20"/>
-      <c r="X9" s="27"/>
+      <c r="X9" s="27">
+        <v>39</v>
+      </c>
       <c r="Y9" s="27"/>
-      <c r="Z9" s="20"/>
+      <c r="Z9" s="20">
+        <v>60</v>
+      </c>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="28">
+        <v>0</v>
+      </c>
       <c r="AC9" s="28"/>
-      <c r="AD9" s="20"/>
+      <c r="AD9" s="20">
+        <v>127</v>
+      </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20">
         <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
@@ -4124,16 +4219,22 @@
       </c>
       <c r="AG9" s="20">
         <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="AH9" s="20"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="21">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="33"/>
@@ -4162,7 +4263,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
         <f t="shared" ref="AF10:AF32" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="20">
         <f t="shared" ref="AG10:AG31" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
@@ -4172,16 +4273,24 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="30">
+        <v>44013</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="31">
+        <v>12</v>
+      </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="31">
+        <v>24</v>
+      </c>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="31"/>
@@ -4204,7 +4313,7 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG11" s="20">
         <f t="shared" si="1"/>
@@ -4214,18 +4323,28 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="30">
+        <v>44014</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="32">
+        <v>15</v>
+      </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="33">
+        <v>5</v>
+      </c>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="34">
+        <v>13</v>
+      </c>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="35"/>
@@ -4233,11 +4352,15 @@
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
+      <c r="U12" s="36">
+        <v>7</v>
+      </c>
       <c r="V12" s="31"/>
       <c r="W12" s="31"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
+      <c r="Y12" s="37">
+        <v>3</v>
+      </c>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
       <c r="AB12" s="38"/>
@@ -4246,7 +4369,7 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AG12" s="20">
         <f t="shared" si="1"/>
@@ -4672,9 +4795,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="31" t="s">
-        <v>52</v>
-      </c>
+      <c r="AH22" s="31"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
@@ -5060,83 +5181,83 @@
       <c r="C32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="77">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="58">
+      <c r="E32" s="77"/>
+      <c r="F32" s="60">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="76">
+        <v>384</v>
+      </c>
+      <c r="G32" s="60"/>
+      <c r="H32" s="78">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="58">
+      <c r="I32" s="78"/>
+      <c r="J32" s="60">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="77">
+        <v>12</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="79">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="77"/>
-      <c r="N32" s="58">
+      <c r="M32" s="79"/>
+      <c r="N32" s="60">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="64">
+      <c r="O32" s="60"/>
+      <c r="P32" s="89">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="58">
+      <c r="Q32" s="89"/>
+      <c r="R32" s="60">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="58"/>
-      <c r="T32" s="65">
+        <v>48</v>
+      </c>
+      <c r="S32" s="60"/>
+      <c r="T32" s="90">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>0</v>
       </c>
-      <c r="U32" s="65"/>
-      <c r="V32" s="58">
+      <c r="U32" s="90"/>
+      <c r="V32" s="60">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="58"/>
-      <c r="X32" s="66">
+        <v>24</v>
+      </c>
+      <c r="W32" s="60"/>
+      <c r="X32" s="91">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="58">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="60">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="57">
+        <v>60</v>
+      </c>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="83">
         <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="58">
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="60">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="58"/>
+        <v>127</v>
+      </c>
+      <c r="AE32" s="60"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG32" s="20">
         <f>D32+F32+H32+J32+L32+N32+P32+R32+T32+V32+X32+Z32+AB32+AD32</f>
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AH32" s="42"/>
     </row>
@@ -5146,161 +5267,166 @@
       <c r="C33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="92">
         <f>D32/24</f>
         <v>0</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68">
+      <c r="E33" s="92"/>
+      <c r="F33" s="58">
         <f>F32/12</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69">
+        <v>32</v>
+      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="93">
         <f>H32/24</f>
         <v>0</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="68">
+      <c r="I33" s="93"/>
+      <c r="J33" s="95">
         <f>J32/12</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="70">
+        <v>1</v>
+      </c>
+      <c r="K33" s="95"/>
+      <c r="L33" s="94">
         <f>L32/24</f>
         <v>0</v>
       </c>
-      <c r="M33" s="70"/>
-      <c r="N33" s="68">
+      <c r="M33" s="94"/>
+      <c r="N33" s="58">
         <f>N32/12</f>
         <v>0</v>
       </c>
-      <c r="O33" s="68"/>
-      <c r="P33" s="93">
+      <c r="O33" s="58"/>
+      <c r="P33" s="61">
         <f>P32/24</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="68">
+      <c r="Q33" s="61"/>
+      <c r="R33" s="58">
         <f>R32/12</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="68"/>
-      <c r="T33" s="94">
+        <v>4</v>
+      </c>
+      <c r="S33" s="58"/>
+      <c r="T33" s="62">
         <f>T32/24</f>
         <v>0</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="68">
+      <c r="U33" s="62"/>
+      <c r="V33" s="58">
         <f>V32/12</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="68"/>
-      <c r="X33" s="91">
+        <v>2</v>
+      </c>
+      <c r="W33" s="58"/>
+      <c r="X33" s="57">
         <f>X32/12</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="68">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="58">
         <f>Z32/12</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="92">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="59">
         <f>AB32/24</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
       <c r="AH33" s="42"/>
     </row>
     <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="61"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="85"/>
+      <c r="AE34" s="86"/>
       <c r="AF34" s="43">
         <f>SUM(AF9:AF31)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG34" s="43">
         <f>SUM(AG9:AG31)</f>
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="AH34" s="44"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="60"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="62">
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="87">
         <f>AG34-AF34</f>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="63"/>
+        <v>691</v>
+      </c>
+      <c r="AG35" s="88"/>
       <c r="AH35" s="44"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X40" s="6" t="s">
@@ -5309,6 +5435,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5325,47 +5492,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5378,7 +5504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -886,12 +886,21 @@
   </si>
   <si>
     <t>Tháng 7</t>
+  </si>
+  <si>
+    <t>Nhập từ thanh hà</t>
+  </si>
+  <si>
+    <t>Anh Lâm Demo</t>
+  </si>
+  <si>
+    <t>Bông Bống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1282,12 +1291,90 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,103 +1387,25 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1460,7 +1469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,7 +1504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1704,49 +1713,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1782,11 +1791,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1822,235 +1831,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="80" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="81" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="81"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="82" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2135,9 +2144,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -2254,11 +2263,11 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF37" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>0</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG31" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG35" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>12</v>
       </c>
       <c r="AH10" s="31"/>
@@ -2574,18 +2583,22 @@
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="30">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="32">
+        <v>24</v>
+      </c>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="31"/>
+      <c r="J17" s="31">
+        <v>12</v>
+      </c>
       <c r="K17" s="31"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -2597,46 +2610,44 @@
       <c r="S17" s="31"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="31"/>
+      <c r="V17" s="31">
+        <v>1</v>
+      </c>
       <c r="W17" s="31"/>
       <c r="X17" s="37"/>
-      <c r="Y17" s="37">
-        <v>4</v>
-      </c>
+      <c r="Y17" s="37"/>
       <c r="Z17" s="31"/>
       <c r="AA17" s="31"/>
-      <c r="AB17" s="38"/>
+      <c r="AB17" s="38">
+        <v>5</v>
+      </c>
       <c r="AC17" s="38"/>
       <c r="AD17" s="31"/>
       <c r="AE17" s="31"/>
-      <c r="AF17" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
       <c r="AH17" s="31"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="30">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="31">
+        <v>12</v>
+      </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="31"/>
@@ -2648,23 +2659,21 @@
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
       <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
+      <c r="W18" s="31">
+        <v>1</v>
+      </c>
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
+      <c r="AC18" s="38">
+        <v>5</v>
+      </c>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
-      <c r="AF18" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AG18" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
       <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -2673,18 +2682,14 @@
         <v>44000</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="32">
-        <v>24</v>
-      </c>
+      <c r="E19" s="32"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="33">
-        <v>2</v>
-      </c>
+      <c r="I19" s="33"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="34"/>
@@ -2701,19 +2706,17 @@
       <c r="W19" s="31"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="37">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="38"/>
-      <c r="AC19" s="38">
-        <v>24</v>
-      </c>
+      <c r="AC19" s="38"/>
       <c r="AD19" s="31"/>
       <c r="AE19" s="31"/>
       <c r="AF19" s="20">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="AG19" s="20">
         <f t="shared" si="1"/>
@@ -2724,17 +2727,17 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="30">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="32">
+        <v>3</v>
+      </c>
       <c r="F20" s="31"/>
-      <c r="G20" s="31">
-        <v>12</v>
-      </c>
+      <c r="G20" s="31"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="31"/>
@@ -2761,7 +2764,7 @@
       <c r="AE20" s="31"/>
       <c r="AF20" s="20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="20">
         <f t="shared" si="1"/>
@@ -2772,20 +2775,21 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="30">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31">
-        <f>30*12</f>
-        <v>360</v>
-      </c>
+      <c r="E21" s="32">
+        <v>24</v>
+      </c>
+      <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="I21" s="33">
+        <v>2</v>
+      </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="34"/>
@@ -2801,20 +2805,24 @@
       <c r="V21" s="31"/>
       <c r="W21" s="31"/>
       <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
+      <c r="Y21" s="37">
+        <v>12</v>
+      </c>
       <c r="Z21" s="31"/>
       <c r="AA21" s="31"/>
       <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
+      <c r="AC21" s="38">
+        <v>24</v>
+      </c>
       <c r="AD21" s="31"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="31"/>
     </row>
@@ -2824,15 +2832,12 @@
         <v>44002</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="31">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
+      <c r="G22" s="31"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="31"/>
@@ -2843,7 +2848,9 @@
       <c r="O22" s="31"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
-      <c r="R22" s="31"/>
+      <c r="R22" s="31">
+        <v>1</v>
+      </c>
       <c r="S22" s="31"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
@@ -2851,31 +2858,25 @@
       <c r="W22" s="31"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
-      <c r="Z22" s="31"/>
+      <c r="Z22" s="31">
+        <v>1</v>
+      </c>
       <c r="AA22" s="31"/>
       <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
-      <c r="AF22" s="20">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AG22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="31" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="31"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="30">
-        <v>44006</v>
+        <v>44002</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -2892,45 +2893,41 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
+      <c r="S23" s="31">
+        <v>1</v>
+      </c>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
       <c r="V23" s="31"/>
       <c r="W23" s="31"/>
       <c r="X23" s="37"/>
-      <c r="Y23" s="37">
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31">
         <v>1</v>
       </c>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
       <c r="AB23" s="38"/>
-      <c r="AC23" s="38">
-        <v>1</v>
-      </c>
+      <c r="AC23" s="38"/>
       <c r="AD23" s="31"/>
       <c r="AE23" s="31"/>
-      <c r="AF23" s="20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG23" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="31"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="30">
-        <v>44006</v>
+        <v>44002</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="G24" s="31">
+        <v>12</v>
+      </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="31"/>
@@ -2945,9 +2942,7 @@
       <c r="S24" s="31"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="31">
-        <v>24</v>
-      </c>
+      <c r="V24" s="31"/>
       <c r="W24" s="31"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
@@ -2959,25 +2954,28 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG24" s="20">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="31"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="30">
-        <v>44006</v>
+        <v>44002</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="31">
+        <f>30*12</f>
+        <v>360</v>
+      </c>
       <c r="G25" s="31"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2994,9 +2992,7 @@
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
       <c r="V25" s="31"/>
-      <c r="W25" s="31">
-        <v>12</v>
-      </c>
+      <c r="W25" s="31"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="31"/>
@@ -3007,29 +3003,28 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AH25" s="31"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="30">
-        <v>44006</v>
+        <v>44002</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D26" s="32"/>
-      <c r="E26" s="32">
-        <v>24</v>
-      </c>
+      <c r="E26" s="32"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31">
-        <v>24</v>
+        <f>12*5</f>
+        <v>60</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
@@ -3046,9 +3041,7 @@
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="31"/>
-      <c r="W26" s="31">
-        <v>12</v>
-      </c>
+      <c r="W26" s="31"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="31"/>
@@ -3065,26 +3058,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH26" s="31"/>
+      <c r="AH26" s="31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="30">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="32"/>
-      <c r="E27" s="32">
-        <v>2</v>
-      </c>
+      <c r="E27" s="32"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
       <c r="H27" s="33"/>
-      <c r="I27" s="33">
-        <v>2</v>
-      </c>
+      <c r="I27" s="33"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="34"/>
@@ -3100,16 +3091,20 @@
       <c r="V27" s="31"/>
       <c r="W27" s="31"/>
       <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
+      <c r="Y27" s="37">
+        <v>1</v>
+      </c>
       <c r="Z27" s="31"/>
       <c r="AA27" s="31"/>
       <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
+      <c r="AC27" s="38">
+        <v>1</v>
+      </c>
       <c r="AD27" s="31"/>
       <c r="AE27" s="31"/>
       <c r="AF27" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="20">
         <f t="shared" si="1"/>
@@ -3120,75 +3115,58 @@
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="30">
-        <v>44009</v>
+        <v>44006</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="31">
-        <f>7*12</f>
-        <v>84</v>
-      </c>
+      <c r="G28" s="31"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="31">
-        <v>72</v>
-      </c>
+      <c r="K28" s="31"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="31"/>
-      <c r="O28" s="31">
-        <v>60</v>
-      </c>
+      <c r="O28" s="31"/>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
       <c r="R28" s="31"/>
-      <c r="S28" s="31">
-        <f>72-24</f>
-        <v>48</v>
-      </c>
+      <c r="S28" s="31"/>
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31">
+      <c r="V28" s="31">
         <v>24</v>
       </c>
+      <c r="W28" s="31"/>
       <c r="X28" s="37"/>
-      <c r="Y28" s="37">
-        <v>84</v>
-      </c>
+      <c r="Y28" s="37"/>
       <c r="Z28" s="31"/>
-      <c r="AA28" s="31">
-        <v>48</v>
-      </c>
+      <c r="AA28" s="31"/>
       <c r="AB28" s="38"/>
-      <c r="AC28" s="38">
-        <f>72-19</f>
-        <v>53</v>
-      </c>
+      <c r="AC28" s="38"/>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="20">
         <f t="shared" si="0"/>
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="30">
-        <v>44009</v>
+        <v>44006</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -3196,9 +3174,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
-      <c r="J29" s="31">
-        <v>3</v>
-      </c>
+      <c r="J29" s="31"/>
       <c r="K29" s="31"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
@@ -3210,10 +3186,10 @@
       <c r="S29" s="31"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
-      <c r="V29" s="31">
-        <v>3</v>
-      </c>
-      <c r="W29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31">
+        <v>12</v>
+      </c>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
       <c r="Z29" s="31"/>
@@ -3224,32 +3200,34 @@
       <c r="AE29" s="31"/>
       <c r="AF29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG29" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="31"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="30">
-        <v>44009</v>
+        <v>44006</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="E30" s="32">
+        <v>24</v>
+      </c>
       <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="G30" s="31">
+        <v>24</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="31">
-        <v>3</v>
-      </c>
+      <c r="K30" s="31"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="31"/>
@@ -3262,7 +3240,7 @@
       <c r="U30" s="36"/>
       <c r="V30" s="31"/>
       <c r="W30" s="31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
@@ -3274,7 +3252,7 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="1"/>
@@ -3285,52 +3263,38 @@
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="30">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31">
-        <f>20*12</f>
-        <v>240</v>
-      </c>
+      <c r="E31" s="32">
+        <v>2</v>
+      </c>
+      <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="31">
-        <f>10*12</f>
-        <v>120</v>
-      </c>
+      <c r="I31" s="33">
+        <v>2</v>
+      </c>
+      <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="31">
-        <f>5*12</f>
-        <v>60</v>
-      </c>
+      <c r="N31" s="31"/>
       <c r="O31" s="31"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
-      <c r="R31" s="31">
-        <f>10*12</f>
-        <v>120</v>
-      </c>
+      <c r="R31" s="31"/>
       <c r="S31" s="31"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="31">
-        <f>5*12</f>
-        <v>60</v>
-      </c>
+      <c r="V31" s="31"/>
       <c r="W31" s="31"/>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
-      <c r="Z31" s="31">
-        <f>10*12</f>
-        <v>120</v>
-      </c>
+      <c r="Z31" s="31"/>
       <c r="AA31" s="31"/>
       <c r="AB31" s="38"/>
       <c r="AC31" s="38"/>
@@ -3338,351 +3302,557 @@
       <c r="AE31" s="31"/>
       <c r="AF31" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG31" s="20">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="31"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="30">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31">
-        <v>24</v>
+        <f>7*12</f>
+        <v>84</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
+      <c r="O32" s="31">
+        <v>60</v>
+      </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
       <c r="R32" s="31"/>
       <c r="S32" s="31">
-        <v>24</v>
+        <f>72-24</f>
+        <v>48</v>
       </c>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
       <c r="V32" s="31"/>
       <c r="W32" s="31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
+      <c r="Y32" s="37">
+        <v>84</v>
+      </c>
       <c r="Z32" s="31"/>
       <c r="AA32" s="31">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
+      <c r="AC32" s="38">
+        <f>72-19</f>
+        <v>53</v>
+      </c>
       <c r="AD32" s="31"/>
       <c r="AE32" s="31"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="0"/>
+        <v>473</v>
+      </c>
+      <c r="AG32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH32" s="31"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="77">
-        <f>SUM(D9:D32)-SUM(E9:E32)</f>
-        <v>16</v>
-      </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77">
-        <f t="shared" ref="F33" si="2">SUM(F9:F32)-SUM(G9:G32)</f>
-        <v>396</v>
-      </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77">
-        <f t="shared" ref="H33" si="3">SUM(H9:H32)-SUM(I9:I32)</f>
-        <v>5</v>
-      </c>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77">
-        <f t="shared" ref="J33" si="4">SUM(J9:J32)-SUM(K9:K32)</f>
-        <v>36</v>
-      </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77">
-        <f t="shared" ref="L33" si="5">SUM(L9:L32)-SUM(M9:M32)</f>
-        <v>13</v>
-      </c>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77">
-        <f t="shared" ref="N33" si="6">SUM(N9:N32)-SUM(O9:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77">
-        <f t="shared" ref="P33" si="7">SUM(P9:P32)-SUM(Q9:Q32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77">
-        <f t="shared" ref="R33" si="8">SUM(R9:R32)-SUM(S9:S32)</f>
-        <v>48</v>
-      </c>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77">
-        <f t="shared" ref="T33" si="9">SUM(T9:T32)-SUM(U9:U32)</f>
-        <v>7</v>
-      </c>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77">
-        <f t="shared" ref="V33" si="10">SUM(V9:V32)-SUM(W9:W32)</f>
-        <v>24</v>
-      </c>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77">
-        <f t="shared" ref="X33" si="11">SUM(X9:X32)-SUM(Y9:Y32)</f>
-        <v>39</v>
-      </c>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77">
-        <f t="shared" ref="Z33" si="12">SUM(Z9:Z32)-SUM(AA9:AA32)</f>
-        <v>60</v>
-      </c>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77">
-        <f t="shared" ref="AB33" si="13">SUM(AB9:AB32)-SUM(AC9:AC32)</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77">
-        <f t="shared" ref="AD33" si="14">SUM(AD9:AD32)-SUM(AE9:AE32)</f>
-        <v>127</v>
-      </c>
-      <c r="AE33" s="77"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="31">
+        <v>3</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="31">
+        <v>3</v>
+      </c>
+      <c r="W33" s="31"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG33" s="20">
-        <f>D33+F33+H33+J33+L33+N33+P33+R33+T33+V33+X33+Z33+AB33+AD33</f>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AH33" s="31"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31">
+        <v>3</v>
+      </c>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31">
+        <v>3</v>
+      </c>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="31"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30">
+        <v>44009</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="31">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="S35" s="31"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="31">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="W35" s="31"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="AH35" s="31"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30">
+        <v>44011</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31">
+        <v>24</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31">
+        <v>12</v>
+      </c>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31">
+        <v>24</v>
+      </c>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31">
+        <v>12</v>
+      </c>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31">
+        <v>12</v>
+      </c>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="31"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="57">
+        <f>SUM(D9:D36)-SUM(E9:E36)</f>
+        <v>16</v>
+      </c>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57">
+        <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
+        <v>396</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57">
+        <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
+        <v>5</v>
+      </c>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57">
+        <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
+        <v>36</v>
+      </c>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57">
+        <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
+        <v>13</v>
+      </c>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57">
+        <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57">
+        <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57">
+        <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
+        <v>48</v>
+      </c>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57">
+        <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
+        <v>7</v>
+      </c>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57">
+        <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
+        <v>24</v>
+      </c>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
+        <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
+        <v>39</v>
+      </c>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57">
+        <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
+        <v>60</v>
+      </c>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57">
+        <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57">
+        <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
+        <v>127</v>
+      </c>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="20">
+        <f>D37+F37+H37+J37+L37+N37+P37+R37+T37+V37+X37+Z37+AB37+AD37</f>
         <v>771</v>
       </c>
-      <c r="AH33" s="42"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41" t="s">
+      <c r="AH37" s="42"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="92">
-        <f>D33/24</f>
+      <c r="D38" s="63">
+        <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="58">
-        <f>F33/12</f>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64">
+        <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="93">
-        <f>H33/24</f>
+      <c r="G38" s="64"/>
+      <c r="H38" s="65">
+        <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I34" s="93"/>
-      <c r="J34" s="58">
-        <f>J33/12</f>
+      <c r="I38" s="65"/>
+      <c r="J38" s="64">
+        <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="94">
-        <f>L33/24</f>
+      <c r="K38" s="64"/>
+      <c r="L38" s="66">
+        <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M34" s="94"/>
-      <c r="N34" s="58">
-        <f>N33/12</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="61">
-        <f>P33/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="58">
-        <f>R33/12</f>
+      <c r="M38" s="66"/>
+      <c r="N38" s="64">
+        <f>N37/12</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="64"/>
+      <c r="P38" s="87">
+        <f>P37/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="64">
+        <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S34" s="58"/>
-      <c r="T34" s="62">
-        <f>T33/24</f>
+      <c r="S38" s="64"/>
+      <c r="T38" s="88">
+        <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="58">
-        <f>V33/12</f>
+      <c r="U38" s="88"/>
+      <c r="V38" s="64">
+        <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="57">
-        <f>X33/12</f>
+      <c r="W38" s="64"/>
+      <c r="X38" s="84">
+        <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58">
-        <f>Z33/12</f>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="64">
+        <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="59">
-        <f>AB33/24</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="42"/>
-    </row>
-    <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="85">
+        <f>AB37/24</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="42"/>
+    </row>
+    <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="43">
-        <f>SUM(AF9:AF31)</f>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="43">
+        <f>SUM(AF9:AF35)</f>
         <v>763</v>
       </c>
-      <c r="AG35" s="43">
-        <f>SUM(AG9:AG31)</f>
+      <c r="AG39" s="43">
+        <f>SUM(AG9:AG35)</f>
         <v>1618</v>
       </c>
-      <c r="AH35" s="44"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="AH39" s="44"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="86"/>
-      <c r="AF36" s="87">
-        <f>AG35-AF35</f>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="61">
+        <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="44"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="X41" s="6" t="s">
+      <c r="AG40" s="62"/>
+      <c r="AH40" s="44"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X45" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3699,15 +3869,38 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3719,44 +3912,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -3792,11 +3985,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3832,235 +4025,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="80" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="81" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="81"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="82" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4145,9 +4338,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -5181,76 +5374,76 @@
       <c r="C32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="57">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="60">
+      <c r="E32" s="57"/>
+      <c r="F32" s="86">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
         <v>384</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="78">
+      <c r="G32" s="86"/>
+      <c r="H32" s="94">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="60">
+      <c r="I32" s="94"/>
+      <c r="J32" s="86">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
         <v>12</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="79">
+      <c r="K32" s="86"/>
+      <c r="L32" s="95">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="79"/>
-      <c r="N32" s="60">
+      <c r="M32" s="95"/>
+      <c r="N32" s="86">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="60"/>
-      <c r="P32" s="89">
+      <c r="O32" s="86"/>
+      <c r="P32" s="91">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="60">
+      <c r="Q32" s="91"/>
+      <c r="R32" s="86">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>48</v>
       </c>
-      <c r="S32" s="60"/>
-      <c r="T32" s="90">
+      <c r="S32" s="86"/>
+      <c r="T32" s="92">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>0</v>
       </c>
-      <c r="U32" s="90"/>
-      <c r="V32" s="60">
+      <c r="U32" s="92"/>
+      <c r="V32" s="86">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
         <v>24</v>
       </c>
-      <c r="W32" s="60"/>
-      <c r="X32" s="91">
+      <c r="W32" s="86"/>
+      <c r="X32" s="93">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
         <v>36</v>
       </c>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="60">
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="86">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
         <v>60</v>
       </c>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="83">
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="89">
         <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="60">
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="86">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
         <v>127</v>
       </c>
-      <c r="AE32" s="60"/>
+      <c r="AE32" s="86"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5267,111 +5460,111 @@
       <c r="C33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="63">
         <f>D32/24</f>
         <v>0</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="58">
+      <c r="E33" s="63"/>
+      <c r="F33" s="64">
         <f>F32/12</f>
         <v>32</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="93">
+      <c r="G33" s="64"/>
+      <c r="H33" s="65">
         <f>H32/24</f>
         <v>0</v>
       </c>
-      <c r="I33" s="93"/>
-      <c r="J33" s="95">
+      <c r="I33" s="65"/>
+      <c r="J33" s="90">
         <f>J32/12</f>
         <v>1</v>
       </c>
-      <c r="K33" s="95"/>
-      <c r="L33" s="94">
+      <c r="K33" s="90"/>
+      <c r="L33" s="66">
         <f>L32/24</f>
         <v>0</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="58">
+      <c r="M33" s="66"/>
+      <c r="N33" s="64">
         <f>N32/12</f>
         <v>0</v>
       </c>
-      <c r="O33" s="58"/>
-      <c r="P33" s="61">
+      <c r="O33" s="64"/>
+      <c r="P33" s="87">
         <f>P32/24</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="58">
+      <c r="Q33" s="87"/>
+      <c r="R33" s="64">
         <f>R32/12</f>
         <v>4</v>
       </c>
-      <c r="S33" s="58"/>
-      <c r="T33" s="62">
+      <c r="S33" s="64"/>
+      <c r="T33" s="88">
         <f>T32/24</f>
         <v>0</v>
       </c>
-      <c r="U33" s="62"/>
-      <c r="V33" s="58">
+      <c r="U33" s="88"/>
+      <c r="V33" s="64">
         <f>V32/12</f>
         <v>2</v>
       </c>
-      <c r="W33" s="58"/>
-      <c r="X33" s="57">
+      <c r="W33" s="64"/>
+      <c r="X33" s="84">
         <f>X32/12</f>
         <v>3</v>
       </c>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="58">
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="64">
         <f>Z32/12</f>
         <v>5</v>
       </c>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="59">
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="85">
         <f>AB32/24</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
+      <c r="AC33" s="85"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="86"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
       <c r="AH33" s="42"/>
     </row>
     <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="86"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="60"/>
       <c r="AF34" s="43">
         <f>SUM(AF9:AF31)</f>
         <v>80</v>
@@ -5383,44 +5576,44 @@
       <c r="AH34" s="44"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="87">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="61">
         <f>AG34-AF34</f>
         <v>691</v>
       </c>
-      <c r="AG35" s="88"/>
+      <c r="AG35" s="62"/>
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -5435,15 +5628,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="AD32:AE32"/>
     <mergeCell ref="D33:E33"/>
@@ -5460,38 +5676,15 @@
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5504,7 +5697,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1291,9 +1291,78 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1312,79 +1381,16 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,12 +1406,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1469,7 +1469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1504,7 +1504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1715,47 +1715,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1791,11 +1791,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1831,235 +1831,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2144,9 +2144,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3595,76 +3595,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="77">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57">
+      <c r="E37" s="77"/>
+      <c r="F37" s="77">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57">
+      <c r="G37" s="77"/>
+      <c r="H37" s="77">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57">
+      <c r="I37" s="77"/>
+      <c r="J37" s="77">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57">
+      <c r="K37" s="77"/>
+      <c r="L37" s="77">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57">
+      <c r="M37" s="77"/>
+      <c r="N37" s="77">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57">
+      <c r="O37" s="77"/>
+      <c r="P37" s="77">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57">
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57">
+      <c r="S37" s="77"/>
+      <c r="T37" s="77">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57">
+      <c r="U37" s="77"/>
+      <c r="V37" s="77">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="W37" s="77"/>
+      <c r="X37" s="77">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57">
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57">
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57">
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="57"/>
+      <c r="AE37" s="77"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3681,111 +3681,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="86">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64">
+      <c r="E38" s="86"/>
+      <c r="F38" s="58">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65">
+      <c r="G38" s="58"/>
+      <c r="H38" s="87">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="64">
+      <c r="I38" s="87"/>
+      <c r="J38" s="58">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="66">
+      <c r="K38" s="58"/>
+      <c r="L38" s="88">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="64">
+      <c r="M38" s="88"/>
+      <c r="N38" s="58">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="87">
+      <c r="O38" s="58"/>
+      <c r="P38" s="61">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="64">
+      <c r="Q38" s="61"/>
+      <c r="R38" s="58">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="88">
+      <c r="S38" s="58"/>
+      <c r="T38" s="62">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="88"/>
-      <c r="V38" s="64">
+      <c r="U38" s="62"/>
+      <c r="V38" s="58">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="64"/>
-      <c r="X38" s="84">
+      <c r="W38" s="58"/>
+      <c r="X38" s="57">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="64">
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="85">
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="59">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="60"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="83"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3797,44 +3797,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="61">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="84">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="62"/>
+      <c r="AG40" s="85"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3844,15 +3844,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3869,38 +3892,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3910,46 +3910,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -3985,11 +3985,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4025,235 +4025,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4338,9 +4338,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4455,11 +4455,11 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF32" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>1</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG31" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG32" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="31"/>
@@ -4517,27 +4517,23 @@
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="33">
-        <v>5</v>
-      </c>
+      <c r="I12" s="33"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="34">
-        <v>13</v>
-      </c>
+      <c r="M12" s="34"/>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="35"/>
@@ -4545,45 +4541,45 @@
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="36">
-        <v>7</v>
-      </c>
+      <c r="U12" s="36"/>
       <c r="V12" s="31"/>
       <c r="W12" s="31"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="37">
-        <v>3</v>
-      </c>
+      <c r="Y12" s="37"/>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
       <c r="AD12" s="31"/>
       <c r="AE12" s="31"/>
-      <c r="AF12" s="20">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="AG12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
       <c r="AH12" s="31"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="30">
+        <v>44014</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="32">
+        <v>14</v>
+      </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="33">
+        <v>5</v>
+      </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="34">
+        <v>13</v>
+      </c>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="35"/>
@@ -4591,11 +4587,15 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="U13" s="36">
+        <v>7</v>
+      </c>
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
+      <c r="Y13" s="37">
+        <v>3</v>
+      </c>
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
       <c r="AB13" s="38"/>
@@ -4604,7 +4604,7 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG13" s="20">
         <f t="shared" si="1"/>
@@ -5369,265 +5369,348 @@
       <c r="AH31" s="31"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="57">
-        <f>SUM(D9:D31)-SUM(E9:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="86">
-        <f>SUM(F9:F31)-SUM(G9:G31)</f>
-        <v>384</v>
-      </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="94">
-        <f>SUM(H9:H31)-SUM(I9:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="94"/>
-      <c r="J32" s="86">
-        <f>SUM(J9:J31)-SUM(K9:K31)</f>
-        <v>12</v>
-      </c>
-      <c r="K32" s="86"/>
-      <c r="L32" s="95">
-        <f>SUM(L9:L31)-SUM(M9:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="95"/>
-      <c r="N32" s="86">
-        <f>SUM(N9:N31)-SUM(O9:O31)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="86"/>
-      <c r="P32" s="91">
-        <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="86">
-        <f>SUM(R9:R31)-SUM(S9:S31)</f>
-        <v>48</v>
-      </c>
-      <c r="S32" s="86"/>
-      <c r="T32" s="92">
-        <f>SUM(T9:T31)-SUM(U9:U31)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="92"/>
-      <c r="V32" s="86">
-        <f>SUM(V9:V31)-SUM(W9:W31)</f>
-        <v>24</v>
-      </c>
-      <c r="W32" s="86"/>
-      <c r="X32" s="93">
-        <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
-        <v>36</v>
-      </c>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="86">
-        <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
-        <v>60</v>
-      </c>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="89">
-        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="86">
-        <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
-        <v>127</v>
-      </c>
-      <c r="AE32" s="86"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG32" s="20">
-        <f>D32+F32+H32+J32+L32+N32+P32+R32+T32+V32+X32+Z32+AB32+AD32</f>
-        <v>691</v>
-      </c>
-      <c r="AH32" s="42"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="31"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="77">
+        <f>SUM(D9:D32)-SUM(E9:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="60">
+        <f>SUM(F9:F32)-SUM(G9:G32)</f>
+        <v>384</v>
+      </c>
+      <c r="G33" s="60"/>
+      <c r="H33" s="89">
+        <f>SUM(H9:H32)-SUM(I9:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="89"/>
+      <c r="J33" s="60">
+        <f>SUM(J9:J32)-SUM(K9:K32)</f>
+        <v>12</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="90">
+        <f>SUM(L9:L32)-SUM(M9:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="90"/>
+      <c r="N33" s="60">
+        <f>SUM(N9:N32)-SUM(O9:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="60"/>
+      <c r="P33" s="93">
+        <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="60">
+        <f>SUM(R9:R32)-SUM(S9:S32)</f>
+        <v>48</v>
+      </c>
+      <c r="S33" s="60"/>
+      <c r="T33" s="94">
+        <f>SUM(T9:T32)-SUM(U9:U32)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="94"/>
+      <c r="V33" s="60">
+        <f>SUM(V9:V32)-SUM(W9:W32)</f>
+        <v>24</v>
+      </c>
+      <c r="W33" s="60"/>
+      <c r="X33" s="95">
+        <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
+        <v>36</v>
+      </c>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="60">
+        <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
+        <v>60</v>
+      </c>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="91">
+        <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="60">
+        <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
+        <v>127</v>
+      </c>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20">
+        <f>D33+F33+H33+J33+L33+N33+P33+R33+T33+V33+X33+Z33+AB33+AD33</f>
+        <v>691</v>
+      </c>
+      <c r="AH33" s="42"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="63">
-        <f>D32/24</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64">
-        <f>F32/12</f>
+      <c r="D34" s="86">
+        <f>D33/24</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="86"/>
+      <c r="F34" s="58">
+        <f>F33/12</f>
         <v>32</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="65">
-        <f>H32/24</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="90">
-        <f>J32/12</f>
+      <c r="G34" s="58"/>
+      <c r="H34" s="87">
+        <f>H33/24</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="87"/>
+      <c r="J34" s="92">
+        <f>J33/12</f>
         <v>1</v>
       </c>
-      <c r="K33" s="90"/>
-      <c r="L33" s="66">
-        <f>L32/24</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="66"/>
-      <c r="N33" s="64">
-        <f>N32/12</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="64"/>
-      <c r="P33" s="87">
-        <f>P32/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="64">
-        <f>R32/12</f>
+      <c r="K34" s="92"/>
+      <c r="L34" s="88">
+        <f>L33/24</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="88"/>
+      <c r="N34" s="58">
+        <f>N33/12</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="58"/>
+      <c r="P34" s="61">
+        <f>P33/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="58">
+        <f>R33/12</f>
         <v>4</v>
       </c>
-      <c r="S33" s="64"/>
-      <c r="T33" s="88">
-        <f>T32/24</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="88"/>
-      <c r="V33" s="64">
-        <f>V32/12</f>
+      <c r="S34" s="58"/>
+      <c r="T34" s="62">
+        <f>T33/24</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="62"/>
+      <c r="V34" s="58">
+        <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W33" s="64"/>
-      <c r="X33" s="84">
-        <f>X32/12</f>
+      <c r="W34" s="58"/>
+      <c r="X34" s="57">
+        <f>X33/12</f>
         <v>3</v>
       </c>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="64">
-        <f>Z32/12</f>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58">
+        <f>Z33/12</f>
         <v>5</v>
       </c>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="85">
-        <f>AB32/24</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="86"/>
-      <c r="AE33" s="86"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="42"/>
-    </row>
-    <row r="34" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="59">
+        <f>AB33/24</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="42"/>
+    </row>
+    <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="43">
-        <f>SUM(AF9:AF31)</f>
-        <v>80</v>
-      </c>
-      <c r="AG34" s="43">
-        <f>SUM(AG9:AG31)</f>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="43">
+        <f>SUM(AF9:AF32)</f>
+        <v>79</v>
+      </c>
+      <c r="AG35" s="43">
+        <f>SUM(AG9:AG32)</f>
         <v>771</v>
       </c>
-      <c r="AH34" s="44"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="AH35" s="44"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="61">
-        <f>AG34-AF34</f>
-        <v>691</v>
-      </c>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="44"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="X40" s="6" t="s">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="84">
+        <f>AG35-AF35</f>
+        <v>692</v>
+      </c>
+      <c r="AG36" s="85"/>
+      <c r="AH36" s="44"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5644,47 +5727,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5697,7 +5739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -895,6 +895,9 @@
   </si>
   <si>
     <t>Bông Bống</t>
+  </si>
+  <si>
+    <t>Huệ điện Biên</t>
   </si>
 </sst>
 </file>
@@ -1291,12 +1294,90 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,103 +1390,25 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1751,11 +1754,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1791,11 +1794,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1831,235 +1834,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2144,9 +2147,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3595,76 +3598,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="57">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77">
+      <c r="G37" s="57"/>
+      <c r="H37" s="57">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77">
+      <c r="I37" s="57"/>
+      <c r="J37" s="57">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77">
+      <c r="K37" s="57"/>
+      <c r="L37" s="57">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77">
+      <c r="M37" s="57"/>
+      <c r="N37" s="57">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77">
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77">
+      <c r="S37" s="57"/>
+      <c r="T37" s="57">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77">
+      <c r="U37" s="57"/>
+      <c r="V37" s="57">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77">
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77">
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77">
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="77">
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="77"/>
+      <c r="AE37" s="57"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3681,111 +3684,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="86">
+      <c r="D38" s="63">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="58">
+      <c r="E38" s="63"/>
+      <c r="F38" s="64">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="87">
+      <c r="G38" s="64"/>
+      <c r="H38" s="65">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="58">
+      <c r="I38" s="65"/>
+      <c r="J38" s="64">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="88">
+      <c r="K38" s="64"/>
+      <c r="L38" s="66">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="88"/>
-      <c r="N38" s="58">
+      <c r="M38" s="66"/>
+      <c r="N38" s="64">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="58"/>
-      <c r="P38" s="61">
+      <c r="O38" s="64"/>
+      <c r="P38" s="87">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="58">
+      <c r="Q38" s="87"/>
+      <c r="R38" s="64">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="58"/>
-      <c r="T38" s="62">
+      <c r="S38" s="64"/>
+      <c r="T38" s="88">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="58">
+      <c r="U38" s="88"/>
+      <c r="V38" s="64">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="58"/>
-      <c r="X38" s="57">
+      <c r="W38" s="64"/>
+      <c r="X38" s="84">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58">
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="64">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="59">
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="85">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="82"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="83"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="60"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3797,44 +3800,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="84">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="61">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="85"/>
+      <c r="AG40" s="62"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3844,6 +3847,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="A39:AE39"/>
@@ -3860,47 +3904,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3913,7 +3916,7 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3945,11 +3948,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -3985,11 +3988,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4025,235 +4028,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4338,9 +4341,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4552,8 +4555,14 @@
       <c r="AC12" s="38"/>
       <c r="AD12" s="31"/>
       <c r="AE12" s="31"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
+      <c r="AF12" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH12" s="31"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -4614,12 +4623,18 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="30">
+        <v>44019</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="31">
+        <v>36</v>
+      </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="31"/>
@@ -4646,7 +4661,7 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG14" s="20">
         <f t="shared" si="1"/>
@@ -4656,8 +4671,12 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="30">
+        <v>44020</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
@@ -4665,7 +4684,9 @@
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="31">
+        <v>12</v>
+      </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="31"/>
@@ -4673,7 +4694,9 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="S15" s="31">
+        <v>12</v>
+      </c>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="31"/>
@@ -4688,7 +4711,7 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG15" s="20">
         <f t="shared" si="1"/>
@@ -5416,83 +5439,83 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="57">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="60">
+      <c r="E33" s="57"/>
+      <c r="F33" s="86">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
-        <v>384</v>
-      </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="89">
+        <v>348</v>
+      </c>
+      <c r="G33" s="86"/>
+      <c r="H33" s="94">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="60">
+      <c r="I33" s="94"/>
+      <c r="J33" s="86">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
-        <v>12</v>
-      </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="90">
+        <v>0</v>
+      </c>
+      <c r="K33" s="86"/>
+      <c r="L33" s="95">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="60">
+      <c r="M33" s="95"/>
+      <c r="N33" s="86">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="60"/>
-      <c r="P33" s="93">
+      <c r="O33" s="86"/>
+      <c r="P33" s="91">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="60">
+      <c r="Q33" s="91"/>
+      <c r="R33" s="86">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
-        <v>48</v>
-      </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="94">
+        <v>36</v>
+      </c>
+      <c r="S33" s="86"/>
+      <c r="T33" s="92">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="60">
+      <c r="U33" s="92"/>
+      <c r="V33" s="86">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="60"/>
-      <c r="X33" s="95">
+      <c r="W33" s="86"/>
+      <c r="X33" s="93">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
         <v>36</v>
       </c>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="60">
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="86">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
         <v>60</v>
       </c>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="91">
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="89">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="60">
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="86">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="60"/>
+      <c r="AE33" s="86"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG33" s="20">
         <f>D33+F33+H33+J33+L33+N33+P33+R33+T33+V33+X33+Z33+AB33+AD33</f>
-        <v>691</v>
+        <v>631</v>
       </c>
       <c r="AH33" s="42"/>
     </row>
@@ -5502,114 +5525,114 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="63">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="58">
+      <c r="E34" s="63"/>
+      <c r="F34" s="64">
         <f>F33/12</f>
-        <v>32</v>
-      </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="87">
+        <v>29</v>
+      </c>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="92">
+      <c r="I34" s="65"/>
+      <c r="J34" s="90">
         <f>J33/12</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="88">
+        <v>0</v>
+      </c>
+      <c r="K34" s="90"/>
+      <c r="L34" s="66">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="58">
+      <c r="M34" s="66"/>
+      <c r="N34" s="64">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="61">
+      <c r="O34" s="64"/>
+      <c r="P34" s="87">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="58">
+      <c r="Q34" s="87"/>
+      <c r="R34" s="64">
         <f>R33/12</f>
-        <v>4</v>
-      </c>
-      <c r="S34" s="58"/>
-      <c r="T34" s="62">
+        <v>3</v>
+      </c>
+      <c r="S34" s="64"/>
+      <c r="T34" s="88">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="58">
+      <c r="U34" s="88"/>
+      <c r="V34" s="64">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="57">
+      <c r="W34" s="64"/>
+      <c r="X34" s="84">
         <f>X33/12</f>
         <v>3</v>
       </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58">
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="64">
         <f>Z33/12</f>
         <v>5</v>
       </c>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="59">
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="85">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="86"/>
+      <c r="AE34" s="86"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="83"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="60"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AG35" s="43">
         <f>SUM(AG9:AG32)</f>
@@ -5618,44 +5641,44 @@
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="84">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="61">
         <f>AG35-AF35</f>
-        <v>692</v>
-      </c>
-      <c r="AG36" s="85"/>
+        <v>631</v>
+      </c>
+      <c r="AG36" s="62"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5670,15 +5693,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="AD33:AE33"/>
     <mergeCell ref="D34:E34"/>
@@ -5695,38 +5741,15 @@
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -898,6 +898,12 @@
   </si>
   <si>
     <t>Huệ điện Biên</t>
+  </si>
+  <si>
+    <t>Thủy vy</t>
+  </si>
+  <si>
+    <t>hải vui</t>
   </si>
 </sst>
 </file>
@@ -1294,9 +1300,78 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1315,79 +1390,16 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,12 +1415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1754,11 +1760,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1794,11 +1800,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1834,235 +1840,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2147,9 +2153,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3598,76 +3604,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="77">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57">
+      <c r="E37" s="77"/>
+      <c r="F37" s="77">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57">
+      <c r="G37" s="77"/>
+      <c r="H37" s="77">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57">
+      <c r="I37" s="77"/>
+      <c r="J37" s="77">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57">
+      <c r="K37" s="77"/>
+      <c r="L37" s="77">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57">
+      <c r="M37" s="77"/>
+      <c r="N37" s="77">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57">
+      <c r="O37" s="77"/>
+      <c r="P37" s="77">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57">
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57">
+      <c r="S37" s="77"/>
+      <c r="T37" s="77">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57">
+      <c r="U37" s="77"/>
+      <c r="V37" s="77">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="W37" s="77"/>
+      <c r="X37" s="77">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57">
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57">
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57">
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="57"/>
+      <c r="AE37" s="77"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3684,111 +3690,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="86">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64">
+      <c r="E38" s="86"/>
+      <c r="F38" s="58">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65">
+      <c r="G38" s="58"/>
+      <c r="H38" s="87">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="64">
+      <c r="I38" s="87"/>
+      <c r="J38" s="58">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="66">
+      <c r="K38" s="58"/>
+      <c r="L38" s="88">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="64">
+      <c r="M38" s="88"/>
+      <c r="N38" s="58">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="87">
+      <c r="O38" s="58"/>
+      <c r="P38" s="61">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="64">
+      <c r="Q38" s="61"/>
+      <c r="R38" s="58">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="88">
+      <c r="S38" s="58"/>
+      <c r="T38" s="62">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="88"/>
-      <c r="V38" s="64">
+      <c r="U38" s="62"/>
+      <c r="V38" s="58">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="64"/>
-      <c r="X38" s="84">
+      <c r="W38" s="58"/>
+      <c r="X38" s="57">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="64">
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="85">
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="59">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="60"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="83"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3800,44 +3806,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="61">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="84">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="62"/>
+      <c r="AG40" s="85"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3847,15 +3853,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3872,38 +3901,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3916,7 +3922,7 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3948,11 +3954,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -3988,11 +3994,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4028,235 +4034,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4341,9 +4347,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4721,31 +4727,49 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="30">
+        <v>44021</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="32">
+        <v>31</v>
+      </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="31">
+        <v>12</v>
+      </c>
       <c r="G16" s="31"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="31">
+        <v>12</v>
+      </c>
       <c r="K16" s="31"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="31"/>
+      <c r="N16" s="31">
+        <v>12</v>
+      </c>
       <c r="O16" s="31"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
-      <c r="R16" s="31"/>
+      <c r="R16" s="31">
+        <v>12</v>
+      </c>
       <c r="S16" s="31"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="31"/>
+      <c r="V16" s="31">
+        <v>12</v>
+      </c>
       <c r="W16" s="31"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
-      <c r="Z16" s="31"/>
+      <c r="Z16" s="31">
+        <v>12</v>
+      </c>
       <c r="AA16" s="31"/>
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
@@ -4757,45 +4781,61 @@
       </c>
       <c r="AG16" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AH16" s="31"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="30">
+        <v>44021</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="G17" s="31">
+        <v>12</v>
+      </c>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="31">
+        <v>12</v>
+      </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="O17" s="31">
+        <v>12</v>
+      </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="S17" s="31">
+        <v>12</v>
+      </c>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
       <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
+      <c r="W17" s="31">
+        <v>12</v>
+      </c>
       <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
+      <c r="AA17" s="31">
+        <v>12</v>
+      </c>
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="31"/>
       <c r="AE17" s="31"/>
       <c r="AF17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AG17" s="20">
         <f t="shared" si="1"/>
@@ -4805,10 +4845,16 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="30">
+        <v>44021</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="32">
+        <v>31</v>
+      </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="33"/>
@@ -4837,7 +4883,7 @@
       <c r="AE18" s="31"/>
       <c r="AF18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG18" s="20">
         <f t="shared" si="1"/>
@@ -5439,76 +5485,76 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="77">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="86">
+      <c r="E33" s="77"/>
+      <c r="F33" s="60">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
         <v>348</v>
       </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="94">
+      <c r="G33" s="60"/>
+      <c r="H33" s="89">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="86">
+      <c r="I33" s="89"/>
+      <c r="J33" s="60">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="95">
+      <c r="K33" s="60"/>
+      <c r="L33" s="90">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="86">
+      <c r="M33" s="90"/>
+      <c r="N33" s="60">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="86"/>
-      <c r="P33" s="91">
+      <c r="O33" s="60"/>
+      <c r="P33" s="93">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="86">
+      <c r="Q33" s="93"/>
+      <c r="R33" s="60">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
         <v>36</v>
       </c>
-      <c r="S33" s="86"/>
-      <c r="T33" s="92">
+      <c r="S33" s="60"/>
+      <c r="T33" s="94">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="92"/>
-      <c r="V33" s="86">
+      <c r="U33" s="94"/>
+      <c r="V33" s="60">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="86"/>
-      <c r="X33" s="93">
+      <c r="W33" s="60"/>
+      <c r="X33" s="95">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
         <v>36</v>
       </c>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="86">
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="60">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
         <v>60</v>
       </c>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="89">
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="91">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="86">
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="60">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="86"/>
+      <c r="AE33" s="60"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5525,160 +5571,160 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="86">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64">
+      <c r="E34" s="86"/>
+      <c r="F34" s="58">
         <f>F33/12</f>
         <v>29</v>
       </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65">
+      <c r="G34" s="58"/>
+      <c r="H34" s="87">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="90">
+      <c r="I34" s="87"/>
+      <c r="J34" s="92">
         <f>J33/12</f>
         <v>0</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="66">
+      <c r="K34" s="92"/>
+      <c r="L34" s="88">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="64">
+      <c r="M34" s="88"/>
+      <c r="N34" s="58">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="64"/>
-      <c r="P34" s="87">
+      <c r="O34" s="58"/>
+      <c r="P34" s="61">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="64">
+      <c r="Q34" s="61"/>
+      <c r="R34" s="58">
         <f>R33/12</f>
         <v>3</v>
       </c>
-      <c r="S34" s="64"/>
-      <c r="T34" s="88">
+      <c r="S34" s="58"/>
+      <c r="T34" s="62">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="88"/>
-      <c r="V34" s="64">
+      <c r="U34" s="62"/>
+      <c r="V34" s="58">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="64"/>
-      <c r="X34" s="84">
+      <c r="W34" s="58"/>
+      <c r="X34" s="57">
         <f>X33/12</f>
         <v>3</v>
       </c>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="64">
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58">
         <f>Z33/12</f>
         <v>5</v>
       </c>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="85">
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="59">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="86"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="60"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="83"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="AG35" s="43">
         <f>SUM(AG9:AG32)</f>
-        <v>771</v>
+        <v>874</v>
       </c>
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="61">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="84">
         <f>AG35-AF35</f>
         <v>631</v>
       </c>
-      <c r="AG36" s="62"/>
+      <c r="AG36" s="85"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5693,6 +5739,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5709,47 +5796,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>hải vui</t>
+  </si>
+  <si>
+    <t>Hải vui trả hàng</t>
+  </si>
+  <si>
+    <t>Anh Minh gia lâm</t>
   </si>
 </sst>
 </file>
@@ -1300,12 +1306,90 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,103 +1402,25 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1760,11 +1766,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1800,11 +1806,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1840,235 +1846,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2153,9 +2159,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3604,76 +3610,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="57">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77">
+      <c r="G37" s="57"/>
+      <c r="H37" s="57">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77">
+      <c r="I37" s="57"/>
+      <c r="J37" s="57">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77">
+      <c r="K37" s="57"/>
+      <c r="L37" s="57">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77">
+      <c r="M37" s="57"/>
+      <c r="N37" s="57">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77">
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77">
+      <c r="S37" s="57"/>
+      <c r="T37" s="57">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77">
+      <c r="U37" s="57"/>
+      <c r="V37" s="57">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77">
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77">
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77">
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="77">
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="77"/>
+      <c r="AE37" s="57"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3690,111 +3696,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="86">
+      <c r="D38" s="63">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="58">
+      <c r="E38" s="63"/>
+      <c r="F38" s="64">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="87">
+      <c r="G38" s="64"/>
+      <c r="H38" s="65">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="58">
+      <c r="I38" s="65"/>
+      <c r="J38" s="64">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="88">
+      <c r="K38" s="64"/>
+      <c r="L38" s="66">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="88"/>
-      <c r="N38" s="58">
+      <c r="M38" s="66"/>
+      <c r="N38" s="64">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="58"/>
-      <c r="P38" s="61">
+      <c r="O38" s="64"/>
+      <c r="P38" s="87">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="58">
+      <c r="Q38" s="87"/>
+      <c r="R38" s="64">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="58"/>
-      <c r="T38" s="62">
+      <c r="S38" s="64"/>
+      <c r="T38" s="88">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="58">
+      <c r="U38" s="88"/>
+      <c r="V38" s="64">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="58"/>
-      <c r="X38" s="57">
+      <c r="W38" s="64"/>
+      <c r="X38" s="84">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58">
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="64">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="59">
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="85">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="82"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="83"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="60"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3806,44 +3812,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="84">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="61">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="85"/>
+      <c r="AG40" s="62"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3853,6 +3859,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="A39:AE39"/>
@@ -3869,47 +3916,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3921,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,11 +3960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -3994,11 +4000,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4034,235 +4040,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4347,9 +4353,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4893,15 +4899,21 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="30">
+        <v>44026</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="31"/>
+      <c r="J19" s="31">
+        <v>12</v>
+      </c>
       <c r="K19" s="31"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -4909,13 +4921,17 @@
       <c r="O19" s="31"/>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
-      <c r="R19" s="31"/>
+      <c r="R19" s="31">
+        <v>12</v>
+      </c>
       <c r="S19" s="31"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
-      <c r="X19" s="37"/>
+      <c r="X19" s="37">
+        <v>12</v>
+      </c>
       <c r="Y19" s="37"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
@@ -4929,14 +4945,18 @@
       </c>
       <c r="AG19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH19" s="31"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="30">
+        <v>44026</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="31"/>
@@ -4952,7 +4972,9 @@
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
+      <c r="S20" s="31">
+        <v>12</v>
+      </c>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
       <c r="V20" s="31"/>
@@ -4960,14 +4982,16 @@
       <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
+      <c r="AA20" s="31">
+        <v>12</v>
+      </c>
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
       <c r="AF20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG20" s="20">
         <f t="shared" si="1"/>
@@ -5485,83 +5509,83 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="57">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="60">
+      <c r="E33" s="57"/>
+      <c r="F33" s="86">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
         <v>348</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="89">
+      <c r="G33" s="86"/>
+      <c r="H33" s="94">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="60">
+      <c r="I33" s="94"/>
+      <c r="J33" s="86">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="90">
+        <v>12</v>
+      </c>
+      <c r="K33" s="86"/>
+      <c r="L33" s="95">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="60">
+      <c r="M33" s="95"/>
+      <c r="N33" s="86">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="60"/>
-      <c r="P33" s="93">
+      <c r="O33" s="86"/>
+      <c r="P33" s="91">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="60">
+      <c r="Q33" s="91"/>
+      <c r="R33" s="86">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
         <v>36</v>
       </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="94">
+      <c r="S33" s="86"/>
+      <c r="T33" s="92">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="60">
+      <c r="U33" s="92"/>
+      <c r="V33" s="86">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="60"/>
-      <c r="X33" s="95">
+      <c r="W33" s="86"/>
+      <c r="X33" s="93">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
-        <v>36</v>
-      </c>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="60">
+        <v>48</v>
+      </c>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="86">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
-        <v>60</v>
-      </c>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="91">
+        <v>48</v>
+      </c>
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="89">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="60">
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="86">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="60"/>
+      <c r="AE33" s="86"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG33" s="20">
         <f>D33+F33+H33+J33+L33+N33+P33+R33+T33+V33+X33+Z33+AB33+AD33</f>
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AH33" s="42"/>
     </row>
@@ -5571,160 +5595,160 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="63">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="58">
+      <c r="E34" s="63"/>
+      <c r="F34" s="64">
         <f>F33/12</f>
         <v>29</v>
       </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="87">
+      <c r="G34" s="64"/>
+      <c r="H34" s="65">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="92">
+      <c r="I34" s="65"/>
+      <c r="J34" s="90">
         <f>J33/12</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="88">
+        <v>1</v>
+      </c>
+      <c r="K34" s="90"/>
+      <c r="L34" s="66">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="58">
+      <c r="M34" s="66"/>
+      <c r="N34" s="64">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="61">
+      <c r="O34" s="64"/>
+      <c r="P34" s="87">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="58">
+      <c r="Q34" s="87"/>
+      <c r="R34" s="64">
         <f>R33/12</f>
         <v>3</v>
       </c>
-      <c r="S34" s="58"/>
-      <c r="T34" s="62">
+      <c r="S34" s="64"/>
+      <c r="T34" s="88">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="58">
+      <c r="U34" s="88"/>
+      <c r="V34" s="64">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="57">
+      <c r="W34" s="64"/>
+      <c r="X34" s="84">
         <f>X33/12</f>
-        <v>3</v>
-      </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="64">
         <f>Z33/12</f>
-        <v>5</v>
-      </c>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="59">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="85">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="86"/>
+      <c r="AE34" s="86"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="83"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="60"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AG35" s="43">
         <f>SUM(AG9:AG32)</f>
-        <v>874</v>
+        <v>910</v>
       </c>
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="84">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="61">
         <f>AG35-AF35</f>
-        <v>631</v>
-      </c>
-      <c r="AG36" s="85"/>
+        <v>643</v>
+      </c>
+      <c r="AG36" s="62"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5739,15 +5763,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="AD33:AE33"/>
     <mergeCell ref="D34:E34"/>
@@ -5764,38 +5811,15 @@
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1306,9 +1306,78 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1327,79 +1396,16 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,12 +1421,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1766,11 +1766,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1806,11 +1806,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1846,235 +1846,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2159,9 +2159,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3610,76 +3610,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="77">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57">
+      <c r="E37" s="77"/>
+      <c r="F37" s="77">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57">
+      <c r="G37" s="77"/>
+      <c r="H37" s="77">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57">
+      <c r="I37" s="77"/>
+      <c r="J37" s="77">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57">
+      <c r="K37" s="77"/>
+      <c r="L37" s="77">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57">
+      <c r="M37" s="77"/>
+      <c r="N37" s="77">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57">
+      <c r="O37" s="77"/>
+      <c r="P37" s="77">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57">
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57">
+      <c r="S37" s="77"/>
+      <c r="T37" s="77">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57">
+      <c r="U37" s="77"/>
+      <c r="V37" s="77">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="W37" s="77"/>
+      <c r="X37" s="77">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57">
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57">
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57">
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="57"/>
+      <c r="AE37" s="77"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3696,111 +3696,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="86">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64">
+      <c r="E38" s="86"/>
+      <c r="F38" s="58">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65">
+      <c r="G38" s="58"/>
+      <c r="H38" s="87">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="64">
+      <c r="I38" s="87"/>
+      <c r="J38" s="58">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="66">
+      <c r="K38" s="58"/>
+      <c r="L38" s="88">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="64">
+      <c r="M38" s="88"/>
+      <c r="N38" s="58">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="87">
+      <c r="O38" s="58"/>
+      <c r="P38" s="61">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="64">
+      <c r="Q38" s="61"/>
+      <c r="R38" s="58">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="88">
+      <c r="S38" s="58"/>
+      <c r="T38" s="62">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="88"/>
-      <c r="V38" s="64">
+      <c r="U38" s="62"/>
+      <c r="V38" s="58">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="64"/>
-      <c r="X38" s="84">
+      <c r="W38" s="58"/>
+      <c r="X38" s="57">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="64">
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="85">
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="59">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="60"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="83"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3812,44 +3812,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="61">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="84">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="62"/>
+      <c r="AG40" s="85"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3859,15 +3859,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3884,38 +3907,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3927,8 +3927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,11 +3961,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4000,11 +4001,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4040,235 +4041,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4353,9 +4354,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -5509,76 +5510,76 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="77">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="86">
+      <c r="E33" s="77"/>
+      <c r="F33" s="60">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
         <v>348</v>
       </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="94">
+      <c r="G33" s="60"/>
+      <c r="H33" s="89">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="86">
+      <c r="I33" s="89"/>
+      <c r="J33" s="60">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
         <v>12</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="95">
+      <c r="K33" s="60"/>
+      <c r="L33" s="90">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="86">
+      <c r="M33" s="90"/>
+      <c r="N33" s="60">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="86"/>
-      <c r="P33" s="91">
+      <c r="O33" s="60"/>
+      <c r="P33" s="93">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="86">
+      <c r="Q33" s="93"/>
+      <c r="R33" s="60">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
         <v>36</v>
       </c>
-      <c r="S33" s="86"/>
-      <c r="T33" s="92">
+      <c r="S33" s="60"/>
+      <c r="T33" s="94">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="92"/>
-      <c r="V33" s="86">
+      <c r="U33" s="94"/>
+      <c r="V33" s="60">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="86"/>
-      <c r="X33" s="93">
+      <c r="W33" s="60"/>
+      <c r="X33" s="95">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
         <v>48</v>
       </c>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="86">
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="60">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
         <v>48</v>
       </c>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="89">
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="91">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="86">
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="60">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="86"/>
+      <c r="AE33" s="60"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5595,111 +5596,110 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="86">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64">
+      <c r="E34" s="86"/>
+      <c r="F34" s="58">
         <f>F33/12</f>
         <v>29</v>
       </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65">
+      <c r="G34" s="58"/>
+      <c r="H34" s="87">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="90">
+      <c r="I34" s="87"/>
+      <c r="J34" s="92">
         <f>J33/12</f>
         <v>1</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="66">
+      <c r="K34" s="92"/>
+      <c r="L34" s="88">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="64">
+      <c r="M34" s="88"/>
+      <c r="N34" s="58">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="64"/>
-      <c r="P34" s="87">
+      <c r="O34" s="58"/>
+      <c r="P34" s="61">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="64">
+      <c r="Q34" s="61"/>
+      <c r="R34" s="58">
         <f>R33/12</f>
         <v>3</v>
       </c>
-      <c r="S34" s="64"/>
-      <c r="T34" s="88">
+      <c r="S34" s="58"/>
+      <c r="T34" s="62">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="88"/>
-      <c r="V34" s="64">
+      <c r="U34" s="62"/>
+      <c r="V34" s="58">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="64"/>
-      <c r="X34" s="84">
+      <c r="W34" s="58"/>
+      <c r="X34" s="57">
         <f>X33/12</f>
         <v>4</v>
       </c>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="64">
-        <f>Z33/12</f>
-        <v>4</v>
-      </c>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="85">
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="59">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="86"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="60"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="83"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
         <v>267</v>
@@ -5711,44 +5711,44 @@
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="61">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="84">
         <f>AG35-AF35</f>
         <v>643</v>
       </c>
-      <c r="AG36" s="62"/>
+      <c r="AG36" s="85"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5763,6 +5763,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5779,47 +5820,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -910,6 +910,12 @@
   </si>
   <si>
     <t>Anh Minh gia lâm</t>
+  </si>
+  <si>
+    <t>Xuất hàng đl duy nhất</t>
+  </si>
+  <si>
+    <t>xuất an khánh</t>
   </si>
 </sst>
 </file>
@@ -1306,12 +1312,90 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1324,103 +1408,25 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1766,11 +1772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1806,11 +1812,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1846,235 +1852,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2159,9 +2165,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3610,76 +3616,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="57">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77">
+      <c r="G37" s="57"/>
+      <c r="H37" s="57">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77">
+      <c r="I37" s="57"/>
+      <c r="J37" s="57">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77">
+      <c r="K37" s="57"/>
+      <c r="L37" s="57">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77">
+      <c r="M37" s="57"/>
+      <c r="N37" s="57">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77">
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77">
+      <c r="S37" s="57"/>
+      <c r="T37" s="57">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77">
+      <c r="U37" s="57"/>
+      <c r="V37" s="57">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77">
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77">
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77">
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="77">
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="77"/>
+      <c r="AE37" s="57"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3696,111 +3702,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="86">
+      <c r="D38" s="63">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="58">
+      <c r="E38" s="63"/>
+      <c r="F38" s="64">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="87">
+      <c r="G38" s="64"/>
+      <c r="H38" s="65">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="58">
+      <c r="I38" s="65"/>
+      <c r="J38" s="64">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="88">
+      <c r="K38" s="64"/>
+      <c r="L38" s="66">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="88"/>
-      <c r="N38" s="58">
+      <c r="M38" s="66"/>
+      <c r="N38" s="64">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="58"/>
-      <c r="P38" s="61">
+      <c r="O38" s="64"/>
+      <c r="P38" s="87">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="58">
+      <c r="Q38" s="87"/>
+      <c r="R38" s="64">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="58"/>
-      <c r="T38" s="62">
+      <c r="S38" s="64"/>
+      <c r="T38" s="88">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="58">
+      <c r="U38" s="88"/>
+      <c r="V38" s="64">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="58"/>
-      <c r="X38" s="57">
+      <c r="W38" s="64"/>
+      <c r="X38" s="84">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58">
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="64">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="59">
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="85">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="82"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="83"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="60"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3812,44 +3818,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="84">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="61">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="85"/>
+      <c r="AG40" s="62"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3859,6 +3865,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="A39:AE39"/>
@@ -3875,47 +3922,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3928,8 +3934,8 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X34" sqref="X34:AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,11 +3967,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4001,11 +4007,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4041,235 +4047,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4354,9 +4360,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -5002,12 +5008,18 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="30">
+        <v>44029</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="G21" s="31">
+        <v>24</v>
+      </c>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="31"/>
@@ -5019,7 +5031,9 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
+      <c r="S21" s="31">
+        <v>12</v>
+      </c>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="31"/>
@@ -5034,7 +5048,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="1"/>
@@ -5045,11 +5059,15 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
+      <c r="C22" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="G22" s="31">
+        <v>12</v>
+      </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="31"/>
@@ -5061,7 +5079,9 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="S22" s="31">
+        <v>12</v>
+      </c>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
       <c r="V22" s="31"/>
@@ -5069,14 +5089,16 @@
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
+      <c r="AA22" s="31">
+        <v>12</v>
+      </c>
       <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG22" s="20">
         <f t="shared" si="1"/>
@@ -5510,83 +5532,83 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="57">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="60">
+      <c r="E33" s="57"/>
+      <c r="F33" s="86">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
-        <v>348</v>
-      </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="89">
+        <v>312</v>
+      </c>
+      <c r="G33" s="86"/>
+      <c r="H33" s="94">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="60">
+      <c r="I33" s="94"/>
+      <c r="J33" s="86">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
         <v>12</v>
       </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="90">
+      <c r="K33" s="86"/>
+      <c r="L33" s="95">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="60">
+      <c r="M33" s="95"/>
+      <c r="N33" s="86">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="60"/>
-      <c r="P33" s="93">
+      <c r="O33" s="86"/>
+      <c r="P33" s="91">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="60">
+      <c r="Q33" s="91"/>
+      <c r="R33" s="86">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
-        <v>36</v>
-      </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="94">
+        <v>12</v>
+      </c>
+      <c r="S33" s="86"/>
+      <c r="T33" s="92">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="60">
+      <c r="U33" s="92"/>
+      <c r="V33" s="86">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="60"/>
-      <c r="X33" s="95">
+      <c r="W33" s="86"/>
+      <c r="X33" s="93">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
         <v>48</v>
       </c>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="60">
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="86">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
-        <v>48</v>
-      </c>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="91">
+        <v>36</v>
+      </c>
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="89">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="60">
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="86">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="60"/>
+      <c r="AE33" s="86"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG33" s="20">
         <f>D33+F33+H33+J33+L33+N33+P33+R33+T33+V33+X33+Z33+AB33+AD33</f>
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="AH33" s="42"/>
     </row>
@@ -5596,113 +5618,114 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="63">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="58">
+      <c r="E34" s="63"/>
+      <c r="F34" s="64">
         <f>F33/12</f>
-        <v>29</v>
-      </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="87">
+        <v>26</v>
+      </c>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="92">
+      <c r="I34" s="65"/>
+      <c r="J34" s="90">
         <f>J33/12</f>
         <v>1</v>
       </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="88">
+      <c r="K34" s="90"/>
+      <c r="L34" s="66">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="58">
+      <c r="M34" s="66"/>
+      <c r="N34" s="64">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="61">
+      <c r="O34" s="64"/>
+      <c r="P34" s="87">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="58">
+      <c r="Q34" s="87"/>
+      <c r="R34" s="64">
         <f>R33/12</f>
-        <v>3</v>
-      </c>
-      <c r="S34" s="58"/>
-      <c r="T34" s="62">
+        <v>1</v>
+      </c>
+      <c r="S34" s="64"/>
+      <c r="T34" s="88">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="58">
+      <c r="U34" s="88"/>
+      <c r="V34" s="64">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="57">
+      <c r="W34" s="64"/>
+      <c r="X34" s="84">
         <f>X33/12</f>
         <v>4</v>
       </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="59">
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84">
+        <f>Z33/12</f>
+        <v>3</v>
+      </c>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="85">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="86"/>
+      <c r="AE34" s="86"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="83"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="60"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="AG35" s="43">
         <f>SUM(AG9:AG32)</f>
@@ -5711,44 +5734,44 @@
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="84">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="61">
         <f>AG35-AF35</f>
-        <v>643</v>
-      </c>
-      <c r="AG36" s="85"/>
+        <v>571</v>
+      </c>
+      <c r="AG36" s="62"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5763,15 +5786,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="AD33:AE33"/>
     <mergeCell ref="D34:E34"/>
@@ -5788,38 +5834,15 @@
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1312,9 +1312,78 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1333,79 +1402,16 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,12 +1427,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1772,11 +1772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1812,11 +1812,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1852,235 +1852,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2165,9 +2165,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3616,76 +3616,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="77">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57">
+      <c r="E37" s="77"/>
+      <c r="F37" s="77">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57">
+      <c r="G37" s="77"/>
+      <c r="H37" s="77">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57">
+      <c r="I37" s="77"/>
+      <c r="J37" s="77">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57">
+      <c r="K37" s="77"/>
+      <c r="L37" s="77">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57">
+      <c r="M37" s="77"/>
+      <c r="N37" s="77">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57">
+      <c r="O37" s="77"/>
+      <c r="P37" s="77">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57">
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57">
+      <c r="S37" s="77"/>
+      <c r="T37" s="77">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57">
+      <c r="U37" s="77"/>
+      <c r="V37" s="77">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="W37" s="77"/>
+      <c r="X37" s="77">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57">
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57">
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57">
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="57"/>
+      <c r="AE37" s="77"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3702,111 +3702,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="86">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64">
+      <c r="E38" s="86"/>
+      <c r="F38" s="58">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65">
+      <c r="G38" s="58"/>
+      <c r="H38" s="87">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="64">
+      <c r="I38" s="87"/>
+      <c r="J38" s="58">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="66">
+      <c r="K38" s="58"/>
+      <c r="L38" s="88">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="64">
+      <c r="M38" s="88"/>
+      <c r="N38" s="58">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="87">
+      <c r="O38" s="58"/>
+      <c r="P38" s="61">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="64">
+      <c r="Q38" s="61"/>
+      <c r="R38" s="58">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="88">
+      <c r="S38" s="58"/>
+      <c r="T38" s="62">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="88"/>
-      <c r="V38" s="64">
+      <c r="U38" s="62"/>
+      <c r="V38" s="58">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="64"/>
-      <c r="X38" s="84">
+      <c r="W38" s="58"/>
+      <c r="X38" s="57">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="64">
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="85">
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="59">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="60"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="83"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3818,44 +3818,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="61">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="84">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="62"/>
+      <c r="AG40" s="85"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3865,15 +3865,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3890,38 +3913,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3934,8 +3934,8 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X34" sqref="X34:AA34"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,11 +3967,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4007,11 +4007,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4047,235 +4047,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4360,9 +4360,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -5058,7 +5058,9 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="30">
+        <v>44028</v>
+      </c>
       <c r="C22" s="31" t="s">
         <v>67</v>
       </c>
@@ -5532,76 +5534,76 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="77">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="86">
+      <c r="E33" s="77"/>
+      <c r="F33" s="60">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
         <v>312</v>
       </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="94">
+      <c r="G33" s="60"/>
+      <c r="H33" s="89">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="86">
+      <c r="I33" s="89"/>
+      <c r="J33" s="60">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
         <v>12</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="95">
+      <c r="K33" s="60"/>
+      <c r="L33" s="90">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="86">
+      <c r="M33" s="90"/>
+      <c r="N33" s="60">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="86"/>
-      <c r="P33" s="91">
+      <c r="O33" s="60"/>
+      <c r="P33" s="93">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="86">
+      <c r="Q33" s="93"/>
+      <c r="R33" s="60">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
         <v>12</v>
       </c>
-      <c r="S33" s="86"/>
-      <c r="T33" s="92">
+      <c r="S33" s="60"/>
+      <c r="T33" s="94">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="92"/>
-      <c r="V33" s="86">
+      <c r="U33" s="94"/>
+      <c r="V33" s="60">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="86"/>
-      <c r="X33" s="93">
+      <c r="W33" s="60"/>
+      <c r="X33" s="95">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
         <v>48</v>
       </c>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="86">
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="60">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
         <v>36</v>
       </c>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="89">
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="91">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="86">
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="60">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="86"/>
+      <c r="AE33" s="60"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5618,111 +5620,111 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="86">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64">
+      <c r="E34" s="86"/>
+      <c r="F34" s="58">
         <f>F33/12</f>
         <v>26</v>
       </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65">
+      <c r="G34" s="58"/>
+      <c r="H34" s="87">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="90">
+      <c r="I34" s="87"/>
+      <c r="J34" s="92">
         <f>J33/12</f>
         <v>1</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="66">
+      <c r="K34" s="92"/>
+      <c r="L34" s="88">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="64">
+      <c r="M34" s="88"/>
+      <c r="N34" s="58">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="64"/>
-      <c r="P34" s="87">
+      <c r="O34" s="58"/>
+      <c r="P34" s="61">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="64">
+      <c r="Q34" s="61"/>
+      <c r="R34" s="58">
         <f>R33/12</f>
         <v>1</v>
       </c>
-      <c r="S34" s="64"/>
-      <c r="T34" s="88">
+      <c r="S34" s="58"/>
+      <c r="T34" s="62">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="88"/>
-      <c r="V34" s="64">
+      <c r="U34" s="62"/>
+      <c r="V34" s="58">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="64"/>
-      <c r="X34" s="84">
+      <c r="W34" s="58"/>
+      <c r="X34" s="57">
         <f>X33/12</f>
         <v>4</v>
       </c>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84">
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57">
         <f>Z33/12</f>
         <v>3</v>
       </c>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="85">
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="59">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="86"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="60"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="83"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
         <v>339</v>
@@ -5734,44 +5736,44 @@
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="61">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="84">
         <f>AG35-AF35</f>
         <v>571</v>
       </c>
-      <c r="AG36" s="62"/>
+      <c r="AG36" s="85"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5786,6 +5788,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5802,47 +5845,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1312,12 +1312,90 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1330,103 +1408,25 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1490,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,7 +1525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,40 +1743,40 @@
       <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1812,11 +1812,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1852,235 +1852,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2165,9 +2165,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3616,76 +3616,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="57">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77">
+      <c r="G37" s="57"/>
+      <c r="H37" s="57">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77">
+      <c r="I37" s="57"/>
+      <c r="J37" s="57">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77">
+      <c r="K37" s="57"/>
+      <c r="L37" s="57">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77">
+      <c r="M37" s="57"/>
+      <c r="N37" s="57">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77">
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77">
+      <c r="S37" s="57"/>
+      <c r="T37" s="57">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77">
+      <c r="U37" s="57"/>
+      <c r="V37" s="57">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77">
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77">
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77">
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="77">
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="77"/>
+      <c r="AE37" s="57"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3702,111 +3702,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="86">
+      <c r="D38" s="63">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="58">
+      <c r="E38" s="63"/>
+      <c r="F38" s="64">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="87">
+      <c r="G38" s="64"/>
+      <c r="H38" s="65">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="58">
+      <c r="I38" s="65"/>
+      <c r="J38" s="64">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="88">
+      <c r="K38" s="64"/>
+      <c r="L38" s="66">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="88"/>
-      <c r="N38" s="58">
+      <c r="M38" s="66"/>
+      <c r="N38" s="64">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="58"/>
-      <c r="P38" s="61">
+      <c r="O38" s="64"/>
+      <c r="P38" s="87">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="58">
+      <c r="Q38" s="87"/>
+      <c r="R38" s="64">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="58"/>
-      <c r="T38" s="62">
+      <c r="S38" s="64"/>
+      <c r="T38" s="88">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="58">
+      <c r="U38" s="88"/>
+      <c r="V38" s="64">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="58"/>
-      <c r="X38" s="57">
+      <c r="W38" s="64"/>
+      <c r="X38" s="84">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58">
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="64">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="59">
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="85">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="82"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="83"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="60"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3818,44 +3818,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="84">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="61">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="85"/>
+      <c r="AG40" s="62"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3865,6 +3865,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="A39:AE39"/>
@@ -3881,47 +3922,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3934,44 +3934,44 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4007,11 +4007,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4047,235 +4047,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4360,9 +4360,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -5027,7 +5027,9 @@
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="O21" s="31">
+        <v>12</v>
+      </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="31"/>
@@ -5048,7 +5050,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="1"/>
@@ -5110,8 +5112,12 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="30">
+        <v>44029</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
@@ -5122,7 +5128,9 @@
       <c r="K23" s="31"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="31"/>
+      <c r="N23" s="31">
+        <v>12</v>
+      </c>
       <c r="O23" s="31"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -5146,7 +5154,7 @@
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH23" s="31"/>
     </row>
@@ -5534,76 +5542,76 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="57">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="60">
+      <c r="E33" s="57"/>
+      <c r="F33" s="86">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
         <v>312</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="89">
+      <c r="G33" s="86"/>
+      <c r="H33" s="94">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="60">
+      <c r="I33" s="94"/>
+      <c r="J33" s="86">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
         <v>12</v>
       </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="90">
+      <c r="K33" s="86"/>
+      <c r="L33" s="95">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="60">
+      <c r="M33" s="95"/>
+      <c r="N33" s="86">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="60"/>
-      <c r="P33" s="93">
+      <c r="O33" s="86"/>
+      <c r="P33" s="91">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="60">
+      <c r="Q33" s="91"/>
+      <c r="R33" s="86">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
         <v>12</v>
       </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="94">
+      <c r="S33" s="86"/>
+      <c r="T33" s="92">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="60">
+      <c r="U33" s="92"/>
+      <c r="V33" s="86">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="60"/>
-      <c r="X33" s="95">
+      <c r="W33" s="86"/>
+      <c r="X33" s="93">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
         <v>48</v>
       </c>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="60">
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="86">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
         <v>36</v>
       </c>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="91">
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="89">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="60">
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="86">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="60"/>
+      <c r="AE33" s="86"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5620,160 +5628,160 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="63">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="58">
+      <c r="E34" s="63"/>
+      <c r="F34" s="64">
         <f>F33/12</f>
         <v>26</v>
       </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="87">
+      <c r="G34" s="64"/>
+      <c r="H34" s="65">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="92">
+      <c r="I34" s="65"/>
+      <c r="J34" s="90">
         <f>J33/12</f>
         <v>1</v>
       </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="88">
+      <c r="K34" s="90"/>
+      <c r="L34" s="66">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="58">
+      <c r="M34" s="66"/>
+      <c r="N34" s="64">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="61">
+      <c r="O34" s="64"/>
+      <c r="P34" s="87">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="58">
+      <c r="Q34" s="87"/>
+      <c r="R34" s="64">
         <f>R33/12</f>
         <v>1</v>
       </c>
-      <c r="S34" s="58"/>
-      <c r="T34" s="62">
+      <c r="S34" s="64"/>
+      <c r="T34" s="88">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="58">
+      <c r="U34" s="88"/>
+      <c r="V34" s="64">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="57">
+      <c r="W34" s="64"/>
+      <c r="X34" s="84">
         <f>X33/12</f>
         <v>4</v>
       </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57">
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84">
         <f>Z33/12</f>
         <v>3</v>
       </c>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="59">
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="85">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="86"/>
+      <c r="AE34" s="86"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="83"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="60"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AG35" s="43">
         <f>SUM(AG9:AG32)</f>
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="84">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="61">
         <f>AG35-AF35</f>
         <v>571</v>
       </c>
-      <c r="AG36" s="85"/>
+      <c r="AG36" s="62"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5788,15 +5796,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="AD33:AE33"/>
     <mergeCell ref="D34:E34"/>
@@ -5813,38 +5844,15 @@
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5857,7 +5865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1312,9 +1312,78 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1333,79 +1402,16 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,12 +1427,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1490,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,7 +1525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,40 +1743,40 @@
       <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1812,11 +1812,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1852,235 +1852,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2165,9 +2165,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3616,76 +3616,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="77">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57">
+      <c r="E37" s="77"/>
+      <c r="F37" s="77">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57">
+      <c r="G37" s="77"/>
+      <c r="H37" s="77">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57">
+      <c r="I37" s="77"/>
+      <c r="J37" s="77">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57">
+      <c r="K37" s="77"/>
+      <c r="L37" s="77">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57">
+      <c r="M37" s="77"/>
+      <c r="N37" s="77">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57">
+      <c r="O37" s="77"/>
+      <c r="P37" s="77">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57">
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57">
+      <c r="S37" s="77"/>
+      <c r="T37" s="77">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57">
+      <c r="U37" s="77"/>
+      <c r="V37" s="77">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="W37" s="77"/>
+      <c r="X37" s="77">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57">
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57">
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57">
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="57"/>
+      <c r="AE37" s="77"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3702,111 +3702,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="86">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64">
+      <c r="E38" s="86"/>
+      <c r="F38" s="58">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65">
+      <c r="G38" s="58"/>
+      <c r="H38" s="87">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="64">
+      <c r="I38" s="87"/>
+      <c r="J38" s="58">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="66">
+      <c r="K38" s="58"/>
+      <c r="L38" s="88">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="64">
+      <c r="M38" s="88"/>
+      <c r="N38" s="58">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="87">
+      <c r="O38" s="58"/>
+      <c r="P38" s="61">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="64">
+      <c r="Q38" s="61"/>
+      <c r="R38" s="58">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="88">
+      <c r="S38" s="58"/>
+      <c r="T38" s="62">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="88"/>
-      <c r="V38" s="64">
+      <c r="U38" s="62"/>
+      <c r="V38" s="58">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="64"/>
-      <c r="X38" s="84">
+      <c r="W38" s="58"/>
+      <c r="X38" s="57">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="64">
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="85">
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="59">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="60"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="83"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3818,44 +3818,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="61">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="84">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="62"/>
+      <c r="AG40" s="85"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3865,15 +3865,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3890,38 +3913,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3934,44 +3934,44 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4007,11 +4007,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4047,235 +4047,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4360,9 +4360,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -5542,76 +5542,76 @@
       <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="77">
         <f>SUM(D9:D32)-SUM(E9:E32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="86">
+      <c r="E33" s="77"/>
+      <c r="F33" s="60">
         <f>SUM(F9:F32)-SUM(G9:G32)</f>
         <v>312</v>
       </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="94">
+      <c r="G33" s="60"/>
+      <c r="H33" s="89">
         <f>SUM(H9:H32)-SUM(I9:I32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="86">
+      <c r="I33" s="89"/>
+      <c r="J33" s="60">
         <f>SUM(J9:J32)-SUM(K9:K32)</f>
         <v>12</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="95">
+      <c r="K33" s="60"/>
+      <c r="L33" s="90">
         <f>SUM(L9:L32)-SUM(M9:M32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="86">
+      <c r="M33" s="90"/>
+      <c r="N33" s="60">
         <f>SUM(N9:N32)-SUM(O9:O32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="86"/>
-      <c r="P33" s="91">
+      <c r="O33" s="60"/>
+      <c r="P33" s="93">
         <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="86">
+      <c r="Q33" s="93"/>
+      <c r="R33" s="60">
         <f>SUM(R9:R32)-SUM(S9:S32)</f>
         <v>12</v>
       </c>
-      <c r="S33" s="86"/>
-      <c r="T33" s="92">
+      <c r="S33" s="60"/>
+      <c r="T33" s="94">
         <f>SUM(T9:T32)-SUM(U9:U32)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="92"/>
-      <c r="V33" s="86">
+      <c r="U33" s="94"/>
+      <c r="V33" s="60">
         <f>SUM(V9:V32)-SUM(W9:W32)</f>
         <v>24</v>
       </c>
-      <c r="W33" s="86"/>
-      <c r="X33" s="93">
+      <c r="W33" s="60"/>
+      <c r="X33" s="95">
         <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
         <v>48</v>
       </c>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="86">
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="60">
         <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
         <v>36</v>
       </c>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="89">
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="91">
         <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="86">
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="60">
         <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
         <v>127</v>
       </c>
-      <c r="AE33" s="86"/>
+      <c r="AE33" s="60"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5628,111 +5628,111 @@
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="86">
         <f>D33/24</f>
         <v>0</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64">
+      <c r="E34" s="86"/>
+      <c r="F34" s="58">
         <f>F33/12</f>
         <v>26</v>
       </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65">
+      <c r="G34" s="58"/>
+      <c r="H34" s="87">
         <f>H33/24</f>
         <v>0</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="90">
+      <c r="I34" s="87"/>
+      <c r="J34" s="92">
         <f>J33/12</f>
         <v>1</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="66">
+      <c r="K34" s="92"/>
+      <c r="L34" s="88">
         <f>L33/24</f>
         <v>0</v>
       </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="64">
+      <c r="M34" s="88"/>
+      <c r="N34" s="58">
         <f>N33/12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="64"/>
-      <c r="P34" s="87">
+      <c r="O34" s="58"/>
+      <c r="P34" s="61">
         <f>P33/24</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="64">
+      <c r="Q34" s="61"/>
+      <c r="R34" s="58">
         <f>R33/12</f>
         <v>1</v>
       </c>
-      <c r="S34" s="64"/>
-      <c r="T34" s="88">
+      <c r="S34" s="58"/>
+      <c r="T34" s="62">
         <f>T33/24</f>
         <v>0</v>
       </c>
-      <c r="U34" s="88"/>
-      <c r="V34" s="64">
+      <c r="U34" s="62"/>
+      <c r="V34" s="58">
         <f>V33/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="64"/>
-      <c r="X34" s="84">
+      <c r="W34" s="58"/>
+      <c r="X34" s="57">
         <f>X33/12</f>
         <v>4</v>
       </c>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84">
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57">
         <f>Z33/12</f>
         <v>3</v>
       </c>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="85">
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="59">
         <f>AB33/24</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="86"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="60"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="83"/>
       <c r="AF35" s="43">
         <f>SUM(AF9:AF32)</f>
         <v>351</v>
@@ -5744,44 +5744,44 @@
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="61">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="84">
         <f>AG35-AF35</f>
         <v>571</v>
       </c>
-      <c r="AG36" s="62"/>
+      <c r="AG36" s="85"/>
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -5796,6 +5796,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5812,47 +5853,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5865,7 +5865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -916,6 +916,27 @@
   </si>
   <si>
     <t>xuất an khánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập hàng </t>
+  </si>
+  <si>
+    <t>Sài gòn</t>
+  </si>
+  <si>
+    <t>Anh Sơn</t>
+  </si>
+  <si>
+    <t>Duy nhất</t>
+  </si>
+  <si>
+    <t>Chị Huệ</t>
+  </si>
+  <si>
+    <t>Nhập từ thủy vy</t>
+  </si>
+  <si>
+    <t>Thủy vy trả hàng</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1193,12 +1214,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1427,6 +1457,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1737,7 +1773,7 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
@@ -3931,11 +3967,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34:G34"/>
+      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3945,20 +3981,21 @@
     <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
     <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" style="6" customWidth="1"/>
+    <col min="14" max="15" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
     <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
     <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
     <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
     <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -4477,11 +4514,11 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF36" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>1</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG32" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG36" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="31"/>
@@ -4862,23 +4899,27 @@
         <v>44021</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="32">
-        <v>31</v>
-      </c>
+      <c r="E18" s="32"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="33">
+        <v>8</v>
+      </c>
       <c r="I18" s="33"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="34"/>
+      <c r="L18" s="34">
+        <v>8</v>
+      </c>
       <c r="M18" s="34"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="35"/>
+      <c r="P18" s="35">
+        <v>8</v>
+      </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="31"/>
       <c r="S18" s="31"/>
@@ -4894,51 +4935,47 @@
       <c r="AC18" s="38"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
-      <c r="AF18" s="20">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AG18" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
       <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="30">
-        <v>44026</v>
+        <v>44021</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32">
+        <v>31</v>
+      </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="31">
-        <v>12</v>
-      </c>
+      <c r="I19" s="33">
+        <v>8</v>
+      </c>
+      <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="M19" s="34">
+        <v>8</v>
+      </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="31">
-        <v>12</v>
-      </c>
+      <c r="Q19" s="35">
+        <v>8</v>
+      </c>
+      <c r="R19" s="31"/>
       <c r="S19" s="31"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
-      <c r="X19" s="37">
-        <v>12</v>
-      </c>
+      <c r="X19" s="37"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
@@ -4948,11 +4985,11 @@
       <c r="AE19" s="31"/>
       <c r="AF19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG19" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="31"/>
     </row>
@@ -4962,7 +4999,7 @@
         <v>44026</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -4970,7 +5007,9 @@
       <c r="G20" s="31"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
-      <c r="J20" s="31"/>
+      <c r="J20" s="31">
+        <v>12</v>
+      </c>
       <c r="K20" s="31"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -4978,48 +5017,46 @@
       <c r="O20" s="31"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31">
+      <c r="R20" s="31">
         <v>12</v>
       </c>
+      <c r="S20" s="31"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
-      <c r="X20" s="37"/>
+      <c r="X20" s="37">
+        <v>12</v>
+      </c>
       <c r="Y20" s="37"/>
       <c r="Z20" s="31"/>
-      <c r="AA20" s="31">
-        <v>12</v>
-      </c>
+      <c r="AA20" s="31"/>
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
       <c r="AF20" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH20" s="31"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="30">
-        <v>44029</v>
+        <v>44026</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="31">
-        <v>24</v>
-      </c>
+      <c r="G21" s="31"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="31"/>
@@ -5027,9 +5064,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="31"/>
-      <c r="O21" s="31">
-        <v>12</v>
-      </c>
+      <c r="O21" s="31"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="31"/>
@@ -5043,14 +5078,16 @@
       <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
+      <c r="AA21" s="31">
+        <v>12</v>
+      </c>
       <c r="AB21" s="38"/>
       <c r="AC21" s="38"/>
       <c r="AD21" s="31"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="1"/>
@@ -5061,16 +5098,16 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="30">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
@@ -5079,7 +5116,9 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="O22" s="31">
+        <v>12</v>
+      </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="31"/>
@@ -5093,16 +5132,14 @@
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="31"/>
-      <c r="AA22" s="31">
-        <v>12</v>
-      </c>
+      <c r="AA22" s="31"/>
       <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AG22" s="20">
         <f t="shared" si="1"/>
@@ -5113,29 +5150,31 @@
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="30">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="31">
+        <v>12</v>
+      </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="31">
-        <v>12</v>
-      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
+      <c r="S23" s="31">
+        <v>12</v>
+      </c>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
       <c r="V23" s="31"/>
@@ -5143,25 +5182,31 @@
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
+      <c r="AA23" s="31">
+        <v>12</v>
+      </c>
       <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
       <c r="AD23" s="31"/>
       <c r="AE23" s="31"/>
       <c r="AF23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="31"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="30">
+        <v>44029</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="31"/>
@@ -5182,7 +5227,9 @@
       <c r="U24" s="36"/>
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
-      <c r="X24" s="37"/>
+      <c r="X24" s="37">
+        <v>60</v>
+      </c>
       <c r="Y24" s="37"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
@@ -5196,39 +5243,61 @@
       </c>
       <c r="AG24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AH24" s="31"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="30">
+        <v>44031</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
-      <c r="J25" s="31"/>
+      <c r="J25" s="31">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
       <c r="K25" s="31"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="31"/>
+      <c r="N25" s="31">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
       <c r="O25" s="31"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
-      <c r="R25" s="31"/>
+      <c r="R25" s="31">
+        <f>12*20</f>
+        <v>240</v>
+      </c>
       <c r="S25" s="31"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="31"/>
+      <c r="V25" s="31">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
       <c r="W25" s="31"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
-      <c r="Z25" s="31"/>
+      <c r="Z25" s="31">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
       <c r="AA25" s="31"/>
-      <c r="AB25" s="38"/>
+      <c r="AB25" s="38">
+        <f>15*24</f>
+        <v>360</v>
+      </c>
       <c r="AC25" s="38"/>
       <c r="AD25" s="31"/>
       <c r="AE25" s="31"/>
@@ -5238,45 +5307,66 @@
       </c>
       <c r="AG25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AH25" s="31"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="30">
+        <v>44032</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="31">
+        <v>300</v>
+      </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="31">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
+      <c r="O26" s="31">
+        <v>120</v>
+      </c>
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
+      <c r="S26" s="31">
+        <v>240</v>
+      </c>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
+      <c r="W26" s="31">
+        <v>60</v>
+      </c>
       <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
+      <c r="Y26" s="37">
+        <v>84</v>
+      </c>
       <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
+      <c r="AA26" s="31">
+        <v>240</v>
+      </c>
       <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
+      <c r="AC26" s="38">
+        <v>240</v>
+      </c>
       <c r="AD26" s="31"/>
       <c r="AE26" s="31"/>
       <c r="AF26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="AG26" s="20">
         <f t="shared" si="1"/>
@@ -5286,8 +5376,12 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="30">
+        <v>43881</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="31"/>
@@ -5295,11 +5389,15 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="K27" s="31">
+        <v>12</v>
+      </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
+      <c r="O27" s="31">
+        <v>24</v>
+      </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
       <c r="R27" s="31"/>
@@ -5313,12 +5411,14 @@
       <c r="Z27" s="31"/>
       <c r="AA27" s="31"/>
       <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
+      <c r="AC27" s="38">
+        <v>14</v>
+      </c>
       <c r="AD27" s="31"/>
       <c r="AE27" s="31"/>
       <c r="AF27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG27" s="20">
         <f t="shared" si="1"/>
@@ -5328,8 +5428,12 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="30">
+        <v>44032</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="31"/>
@@ -5345,12 +5449,16 @@
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
       <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
+      <c r="S28" s="31">
+        <v>12</v>
+      </c>
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
       <c r="V28" s="31"/>
       <c r="W28" s="31"/>
-      <c r="X28" s="37"/>
+      <c r="X28" s="37">
+        <v>24</v>
+      </c>
       <c r="Y28" s="37"/>
       <c r="Z28" s="31"/>
       <c r="AA28" s="31"/>
@@ -5360,30 +5468,40 @@
       <c r="AE28" s="31"/>
       <c r="AF28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
+      <c r="B29" s="30">
+        <v>44032</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>70</v>
+      </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="G29" s="31">
+        <v>12</v>
+      </c>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="K29" s="31">
+        <v>12</v>
+      </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
+      <c r="O29" s="31">
+        <v>12</v>
+      </c>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
       <c r="R29" s="31"/>
@@ -5391,18 +5509,26 @@
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
       <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
+      <c r="W29" s="31">
+        <v>12</v>
+      </c>
       <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
+      <c r="Y29" s="37">
+        <v>12</v>
+      </c>
       <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
+      <c r="AA29" s="31">
+        <v>12</v>
+      </c>
       <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
+      <c r="AC29" s="38">
+        <v>10</v>
+      </c>
       <c r="AD29" s="31"/>
       <c r="AE29" s="31"/>
       <c r="AF29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AG29" s="20">
         <f t="shared" si="1"/>
@@ -5412,20 +5538,30 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="30">
+        <v>44036</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="G30" s="31">
+        <v>36</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="K30" s="31">
+        <v>12</v>
+      </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
+      <c r="O30" s="31">
+        <v>12</v>
+      </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="31"/>
@@ -5444,7 +5580,7 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="1"/>
@@ -5454,8 +5590,12 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="30">
+        <v>44032</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -5463,7 +5603,9 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
+      <c r="K31" s="31">
+        <v>12</v>
+      </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="31"/>
@@ -5475,7 +5617,9 @@
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
       <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
+      <c r="W31" s="31">
+        <v>12</v>
+      </c>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
       <c r="Z31" s="31"/>
@@ -5486,7 +5630,7 @@
       <c r="AE31" s="31"/>
       <c r="AF31" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG31" s="20">
         <f t="shared" si="1"/>
@@ -5496,11 +5640,17 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="30">
+        <v>44036</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
+      <c r="F32" s="31">
+        <v>12</v>
+      </c>
       <c r="G32" s="31"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
@@ -5532,305 +5682,483 @@
       </c>
       <c r="AG32" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH32" s="31"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="77">
-        <f>SUM(D9:D32)-SUM(E9:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="60">
-        <f>SUM(F9:F32)-SUM(G9:G32)</f>
-        <v>312</v>
-      </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="89">
-        <f>SUM(H9:H32)-SUM(I9:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="60">
-        <f>SUM(J9:J32)-SUM(K9:K32)</f>
-        <v>12</v>
-      </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="90">
-        <f>SUM(L9:L32)-SUM(M9:M32)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="60">
-        <f>SUM(N9:N32)-SUM(O9:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="60"/>
-      <c r="P33" s="93">
-        <f>SUM(P9:P32)-SUM(Q9:Q32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="60">
-        <f>SUM(R9:R32)-SUM(S9:S32)</f>
-        <v>12</v>
-      </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="94">
-        <f>SUM(T9:T32)-SUM(U9:U32)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="60">
-        <f>SUM(V9:V32)-SUM(W9:W32)</f>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30">
+        <v>44036</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31">
         <v>24</v>
       </c>
-      <c r="W33" s="60"/>
-      <c r="X33" s="95">
-        <f>SUM(X9:X32)-SUM(Y9:Y32)</f>
-        <v>48</v>
-      </c>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="60">
-        <f>SUM(Z9:Z32)-SUM(AA9:AA32)</f>
-        <v>36</v>
-      </c>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="91">
-        <f>SUM(AB9:AB32)-SUM(AC9:AC32)</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="60">
-        <f>SUM(AD9:AD32)-SUM(AE9:AE32)</f>
-        <v>127</v>
-      </c>
-      <c r="AE33" s="60"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG33" s="20">
-        <f>D33+F33+H33+J33+L33+N33+P33+R33+T33+V33+X33+Z33+AB33+AD33</f>
-        <v>571</v>
-      </c>
-      <c r="AH33" s="42"/>
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AH33" s="31"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="31"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="31"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="77">
+        <f>SUM(D9:D35)-SUM(E9:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="F36" s="60">
+        <f>SUM(F9:F35)-SUM(G9:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="60"/>
+      <c r="H36" s="89">
+        <f>SUM(H9:H35)-SUM(I9:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="89"/>
+      <c r="J36" s="60">
+        <f>SUM(J9:J35)-SUM(K9:K35)</f>
+        <v>24</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="90">
+        <f>SUM(L9:L35)-SUM(M9:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="90"/>
+      <c r="N36" s="60">
+        <f>SUM(N9:N35)-SUM(O9:O35)</f>
+        <v>60</v>
+      </c>
+      <c r="O36" s="60"/>
+      <c r="P36" s="93">
+        <f>SUM(P9:P35)-SUM(Q9:Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="60">
+        <f>SUM(R9:R35)-SUM(S9:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="60"/>
+      <c r="T36" s="94">
+        <f>SUM(T9:T35)-SUM(U9:U35)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="94"/>
+      <c r="V36" s="60">
+        <f>SUM(V9:V35)-SUM(W9:W35)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="60"/>
+      <c r="X36" s="95">
+        <f>SUM(X9:X35)-SUM(Y9:Y35)</f>
+        <v>36</v>
+      </c>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="60">
+        <f>SUM(Z9:Z35)-SUM(AA9:AA35)</f>
+        <v>24</v>
+      </c>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="91">
+        <f>SUM(AB9:AB35)-SUM(AC9:AC35)</f>
+        <v>96</v>
+      </c>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="60">
+        <f>SUM(AD9:AD35)-SUM(AE9:AE35)</f>
+        <v>127</v>
+      </c>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="20">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="AH36" s="42"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="86">
-        <f>D33/24</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="58">
-        <f>F33/12</f>
-        <v>26</v>
-      </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="87">
-        <f>H33/24</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="92">
-        <f>J33/12</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="88">
-        <f>L33/24</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="58">
-        <f>N33/12</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="61">
-        <f>P33/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="58">
-        <f>R33/12</f>
-        <v>1</v>
-      </c>
-      <c r="S34" s="58"/>
-      <c r="T34" s="62">
-        <f>T33/24</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="58">
-        <f>V33/12</f>
+      <c r="D37" s="86">
+        <f>D36/24</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="86"/>
+      <c r="F37" s="58">
+        <f>F36/12</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="58"/>
+      <c r="H37" s="87">
+        <f>H36/24</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="87"/>
+      <c r="J37" s="92">
+        <f>J36/12</f>
         <v>2</v>
       </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="57">
-        <f>X33/12</f>
+      <c r="K37" s="92"/>
+      <c r="L37" s="88">
+        <f>L36/24</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="88"/>
+      <c r="N37" s="58">
+        <f>N36/12</f>
+        <v>5</v>
+      </c>
+      <c r="O37" s="58"/>
+      <c r="P37" s="61">
+        <f>P36/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="58">
+        <f>R36/12</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="58"/>
+      <c r="T37" s="62">
+        <f>T36/24</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="62"/>
+      <c r="V37" s="58">
+        <f>V36/12</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="58"/>
+      <c r="X37" s="57">
+        <f>X36/12</f>
+        <v>3</v>
+      </c>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57">
+        <f>Z36/12</f>
+        <v>2</v>
+      </c>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="59">
+        <f>AB36/24</f>
         <v>4</v>
       </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57">
-        <f>Z33/12</f>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="42"/>
+    </row>
+    <row r="38" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="83"/>
+      <c r="AF38" s="43">
+        <f>SUM(AF9:AF35)</f>
+        <v>2067</v>
+      </c>
+      <c r="AG38" s="43">
+        <f>SUM(AG9:AG35)</f>
+        <v>2410</v>
+      </c>
+      <c r="AH38" s="44"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="83"/>
+      <c r="AF39" s="84">
+        <f>AG38-AF38</f>
+        <v>343</v>
+      </c>
+      <c r="AG39" s="85"/>
+      <c r="AH39" s="44"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96">
+        <v>2</v>
+      </c>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="97">
+        <v>6</v>
+      </c>
+      <c r="O40" s="97"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="96"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="96"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="96"/>
+      <c r="V40" s="96"/>
+      <c r="W40" s="96"/>
+      <c r="X40" s="96">
         <v>3</v>
       </c>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="59">
-        <f>AB33/24</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="42"/>
-    </row>
-    <row r="35" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="43">
-        <f>SUM(AF9:AF32)</f>
-        <v>351</v>
-      </c>
-      <c r="AG35" s="43">
-        <f>SUM(AG9:AG32)</f>
-        <v>922</v>
-      </c>
-      <c r="AH35" s="44"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="84">
-        <f>AG35-AF35</f>
-        <v>571</v>
-      </c>
-      <c r="AG36" s="85"/>
-      <c r="AH36" s="44"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="X41" s="6" t="s">
+      <c r="Y40" s="96"/>
+      <c r="Z40" s="96">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="96"/>
+      <c r="AB40" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="96"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X44" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
+  <mergeCells count="70">
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1228,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,12 +1342,90 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,82 +1438,22 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,25 +1462,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1526,7 +1529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1561,7 +1564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1779,40 +1782,40 @@
       <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1848,11 +1851,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1888,235 +1891,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2201,9 +2204,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3652,76 +3655,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="57">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77">
+      <c r="G37" s="57"/>
+      <c r="H37" s="57">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77">
+      <c r="I37" s="57"/>
+      <c r="J37" s="57">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77">
+      <c r="K37" s="57"/>
+      <c r="L37" s="57">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77">
+      <c r="M37" s="57"/>
+      <c r="N37" s="57">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77">
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77">
+      <c r="S37" s="57"/>
+      <c r="T37" s="57">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77">
+      <c r="U37" s="57"/>
+      <c r="V37" s="57">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77">
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77">
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77">
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="77">
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="77"/>
+      <c r="AE37" s="57"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3738,111 +3741,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="86">
+      <c r="D38" s="63">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="58">
+      <c r="E38" s="63"/>
+      <c r="F38" s="64">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="87">
+      <c r="G38" s="64"/>
+      <c r="H38" s="65">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="58">
+      <c r="I38" s="65"/>
+      <c r="J38" s="64">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="88">
+      <c r="K38" s="64"/>
+      <c r="L38" s="66">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="88"/>
-      <c r="N38" s="58">
+      <c r="M38" s="66"/>
+      <c r="N38" s="64">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="58"/>
-      <c r="P38" s="61">
+      <c r="O38" s="64"/>
+      <c r="P38" s="87">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="58">
+      <c r="Q38" s="87"/>
+      <c r="R38" s="64">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="58"/>
-      <c r="T38" s="62">
+      <c r="S38" s="64"/>
+      <c r="T38" s="88">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="58">
+      <c r="U38" s="88"/>
+      <c r="V38" s="64">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="58"/>
-      <c r="X38" s="57">
+      <c r="W38" s="64"/>
+      <c r="X38" s="84">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58">
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="64">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="59">
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="85">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="82"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="83"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="60"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3854,44 +3857,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="84">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="61">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="85"/>
+      <c r="AG40" s="62"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3901,6 +3904,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="A39:AE39"/>
@@ -3917,47 +3961,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3970,45 +3973,45 @@
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="11" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.28515625" style="6" customWidth="1"/>
+    <col min="12" max="13" width="3.33203125" style="6" customWidth="1"/>
     <col min="14" max="15" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="19" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="20" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
     <col min="27" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4044,11 +4047,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4084,235 +4087,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="63" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="73" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="83"/>
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="78" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="79" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="63" t="s">
+      <c r="U7" s="72"/>
+      <c r="V7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="80" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="74" t="s">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="63" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="63"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4397,9 +4400,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="63"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -5116,9 +5119,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="31">
-        <v>12</v>
-      </c>
+      <c r="O22" s="31"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="31"/>
@@ -5139,7 +5140,7 @@
       <c r="AE22" s="31"/>
       <c r="AF22" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AG22" s="20">
         <f t="shared" si="1"/>
@@ -5168,7 +5169,9 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="O23" s="31">
+        <v>12</v>
+      </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="31"/>
@@ -5191,7 +5194,7 @@
       <c r="AE23" s="31"/>
       <c r="AF23" s="20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="1"/>
@@ -5824,76 +5827,76 @@
       <c r="C36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="77">
+      <c r="D36" s="57">
         <f>SUM(D9:D35)-SUM(E9:E35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="60">
+      <c r="E36" s="57"/>
+      <c r="F36" s="86">
         <f>SUM(F9:F35)-SUM(G9:G35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="89">
+      <c r="G36" s="86"/>
+      <c r="H36" s="95">
         <f>SUM(H9:H35)-SUM(I9:I35)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="89"/>
-      <c r="J36" s="60">
+      <c r="I36" s="95"/>
+      <c r="J36" s="86">
         <f>SUM(J9:J35)-SUM(K9:K35)</f>
         <v>24</v>
       </c>
-      <c r="K36" s="60"/>
-      <c r="L36" s="90">
+      <c r="K36" s="86"/>
+      <c r="L36" s="96">
         <f>SUM(L9:L35)-SUM(M9:M35)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="90"/>
-      <c r="N36" s="60">
+      <c r="M36" s="96"/>
+      <c r="N36" s="86">
         <f>SUM(N9:N35)-SUM(O9:O35)</f>
         <v>60</v>
       </c>
-      <c r="O36" s="60"/>
-      <c r="P36" s="93">
+      <c r="O36" s="86"/>
+      <c r="P36" s="92">
         <f>SUM(P9:P35)-SUM(Q9:Q35)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="60">
+      <c r="Q36" s="92"/>
+      <c r="R36" s="86">
         <f>SUM(R9:R35)-SUM(S9:S35)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="60"/>
-      <c r="T36" s="94">
+      <c r="S36" s="86"/>
+      <c r="T36" s="93">
         <f>SUM(T9:T35)-SUM(U9:U35)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="94"/>
-      <c r="V36" s="60">
+      <c r="U36" s="93"/>
+      <c r="V36" s="86">
         <f>SUM(V9:V35)-SUM(W9:W35)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="60"/>
-      <c r="X36" s="95">
+      <c r="W36" s="86"/>
+      <c r="X36" s="94">
         <f>SUM(X9:X35)-SUM(Y9:Y35)</f>
         <v>36</v>
       </c>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="60">
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="86">
         <f>SUM(Z9:Z35)-SUM(AA9:AA35)</f>
         <v>24</v>
       </c>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="91">
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="90">
         <f>SUM(AB9:AB35)-SUM(AC9:AC35)</f>
         <v>96</v>
       </c>
-      <c r="AC36" s="91"/>
-      <c r="AD36" s="60">
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="86">
         <f>SUM(AD9:AD35)-SUM(AE9:AE35)</f>
         <v>127</v>
       </c>
-      <c r="AE36" s="60"/>
+      <c r="AE36" s="86"/>
       <c r="AF36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5910,111 +5913,111 @@
       <c r="C37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="86">
+      <c r="D37" s="63">
         <f>D36/24</f>
         <v>0</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="58">
+      <c r="E37" s="63"/>
+      <c r="F37" s="64">
         <f>F36/12</f>
         <v>0</v>
       </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="87">
+      <c r="G37" s="64"/>
+      <c r="H37" s="65">
         <f>H36/24</f>
         <v>0</v>
       </c>
-      <c r="I37" s="87"/>
-      <c r="J37" s="92">
+      <c r="I37" s="65"/>
+      <c r="J37" s="91">
         <f>J36/12</f>
         <v>2</v>
       </c>
-      <c r="K37" s="92"/>
-      <c r="L37" s="88">
+      <c r="K37" s="91"/>
+      <c r="L37" s="66">
         <f>L36/24</f>
         <v>0</v>
       </c>
-      <c r="M37" s="88"/>
-      <c r="N37" s="58">
+      <c r="M37" s="66"/>
+      <c r="N37" s="64">
         <f>N36/12</f>
         <v>5</v>
       </c>
-      <c r="O37" s="58"/>
-      <c r="P37" s="61">
+      <c r="O37" s="64"/>
+      <c r="P37" s="87">
         <f>P36/24</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="58">
+      <c r="Q37" s="87"/>
+      <c r="R37" s="64">
         <f>R36/12</f>
         <v>0</v>
       </c>
-      <c r="S37" s="58"/>
-      <c r="T37" s="62">
+      <c r="S37" s="64"/>
+      <c r="T37" s="88">
         <f>T36/24</f>
         <v>0</v>
       </c>
-      <c r="U37" s="62"/>
-      <c r="V37" s="58">
+      <c r="U37" s="88"/>
+      <c r="V37" s="64">
         <f>V36/12</f>
         <v>0</v>
       </c>
-      <c r="W37" s="58"/>
-      <c r="X37" s="57">
+      <c r="W37" s="64"/>
+      <c r="X37" s="84">
         <f>X36/12</f>
         <v>3</v>
       </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57">
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="98">
         <f>Z36/12</f>
         <v>2</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="59">
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="85">
         <f>AB36/24</f>
         <v>4</v>
       </c>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
+      <c r="AC37" s="85"/>
+      <c r="AD37" s="86"/>
+      <c r="AE37" s="86"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
       <c r="AH37" s="42"/>
     </row>
     <row r="38" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="82"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="82"/>
-      <c r="AC38" s="82"/>
-      <c r="AD38" s="82"/>
-      <c r="AE38" s="83"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="60"/>
       <c r="AF38" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>2067</v>
@@ -6026,83 +6029,83 @@
       <c r="AH38" s="44"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="82"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="83"/>
-      <c r="AF39" s="84">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="61">
         <f>AG38-AF38</f>
         <v>343</v>
       </c>
-      <c r="AG39" s="85"/>
+      <c r="AG39" s="62"/>
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96">
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89">
         <v>2</v>
       </c>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
       <c r="N40" s="97">
         <v>6</v>
       </c>
       <c r="O40" s="97"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="96">
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89">
         <v>3</v>
       </c>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96">
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89">
         <v>2</v>
       </c>
-      <c r="AA40" s="96"/>
-      <c r="AB40" s="96">
+      <c r="AA40" s="89"/>
+      <c r="AB40" s="89">
         <v>4</v>
       </c>
-      <c r="AC40" s="96"/>
+      <c r="AC40" s="89"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X44" s="6" t="s">
@@ -6111,28 +6114,38 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="AD36:AE36"/>
     <mergeCell ref="D37:E37"/>
@@ -6149,38 +6162,28 @@
     <mergeCell ref="V36:W36"/>
     <mergeCell ref="X36:Y36"/>
     <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6193,7 +6196,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="T8" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,355 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="82">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -938,11 +1286,32 @@
   <si>
     <t>Thủy vy trả hàng</t>
   </si>
+  <si>
+    <t>Xuât Đl Thanh Hóa Hà Linh</t>
+  </si>
+  <si>
+    <t>Thanh Hòa Lập Thạch</t>
+  </si>
+  <si>
+    <t>ĐL Nhất Nhất</t>
+  </si>
+  <si>
+    <t>Cuất Quỳnh Trang</t>
+  </si>
+  <si>
+    <t>Anh Giáp</t>
+  </si>
+  <si>
+    <t>Tháng 8</t>
+  </si>
+  <si>
+    <t>Chị Hà Việt Trì Phú Thọ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1228,7 +1597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,46 +1711,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,6 +1724,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1423,22 +1795,55 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,16 +1861,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1529,7 +1931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1564,7 +1966,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1776,46 +2178,46 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="11" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1851,11 +2253,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1891,235 +2293,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2204,9 +2606,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3655,76 +4057,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="88">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57">
+      <c r="E37" s="88"/>
+      <c r="F37" s="88">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57">
+      <c r="G37" s="88"/>
+      <c r="H37" s="88">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57">
+      <c r="I37" s="88"/>
+      <c r="J37" s="88">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57">
+      <c r="K37" s="88"/>
+      <c r="L37" s="88">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57">
+      <c r="M37" s="88"/>
+      <c r="N37" s="88">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57">
+      <c r="O37" s="88"/>
+      <c r="P37" s="88">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57">
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57">
+      <c r="S37" s="88"/>
+      <c r="T37" s="88">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57">
+      <c r="U37" s="88"/>
+      <c r="V37" s="88">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="W37" s="88"/>
+      <c r="X37" s="88">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57">
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57">
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57">
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="57"/>
+      <c r="AE37" s="88"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3741,111 +4143,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="97">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64">
+      <c r="E38" s="97"/>
+      <c r="F38" s="69">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65">
+      <c r="G38" s="69"/>
+      <c r="H38" s="98">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="64">
+      <c r="I38" s="98"/>
+      <c r="J38" s="69">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="66">
+      <c r="K38" s="69"/>
+      <c r="L38" s="99">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="64">
+      <c r="M38" s="99"/>
+      <c r="N38" s="69">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="87">
+      <c r="O38" s="69"/>
+      <c r="P38" s="72">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="64">
+      <c r="Q38" s="72"/>
+      <c r="R38" s="69">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="88">
+      <c r="S38" s="69"/>
+      <c r="T38" s="73">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="88"/>
-      <c r="V38" s="64">
+      <c r="U38" s="73"/>
+      <c r="V38" s="69">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="64"/>
-      <c r="X38" s="84">
+      <c r="W38" s="69"/>
+      <c r="X38" s="68">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="64">
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="69">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="85">
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="70">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="60"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="94"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -3857,44 +4259,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="61">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="93"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="95">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="62"/>
+      <c r="AG40" s="96"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3904,15 +4306,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3929,38 +4354,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3970,48 +4372,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S44" sqref="S44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.33203125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="3.28515625" style="6" customWidth="1"/>
     <col min="10" max="11" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.33203125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" style="6" customWidth="1"/>
     <col min="14" max="15" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="19" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="20" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
     <col min="27" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4047,11 +4450,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4087,235 +4490,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="68" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="68" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="68" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="72" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="73" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="68" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="69" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="68"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4400,9 +4803,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="68"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4517,11 +4920,11 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF36" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF40" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>1</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG36" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG40" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="31"/>
@@ -4938,8 +5341,14 @@
       <c r="AC18" s="38"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
+      <c r="AF18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -5169,9 +5578,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="31">
-        <v>12</v>
-      </c>
+      <c r="O23" s="31"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="31"/>
@@ -5194,7 +5601,7 @@
       <c r="AE23" s="31"/>
       <c r="AF23" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="1"/>
@@ -5551,7 +5958,7 @@
       <c r="E30" s="32"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5583,7 +5990,7 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="1"/>
@@ -5700,7 +6107,7 @@
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="31">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="33"/>
@@ -5733,7 +6140,2211 @@
       </c>
       <c r="AG33" s="20">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AH33" s="31"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30">
+        <v>44040</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31">
         <v>24</v>
+      </c>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31">
+        <v>36</v>
+      </c>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37">
+        <v>36</v>
+      </c>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31">
+        <v>24</v>
+      </c>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38">
+        <v>48</v>
+      </c>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="31"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30">
+        <v>44041</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="32">
+        <f>10*24</f>
+        <v>240</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31">
+        <f>30*12</f>
+        <v>360</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="31">
+        <v>240</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="31">
+        <v>60</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="31">
+        <v>120</v>
+      </c>
+      <c r="S35" s="31"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="31">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="W35" s="31"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="31">
+        <v>120</v>
+      </c>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="AH35" s="31"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30">
+        <v>44041</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31">
+        <v>24</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31">
+        <v>24</v>
+      </c>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="31"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30">
+        <v>44041</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32">
+        <v>24</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31">
+        <v>24</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30">
+        <v>44041</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31">
+        <v>12</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31">
+        <v>12</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31">
+        <v>12</v>
+      </c>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31">
+        <v>12</v>
+      </c>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31">
+        <v>12</v>
+      </c>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31">
+        <v>12</v>
+      </c>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="20">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="AG38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="31"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30">
+        <v>44043</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31">
+        <v>24</v>
+      </c>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31">
+        <v>12</v>
+      </c>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31">
+        <v>12</v>
+      </c>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="31"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="88">
+        <f>SUM(D9:D39)-SUM(E9:E39)</f>
+        <v>216</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="71">
+        <f>SUM(F9:F39)-SUM(G9:G39)</f>
+        <v>300</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="100">
+        <f>SUM(H9:H39)-SUM(I9:I39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="100"/>
+      <c r="J40" s="71">
+        <f>SUM(J9:J39)-SUM(K9:K39)</f>
+        <v>204</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="101">
+        <f>SUM(L9:L39)-SUM(M9:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="101"/>
+      <c r="N40" s="71">
+        <f>SUM(N9:N39)-SUM(O9:O39)</f>
+        <v>72</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="104">
+        <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="71">
+        <f>SUM(R9:R39)-SUM(S9:S39)</f>
+        <v>72</v>
+      </c>
+      <c r="S40" s="71"/>
+      <c r="T40" s="105">
+        <f>SUM(T9:T39)-SUM(U9:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="105"/>
+      <c r="V40" s="71">
+        <f>SUM(V9:V39)-SUM(W9:W39)</f>
+        <v>48</v>
+      </c>
+      <c r="W40" s="71"/>
+      <c r="X40" s="106">
+        <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="71">
+        <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
+        <v>108</v>
+      </c>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="102">
+        <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
+        <v>48</v>
+      </c>
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="71">
+        <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
+        <v>127</v>
+      </c>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="20">
+        <f t="shared" si="1"/>
+        <v>1195</v>
+      </c>
+      <c r="AH40" s="42"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="97">
+        <f>D40/24</f>
+        <v>9</v>
+      </c>
+      <c r="E41" s="97"/>
+      <c r="F41" s="69">
+        <f>F40/12</f>
+        <v>25</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="98">
+        <f>H40/24</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="98"/>
+      <c r="J41" s="103">
+        <f>J40/12</f>
+        <v>17</v>
+      </c>
+      <c r="K41" s="103"/>
+      <c r="L41" s="99">
+        <f>L40/24</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="99"/>
+      <c r="N41" s="69">
+        <f>N40/12</f>
+        <v>6</v>
+      </c>
+      <c r="O41" s="69"/>
+      <c r="P41" s="72">
+        <f>P40/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="69">
+        <f>R40/12</f>
+        <v>6</v>
+      </c>
+      <c r="S41" s="69"/>
+      <c r="T41" s="73">
+        <f>T40/24</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="73"/>
+      <c r="V41" s="69">
+        <f>V40/12</f>
+        <v>4</v>
+      </c>
+      <c r="W41" s="69"/>
+      <c r="X41" s="68">
+        <f>X40/12</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="107">
+        <f>Z40/12</f>
+        <v>9</v>
+      </c>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="70">
+        <f>AB40/24</f>
+        <v>2</v>
+      </c>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="42"/>
+    </row>
+    <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="43">
+        <f>SUM(AF9:AF39)</f>
+        <v>2427</v>
+      </c>
+      <c r="AG42" s="43">
+        <f>SUM(AG9:AG39)</f>
+        <v>3622</v>
+      </c>
+      <c r="AH42" s="44"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="95">
+        <f>AG42-AF42</f>
+        <v>1195</v>
+      </c>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="44"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X48" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" style="6" customWidth="1"/>
+    <col min="14" max="15" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="4" style="6" customWidth="1"/>
+    <col min="19" max="19" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG7" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH7" s="74"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21">
+        <v>44044</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="22">
+        <f>9*24</f>
+        <v>216</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20">
+        <f>25*12</f>
+        <v>300</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="20">
+        <f>17*12</f>
+        <v>204</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="20">
+        <f>6*12</f>
+        <v>72</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="20">
+        <f>6*12</f>
+        <v>72</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="20">
+        <f>4*12</f>
+        <v>48</v>
+      </c>
+      <c r="W9" s="20"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="20">
+        <f>9*12</f>
+        <v>108</v>
+      </c>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="28">
+        <f>24*2</f>
+        <v>48</v>
+      </c>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="20">
+        <v>127</v>
+      </c>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>1195</v>
+      </c>
+      <c r="AH9" s="20"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21">
+        <v>44045</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31">
+        <v>12</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="20">
+        <f t="shared" ref="AF10:AF40" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <v>12</v>
+      </c>
+      <c r="AG10" s="20">
+        <f t="shared" ref="AG10:AG40" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="31"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="31"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="31"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="31"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="31"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="31"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="31"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="31"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="31"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="31"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="31"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="31"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="31"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="31"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="31"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="31"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="31"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="31"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="31"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="31"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="31"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="31"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="31"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH33" s="31"/>
     </row>
@@ -5769,14 +8380,8 @@
       <c r="AC34" s="38"/>
       <c r="AD34" s="31"/>
       <c r="AE34" s="31"/>
-      <c r="AF34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
       <c r="AH34" s="31"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -5811,309 +8416,508 @@
       <c r="AC35" s="38"/>
       <c r="AD35" s="31"/>
       <c r="AE35" s="31"/>
-      <c r="AF35" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
       <c r="AH35" s="31"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="57">
-        <f>SUM(D9:D35)-SUM(E9:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="86">
-        <f>SUM(F9:F35)-SUM(G9:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="95">
-        <f>SUM(H9:H35)-SUM(I9:I35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="95"/>
-      <c r="J36" s="86">
-        <f>SUM(J9:J35)-SUM(K9:K35)</f>
-        <v>24</v>
-      </c>
-      <c r="K36" s="86"/>
-      <c r="L36" s="96">
-        <f>SUM(L9:L35)-SUM(M9:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="96"/>
-      <c r="N36" s="86">
-        <f>SUM(N9:N35)-SUM(O9:O35)</f>
-        <v>60</v>
-      </c>
-      <c r="O36" s="86"/>
-      <c r="P36" s="92">
-        <f>SUM(P9:P35)-SUM(Q9:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="86">
-        <f>SUM(R9:R35)-SUM(S9:S35)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="86"/>
-      <c r="T36" s="93">
-        <f>SUM(T9:T35)-SUM(U9:U35)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="93"/>
-      <c r="V36" s="86">
-        <f>SUM(V9:V35)-SUM(W9:W35)</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="86"/>
-      <c r="X36" s="94">
-        <f>SUM(X9:X35)-SUM(Y9:Y35)</f>
-        <v>36</v>
-      </c>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="86">
-        <f>SUM(Z9:Z35)-SUM(AA9:AA35)</f>
-        <v>24</v>
-      </c>
-      <c r="AA36" s="86"/>
-      <c r="AB36" s="90">
-        <f>SUM(AB9:AB35)-SUM(AC9:AC35)</f>
-        <v>96</v>
-      </c>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="86">
-        <f>SUM(AD9:AD35)-SUM(AE9:AE35)</f>
-        <v>127</v>
-      </c>
-      <c r="AE36" s="86"/>
-      <c r="AF36" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="20">
-        <f t="shared" si="1"/>
-        <v>367</v>
-      </c>
-      <c r="AH36" s="42"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="31"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="63">
-        <f>D36/24</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64">
-        <f>F36/12</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65">
-        <f>H36/24</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="65"/>
-      <c r="J37" s="91">
-        <f>J36/12</f>
-        <v>2</v>
-      </c>
-      <c r="K37" s="91"/>
-      <c r="L37" s="66">
-        <f>L36/24</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="66"/>
-      <c r="N37" s="64">
-        <f>N36/12</f>
-        <v>5</v>
-      </c>
-      <c r="O37" s="64"/>
-      <c r="P37" s="87">
-        <f>P36/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="64">
-        <f>R36/12</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="64"/>
-      <c r="T37" s="88">
-        <f>T36/24</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="88"/>
-      <c r="V37" s="64">
-        <f>V36/12</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="64"/>
-      <c r="X37" s="84">
-        <f>X36/12</f>
-        <v>3</v>
-      </c>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="98">
-        <f>Z36/12</f>
-        <v>2</v>
-      </c>
-      <c r="AA37" s="98"/>
-      <c r="AB37" s="85">
-        <f>AB36/24</f>
-        <v>4</v>
-      </c>
-      <c r="AC37" s="85"/>
-      <c r="AD37" s="86"/>
-      <c r="AE37" s="86"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
-      <c r="AH37" s="42"/>
-    </row>
-    <row r="38" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="31"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="31"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="88">
+        <f>SUM(D9:D39)-SUM(E9:E39)</f>
+        <v>216</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="71">
+        <f>SUM(F9:F39)-SUM(G9:G39)</f>
+        <v>300</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="100">
+        <f>SUM(H9:H39)-SUM(I9:I39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="100"/>
+      <c r="J40" s="71">
+        <f>SUM(J9:J39)-SUM(K9:K39)</f>
+        <v>204</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="101">
+        <f>SUM(L9:L39)-SUM(M9:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="101"/>
+      <c r="N40" s="71">
+        <f>SUM(N9:N39)-SUM(O9:O39)</f>
+        <v>72</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="104">
+        <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="71">
+        <f>SUM(R9:R39)-SUM(S9:S39)</f>
+        <v>60</v>
+      </c>
+      <c r="S40" s="71"/>
+      <c r="T40" s="105">
+        <f>SUM(T9:T39)-SUM(U9:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="105"/>
+      <c r="V40" s="71">
+        <f>SUM(V9:V39)-SUM(W9:W39)</f>
+        <v>48</v>
+      </c>
+      <c r="W40" s="71"/>
+      <c r="X40" s="106">
+        <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="71">
+        <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
+        <v>108</v>
+      </c>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="102">
+        <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
+        <v>48</v>
+      </c>
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="71">
+        <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
+        <v>127</v>
+      </c>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="20">
+        <f t="shared" si="1"/>
+        <v>1183</v>
+      </c>
+      <c r="AH40" s="42"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="97">
+        <f>D40/24</f>
+        <v>9</v>
+      </c>
+      <c r="E41" s="97"/>
+      <c r="F41" s="69">
+        <f>F40/12</f>
+        <v>25</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="98">
+        <f>H40/24</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="98"/>
+      <c r="J41" s="103">
+        <f>J40/12</f>
+        <v>17</v>
+      </c>
+      <c r="K41" s="103"/>
+      <c r="L41" s="99">
+        <f>L40/24</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="99"/>
+      <c r="N41" s="69">
+        <f>N40/12</f>
+        <v>6</v>
+      </c>
+      <c r="O41" s="69"/>
+      <c r="P41" s="72">
+        <f>P40/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="69">
+        <f>R40/12</f>
+        <v>5</v>
+      </c>
+      <c r="S41" s="69"/>
+      <c r="T41" s="73">
+        <f>T40/24</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="73"/>
+      <c r="V41" s="69">
+        <f>V40/12</f>
+        <v>4</v>
+      </c>
+      <c r="W41" s="69"/>
+      <c r="X41" s="68">
+        <f>X40/12</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="107">
+        <f>Z40/12</f>
+        <v>9</v>
+      </c>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="70">
+        <f>AB40/24</f>
+        <v>2</v>
+      </c>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="42"/>
+    </row>
+    <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="43">
-        <f>SUM(AF9:AF35)</f>
-        <v>2067</v>
-      </c>
-      <c r="AG38" s="43">
-        <f>SUM(AG9:AG35)</f>
-        <v>2410</v>
-      </c>
-      <c r="AH38" s="44"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="43">
+        <f>SUM(AF9:AF39)</f>
+        <v>12</v>
+      </c>
+      <c r="AG42" s="43">
+        <f>SUM(AG9:AG39)</f>
+        <v>1195</v>
+      </c>
+      <c r="AH42" s="44"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="61">
-        <f>AG38-AF38</f>
-        <v>343</v>
-      </c>
-      <c r="AG39" s="62"/>
-      <c r="AH39" s="44"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89">
-        <v>2</v>
-      </c>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="97">
-        <v>6</v>
-      </c>
-      <c r="O40" s="97"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="89"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="95">
+        <f>AG42-AF42</f>
+        <v>1183</v>
+      </c>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="X44" s="6" t="s">
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X48" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6125,79 +8929,8 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:AG6"/>
     <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1306,6 +1306,9 @@
   </si>
   <si>
     <t>Chị Hà Việt Trì Phú Thọ</t>
+  </si>
+  <si>
+    <t>Xuất ra an khánh</t>
   </si>
 </sst>
 </file>
@@ -1744,25 +1747,55 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1795,55 +1828,28 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,13 +1867,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2213,11 +2216,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2253,11 +2256,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2293,235 +2296,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="82" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="94"/>
+      <c r="N7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="79"/>
+      <c r="P7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="90" t="s">
+      <c r="S7" s="79"/>
+      <c r="T7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="83"/>
+      <c r="V7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="91" t="s">
+      <c r="W7" s="79"/>
+      <c r="X7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="85" t="s">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="86" t="s">
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="86" t="s">
+      <c r="AG7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="79"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2606,9 +2609,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="74"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="79"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4057,76 +4060,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="68">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88">
+      <c r="E37" s="68"/>
+      <c r="F37" s="68">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88">
+      <c r="I37" s="68"/>
+      <c r="J37" s="68">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88">
+      <c r="K37" s="68"/>
+      <c r="L37" s="68">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88">
+      <c r="M37" s="68"/>
+      <c r="N37" s="68">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88">
+      <c r="O37" s="68"/>
+      <c r="P37" s="68">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88">
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88">
+      <c r="S37" s="68"/>
+      <c r="T37" s="68">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88">
+      <c r="U37" s="68"/>
+      <c r="V37" s="68">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88">
+      <c r="W37" s="68"/>
+      <c r="X37" s="68">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88">
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88">
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88">
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="88"/>
+      <c r="AE37" s="68"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4143,111 +4146,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="97">
+      <c r="D38" s="74">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="69">
+      <c r="E38" s="74"/>
+      <c r="F38" s="75">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="98">
+      <c r="G38" s="75"/>
+      <c r="H38" s="76">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="98"/>
-      <c r="J38" s="69">
+      <c r="I38" s="76"/>
+      <c r="J38" s="75">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="69"/>
-      <c r="L38" s="99">
+      <c r="K38" s="75"/>
+      <c r="L38" s="77">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="99"/>
-      <c r="N38" s="69">
+      <c r="M38" s="77"/>
+      <c r="N38" s="75">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="69"/>
-      <c r="P38" s="72">
+      <c r="O38" s="75"/>
+      <c r="P38" s="98">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="69">
+      <c r="Q38" s="98"/>
+      <c r="R38" s="75">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="69"/>
-      <c r="T38" s="73">
+      <c r="S38" s="75"/>
+      <c r="T38" s="99">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="73"/>
-      <c r="V38" s="69">
+      <c r="U38" s="99"/>
+      <c r="V38" s="75">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="69"/>
-      <c r="X38" s="68">
+      <c r="W38" s="75"/>
+      <c r="X38" s="95">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="69">
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="75">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="70">
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="96">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="70"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
+      <c r="AC38" s="96"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="93"/>
-      <c r="AA39" s="93"/>
-      <c r="AB39" s="93"/>
-      <c r="AC39" s="93"/>
-      <c r="AD39" s="93"/>
-      <c r="AE39" s="94"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="71"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -4259,44 +4262,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="93"/>
-      <c r="X40" s="93"/>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="93"/>
-      <c r="AB40" s="93"/>
-      <c r="AC40" s="93"/>
-      <c r="AD40" s="93"/>
-      <c r="AE40" s="94"/>
-      <c r="AF40" s="95">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="72">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="96"/>
+      <c r="AG40" s="73"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -4306,6 +4309,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="A39:AE39"/>
@@ -4322,47 +4366,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4410,11 +4413,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4450,11 +4453,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4490,235 +4493,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="82" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="94"/>
+      <c r="N7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="79"/>
+      <c r="P7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="90" t="s">
+      <c r="S7" s="79"/>
+      <c r="T7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="83"/>
+      <c r="V7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="91" t="s">
+      <c r="W7" s="79"/>
+      <c r="X7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="85" t="s">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="86" t="s">
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="86" t="s">
+      <c r="AG7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="79"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4803,9 +4806,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="74"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="79"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -6479,76 +6482,76 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="68">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
         <v>216</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="71">
+      <c r="E40" s="68"/>
+      <c r="F40" s="97">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
         <v>300</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="100">
+      <c r="G40" s="97"/>
+      <c r="H40" s="108">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="71">
+      <c r="I40" s="108"/>
+      <c r="J40" s="97">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
         <v>204</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="101">
+      <c r="K40" s="97"/>
+      <c r="L40" s="109">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="101"/>
-      <c r="N40" s="71">
+      <c r="M40" s="109"/>
+      <c r="N40" s="97">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
         <v>72</v>
       </c>
-      <c r="O40" s="71"/>
-      <c r="P40" s="104">
+      <c r="O40" s="97"/>
+      <c r="P40" s="105">
         <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="71">
+      <c r="Q40" s="105"/>
+      <c r="R40" s="97">
         <f>SUM(R9:R39)-SUM(S9:S39)</f>
         <v>72</v>
       </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="105">
+      <c r="S40" s="97"/>
+      <c r="T40" s="106">
         <f>SUM(T9:T39)-SUM(U9:U39)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="105"/>
-      <c r="V40" s="71">
+      <c r="U40" s="106"/>
+      <c r="V40" s="97">
         <f>SUM(V9:V39)-SUM(W9:W39)</f>
         <v>48</v>
       </c>
-      <c r="W40" s="71"/>
-      <c r="X40" s="106">
+      <c r="W40" s="97"/>
+      <c r="X40" s="107">
         <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="71">
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="97">
         <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
         <v>108</v>
       </c>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="102">
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="103">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
         <v>48</v>
       </c>
-      <c r="AC40" s="102"/>
-      <c r="AD40" s="71">
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="97">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="71"/>
+      <c r="AE40" s="97"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6565,111 +6568,111 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="74">
         <f>D40/24</f>
         <v>9</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="69">
+      <c r="E41" s="74"/>
+      <c r="F41" s="75">
         <f>F40/12</f>
         <v>25</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="98">
+      <c r="G41" s="75"/>
+      <c r="H41" s="76">
         <f>H40/24</f>
         <v>0</v>
       </c>
-      <c r="I41" s="98"/>
-      <c r="J41" s="103">
+      <c r="I41" s="76"/>
+      <c r="J41" s="104">
         <f>J40/12</f>
         <v>17</v>
       </c>
-      <c r="K41" s="103"/>
-      <c r="L41" s="99">
+      <c r="K41" s="104"/>
+      <c r="L41" s="77">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="99"/>
-      <c r="N41" s="69">
+      <c r="M41" s="77"/>
+      <c r="N41" s="75">
         <f>N40/12</f>
         <v>6</v>
       </c>
-      <c r="O41" s="69"/>
-      <c r="P41" s="72">
+      <c r="O41" s="75"/>
+      <c r="P41" s="98">
         <f>P40/24</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="69">
+      <c r="Q41" s="98"/>
+      <c r="R41" s="75">
         <f>R40/12</f>
         <v>6</v>
       </c>
-      <c r="S41" s="69"/>
-      <c r="T41" s="73">
+      <c r="S41" s="75"/>
+      <c r="T41" s="99">
         <f>T40/24</f>
         <v>0</v>
       </c>
-      <c r="U41" s="73"/>
-      <c r="V41" s="69">
+      <c r="U41" s="99"/>
+      <c r="V41" s="75">
         <f>V40/12</f>
         <v>4</v>
       </c>
-      <c r="W41" s="69"/>
-      <c r="X41" s="68">
+      <c r="W41" s="75"/>
+      <c r="X41" s="95">
         <f>X40/12</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="107">
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="102">
         <f>Z40/12</f>
         <v>9</v>
       </c>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="70">
+      <c r="AA41" s="102"/>
+      <c r="AB41" s="96">
         <f>AB40/24</f>
         <v>2</v>
       </c>
-      <c r="AC41" s="70"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
+      <c r="AC41" s="96"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="94"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="71"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
         <v>2427</v>
@@ -6681,73 +6684,73 @@
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="94"/>
-      <c r="AF43" s="95">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="72">
         <f>AG42-AF42</f>
         <v>1195</v>
       </c>
-      <c r="AG43" s="96"/>
+      <c r="AG43" s="73"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -6756,28 +6759,38 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="AD40:AE40"/>
     <mergeCell ref="D41:E41"/>
@@ -6794,38 +6807,28 @@
     <mergeCell ref="V40:W40"/>
     <mergeCell ref="X40:Y40"/>
     <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6837,7 +6840,7 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,11 +6874,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
@@ -6911,11 +6914,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -6951,235 +6954,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="64"/>
       <c r="AG5" s="64"/>
       <c r="AH5" s="64"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="82" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="94"/>
+      <c r="N7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="79"/>
+      <c r="P7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="90" t="s">
+      <c r="S7" s="79"/>
+      <c r="T7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="83"/>
+      <c r="V7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="91" t="s">
+      <c r="W7" s="79"/>
+      <c r="X7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="85" t="s">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="86" t="s">
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="86" t="s">
+      <c r="AG7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="79"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
@@ -7264,9 +7267,9 @@
       <c r="AE8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="74"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="79"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -7390,12 +7393,18 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="30">
+        <v>44047</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="31">
+        <v>12</v>
+      </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="31"/>
@@ -7407,7 +7416,9 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="S11" s="31">
+        <v>12</v>
+      </c>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
       <c r="V11" s="31"/>
@@ -7422,7 +7433,7 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG11" s="20">
         <f t="shared" si="1"/>
@@ -7714,8 +7725,14 @@
       <c r="AC18" s="38"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
+      <c r="AF18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -8380,8 +8397,14 @@
       <c r="AC34" s="38"/>
       <c r="AD34" s="31"/>
       <c r="AE34" s="31"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH34" s="31"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -8416,8 +8439,14 @@
       <c r="AC35" s="38"/>
       <c r="AD35" s="31"/>
       <c r="AE35" s="31"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH35" s="31"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -8452,8 +8481,14 @@
       <c r="AC36" s="38"/>
       <c r="AD36" s="31"/>
       <c r="AE36" s="31"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
+      <c r="AF36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH36" s="31"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -8488,8 +8523,14 @@
       <c r="AC37" s="38"/>
       <c r="AD37" s="31"/>
       <c r="AE37" s="31"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH37" s="31"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -8582,83 +8623,83 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="68">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
         <v>216</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="71">
+      <c r="E40" s="68"/>
+      <c r="F40" s="97">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
-        <v>300</v>
-      </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="100">
+        <v>288</v>
+      </c>
+      <c r="G40" s="97"/>
+      <c r="H40" s="108">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="71">
+      <c r="I40" s="108"/>
+      <c r="J40" s="97">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
         <v>204</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="101">
+      <c r="K40" s="97"/>
+      <c r="L40" s="109">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="101"/>
-      <c r="N40" s="71">
+      <c r="M40" s="109"/>
+      <c r="N40" s="97">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
         <v>72</v>
       </c>
-      <c r="O40" s="71"/>
-      <c r="P40" s="104">
+      <c r="O40" s="97"/>
+      <c r="P40" s="105">
         <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="71">
+      <c r="Q40" s="105"/>
+      <c r="R40" s="97">
         <f>SUM(R9:R39)-SUM(S9:S39)</f>
-        <v>60</v>
-      </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="105">
+        <v>48</v>
+      </c>
+      <c r="S40" s="97"/>
+      <c r="T40" s="106">
         <f>SUM(T9:T39)-SUM(U9:U39)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="105"/>
-      <c r="V40" s="71">
+      <c r="U40" s="106"/>
+      <c r="V40" s="97">
         <f>SUM(V9:V39)-SUM(W9:W39)</f>
         <v>48</v>
       </c>
-      <c r="W40" s="71"/>
-      <c r="X40" s="106">
+      <c r="W40" s="97"/>
+      <c r="X40" s="107">
         <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="71">
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="97">
         <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
         <v>108</v>
       </c>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="102">
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="103">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
         <v>48</v>
       </c>
-      <c r="AC40" s="102"/>
-      <c r="AD40" s="71">
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="97">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="71"/>
+      <c r="AE40" s="97"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG40" s="20">
         <f t="shared" si="1"/>
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="AH40" s="42"/>
     </row>
@@ -8668,114 +8709,114 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="74">
         <f>D40/24</f>
         <v>9</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="69">
+      <c r="E41" s="74"/>
+      <c r="F41" s="75">
         <f>F40/12</f>
-        <v>25</v>
-      </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="98">
+        <v>24</v>
+      </c>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76">
         <f>H40/24</f>
         <v>0</v>
       </c>
-      <c r="I41" s="98"/>
-      <c r="J41" s="103">
+      <c r="I41" s="76"/>
+      <c r="J41" s="104">
         <f>J40/12</f>
         <v>17</v>
       </c>
-      <c r="K41" s="103"/>
-      <c r="L41" s="99">
+      <c r="K41" s="104"/>
+      <c r="L41" s="77">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="99"/>
-      <c r="N41" s="69">
+      <c r="M41" s="77"/>
+      <c r="N41" s="75">
         <f>N40/12</f>
         <v>6</v>
       </c>
-      <c r="O41" s="69"/>
-      <c r="P41" s="72">
+      <c r="O41" s="75"/>
+      <c r="P41" s="98">
         <f>P40/24</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="69">
+      <c r="Q41" s="98"/>
+      <c r="R41" s="75">
         <f>R40/12</f>
-        <v>5</v>
-      </c>
-      <c r="S41" s="69"/>
-      <c r="T41" s="73">
+        <v>4</v>
+      </c>
+      <c r="S41" s="75"/>
+      <c r="T41" s="99">
         <f>T40/24</f>
         <v>0</v>
       </c>
-      <c r="U41" s="73"/>
-      <c r="V41" s="69">
+      <c r="U41" s="99"/>
+      <c r="V41" s="75">
         <f>V40/12</f>
         <v>4</v>
       </c>
-      <c r="W41" s="69"/>
-      <c r="X41" s="68">
+      <c r="W41" s="75"/>
+      <c r="X41" s="95">
         <f>X40/12</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="107">
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="102">
         <f>Z40/12</f>
         <v>9</v>
       </c>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="70">
+      <c r="AA41" s="102"/>
+      <c r="AB41" s="96">
         <f>AB40/24</f>
         <v>2</v>
       </c>
-      <c r="AC41" s="70"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
+      <c r="AC41" s="96"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="94"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="71"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AG42" s="43">
         <f>SUM(AG9:AG39)</f>
@@ -8784,73 +8825,73 @@
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="94"/>
-      <c r="AF43" s="95">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="72">
         <f>AG42-AF42</f>
-        <v>1183</v>
-      </c>
-      <c r="AG43" s="96"/>
+        <v>1159</v>
+      </c>
+      <c r="AG43" s="73"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -8859,27 +8900,39 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AD41:AE41"/>
     <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="AD40:AE40"/>
@@ -8896,39 +8949,27 @@
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="V40:W40"/>
     <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1309,6 +1309,12 @@
   </si>
   <si>
     <t>Xuất ra an khánh</t>
+  </si>
+  <si>
+    <t>Thanh Hà</t>
+  </si>
+  <si>
+    <t>Hà Linh Thanh Hóa</t>
   </si>
 </sst>
 </file>
@@ -1747,55 +1753,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1828,28 +1804,55 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1867,10 +1870,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2216,11 +2222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2256,11 +2262,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2296,235 +2302,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="79" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="92" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="79" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="94" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="79" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="79" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="84" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="79" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="78" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="80" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="80" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="79"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2609,9 +2615,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="79"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4060,76 +4066,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="88">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68">
+      <c r="E37" s="88"/>
+      <c r="F37" s="88">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68">
+      <c r="G37" s="88"/>
+      <c r="H37" s="88">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68">
+      <c r="I37" s="88"/>
+      <c r="J37" s="88">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68">
+      <c r="K37" s="88"/>
+      <c r="L37" s="88">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68">
+      <c r="M37" s="88"/>
+      <c r="N37" s="88">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68">
+      <c r="O37" s="88"/>
+      <c r="P37" s="88">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68">
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68">
+      <c r="S37" s="88"/>
+      <c r="T37" s="88">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68">
+      <c r="U37" s="88"/>
+      <c r="V37" s="88">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68">
+      <c r="W37" s="88"/>
+      <c r="X37" s="88">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68">
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68">
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68">
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="68"/>
+      <c r="AE37" s="88"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4146,111 +4152,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="97">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75">
+      <c r="E38" s="97"/>
+      <c r="F38" s="69">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76">
+      <c r="G38" s="69"/>
+      <c r="H38" s="98">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="76"/>
-      <c r="J38" s="75">
+      <c r="I38" s="98"/>
+      <c r="J38" s="69">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="75"/>
-      <c r="L38" s="77">
+      <c r="K38" s="69"/>
+      <c r="L38" s="99">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="77"/>
-      <c r="N38" s="75">
+      <c r="M38" s="99"/>
+      <c r="N38" s="69">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="75"/>
-      <c r="P38" s="98">
+      <c r="O38" s="69"/>
+      <c r="P38" s="72">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="75">
+      <c r="Q38" s="72"/>
+      <c r="R38" s="69">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="75"/>
-      <c r="T38" s="99">
+      <c r="S38" s="69"/>
+      <c r="T38" s="73">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="99"/>
-      <c r="V38" s="75">
+      <c r="U38" s="73"/>
+      <c r="V38" s="69">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="75"/>
-      <c r="X38" s="95">
+      <c r="W38" s="69"/>
+      <c r="X38" s="68">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="75">
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="69">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="96">
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="70">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="70"/>
-      <c r="AD39" s="70"/>
-      <c r="AE39" s="71"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="94"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -4262,44 +4268,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="70"/>
-      <c r="AD40" s="70"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="72">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="93"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="95">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="73"/>
+      <c r="AG40" s="96"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -4309,15 +4315,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4334,38 +4363,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4413,11 +4419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4453,11 +4459,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4493,235 +4499,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="79" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="92" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="79" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="94" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="79" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="79" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="84" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="79" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="78" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="80" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="80" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="79"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4806,9 +4812,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="79"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -6482,76 +6488,76 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="88">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
         <v>216</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="97">
+      <c r="E40" s="88"/>
+      <c r="F40" s="71">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
         <v>300</v>
       </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="108">
+      <c r="G40" s="71"/>
+      <c r="H40" s="100">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="97">
+      <c r="I40" s="100"/>
+      <c r="J40" s="71">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
         <v>204</v>
       </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="109">
+      <c r="K40" s="71"/>
+      <c r="L40" s="101">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="109"/>
-      <c r="N40" s="97">
+      <c r="M40" s="101"/>
+      <c r="N40" s="71">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
         <v>72</v>
       </c>
-      <c r="O40" s="97"/>
-      <c r="P40" s="105">
+      <c r="O40" s="71"/>
+      <c r="P40" s="104">
         <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="97">
+      <c r="Q40" s="104"/>
+      <c r="R40" s="71">
         <f>SUM(R9:R39)-SUM(S9:S39)</f>
         <v>72</v>
       </c>
-      <c r="S40" s="97"/>
-      <c r="T40" s="106">
+      <c r="S40" s="71"/>
+      <c r="T40" s="105">
         <f>SUM(T9:T39)-SUM(U9:U39)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="106"/>
-      <c r="V40" s="97">
+      <c r="U40" s="105"/>
+      <c r="V40" s="71">
         <f>SUM(V9:V39)-SUM(W9:W39)</f>
         <v>48</v>
       </c>
-      <c r="W40" s="97"/>
-      <c r="X40" s="107">
+      <c r="W40" s="71"/>
+      <c r="X40" s="106">
         <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="97">
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="71">
         <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
         <v>108</v>
       </c>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="103">
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="102">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
         <v>48</v>
       </c>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="97">
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="71">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="97"/>
+      <c r="AE40" s="71"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6568,111 +6574,111 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="97">
         <f>D40/24</f>
         <v>9</v>
       </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75">
+      <c r="E41" s="97"/>
+      <c r="F41" s="69">
         <f>F40/12</f>
         <v>25</v>
       </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76">
+      <c r="G41" s="69"/>
+      <c r="H41" s="98">
         <f>H40/24</f>
         <v>0</v>
       </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="104">
+      <c r="I41" s="98"/>
+      <c r="J41" s="103">
         <f>J40/12</f>
         <v>17</v>
       </c>
-      <c r="K41" s="104"/>
-      <c r="L41" s="77">
+      <c r="K41" s="103"/>
+      <c r="L41" s="99">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="77"/>
-      <c r="N41" s="75">
+      <c r="M41" s="99"/>
+      <c r="N41" s="69">
         <f>N40/12</f>
         <v>6</v>
       </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="98">
+      <c r="O41" s="69"/>
+      <c r="P41" s="72">
         <f>P40/24</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="75">
+      <c r="Q41" s="72"/>
+      <c r="R41" s="69">
         <f>R40/12</f>
         <v>6</v>
       </c>
-      <c r="S41" s="75"/>
-      <c r="T41" s="99">
+      <c r="S41" s="69"/>
+      <c r="T41" s="73">
         <f>T40/24</f>
         <v>0</v>
       </c>
-      <c r="U41" s="99"/>
-      <c r="V41" s="75">
+      <c r="U41" s="73"/>
+      <c r="V41" s="69">
         <f>V40/12</f>
         <v>4</v>
       </c>
-      <c r="W41" s="75"/>
-      <c r="X41" s="95">
+      <c r="W41" s="69"/>
+      <c r="X41" s="68">
         <f>X40/12</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="102">
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="107">
         <f>Z40/12</f>
         <v>9</v>
       </c>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="96">
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="70">
         <f>AB40/24</f>
         <v>2</v>
       </c>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70"/>
-      <c r="AE42" s="71"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="94"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
         <v>2427</v>
@@ -6684,73 +6690,73 @@
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="72">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="95">
         <f>AG42-AF42</f>
         <v>1195</v>
       </c>
-      <c r="AG43" s="73"/>
+      <c r="AG43" s="96"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="100"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -6759,6 +6765,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6775,60 +6835,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6840,7 +6846,8 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB41" sqref="AB41:AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6874,11 +6881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
@@ -6914,11 +6921,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -6954,235 +6961,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="64"/>
       <c r="AG5" s="64"/>
       <c r="AH5" s="64"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="79" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="92" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="79" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="94" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="79" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="79" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="84" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="79" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="78" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="80" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="80" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="79"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
@@ -7267,9 +7274,9 @@
       <c r="AE8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="79"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -7443,16 +7450,24 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="30">
+        <v>44047</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="31">
+        <v>24</v>
+      </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="31">
+        <v>24</v>
+      </c>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="31"/>
@@ -7475,7 +7490,7 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG12" s="20">
         <f t="shared" si="1"/>
@@ -7485,39 +7500,57 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="30">
+        <v>44048</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="32">
+        <v>48</v>
+      </c>
       <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="G13" s="31">
+        <v>36</v>
+      </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="31">
+        <v>48</v>
+      </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="O13" s="31">
+        <v>24</v>
+      </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="S13" s="31">
+        <v>36</v>
+      </c>
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
       <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
+      <c r="W13" s="31">
+        <v>24</v>
+      </c>
       <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
+      <c r="AA13" s="31">
+        <v>24</v>
+      </c>
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AG13" s="20">
         <f t="shared" si="1"/>
@@ -8623,83 +8656,83 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="88">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
-        <v>216</v>
-      </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="97">
+        <v>168</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="71">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
-        <v>288</v>
-      </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="108">
+        <v>228</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="100">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="97">
+      <c r="I40" s="100"/>
+      <c r="J40" s="71">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
-        <v>204</v>
-      </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="109">
+        <v>132</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="101">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="109"/>
-      <c r="N40" s="97">
+      <c r="M40" s="101"/>
+      <c r="N40" s="71">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
-        <v>72</v>
-      </c>
-      <c r="O40" s="97"/>
-      <c r="P40" s="105">
+        <v>48</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="104">
         <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="97">
+      <c r="Q40" s="104"/>
+      <c r="R40" s="71">
         <f>SUM(R9:R39)-SUM(S9:S39)</f>
-        <v>48</v>
-      </c>
-      <c r="S40" s="97"/>
-      <c r="T40" s="106">
+        <v>12</v>
+      </c>
+      <c r="S40" s="71"/>
+      <c r="T40" s="105">
         <f>SUM(T9:T39)-SUM(U9:U39)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="106"/>
-      <c r="V40" s="97">
+      <c r="U40" s="105"/>
+      <c r="V40" s="71">
         <f>SUM(V9:V39)-SUM(W9:W39)</f>
-        <v>48</v>
-      </c>
-      <c r="W40" s="97"/>
-      <c r="X40" s="107">
+        <v>24</v>
+      </c>
+      <c r="W40" s="71"/>
+      <c r="X40" s="106">
         <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="97">
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="71">
         <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
-        <v>108</v>
-      </c>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="103">
+        <v>84</v>
+      </c>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="102">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
         <v>48</v>
       </c>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="97">
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="71">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="97"/>
+      <c r="AE40" s="71"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG40" s="20">
         <f t="shared" si="1"/>
-        <v>1159</v>
+        <v>871</v>
       </c>
       <c r="AH40" s="42"/>
     </row>
@@ -8709,114 +8742,114 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="97">
         <f>D40/24</f>
-        <v>9</v>
-      </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75">
+        <v>7</v>
+      </c>
+      <c r="E41" s="97"/>
+      <c r="F41" s="69">
         <f>F40/12</f>
-        <v>24</v>
-      </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76">
+        <v>19</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="98">
         <f>H40/24</f>
         <v>0</v>
       </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="104">
+      <c r="I41" s="98"/>
+      <c r="J41" s="103">
         <f>J40/12</f>
-        <v>17</v>
-      </c>
-      <c r="K41" s="104"/>
-      <c r="L41" s="77">
+        <v>11</v>
+      </c>
+      <c r="K41" s="103"/>
+      <c r="L41" s="99">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="77"/>
-      <c r="N41" s="75">
+      <c r="M41" s="99"/>
+      <c r="N41" s="69">
         <f>N40/12</f>
-        <v>6</v>
-      </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="98">
+        <v>4</v>
+      </c>
+      <c r="O41" s="69"/>
+      <c r="P41" s="72">
         <f>P40/24</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="75">
+      <c r="Q41" s="72"/>
+      <c r="R41" s="69">
         <f>R40/12</f>
-        <v>4</v>
-      </c>
-      <c r="S41" s="75"/>
-      <c r="T41" s="99">
+        <v>1</v>
+      </c>
+      <c r="S41" s="69"/>
+      <c r="T41" s="73">
         <f>T40/24</f>
         <v>0</v>
       </c>
-      <c r="U41" s="99"/>
-      <c r="V41" s="75">
+      <c r="U41" s="73"/>
+      <c r="V41" s="69">
         <f>V40/12</f>
-        <v>4</v>
-      </c>
-      <c r="W41" s="75"/>
-      <c r="X41" s="95">
+        <v>2</v>
+      </c>
+      <c r="W41" s="69"/>
+      <c r="X41" s="68">
         <f>X40/12</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="102">
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="107">
         <f>Z40/12</f>
-        <v>9</v>
-      </c>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="96">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="70">
         <f>AB40/24</f>
         <v>2</v>
       </c>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70"/>
-      <c r="AE42" s="71"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="94"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="AG42" s="43">
         <f>SUM(AG9:AG39)</f>
@@ -8825,73 +8858,73 @@
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="72">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="95">
         <f>AG42-AF42</f>
-        <v>1159</v>
-      </c>
-      <c r="AG43" s="73"/>
+        <v>871</v>
+      </c>
+      <c r="AG43" s="96"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="100"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -8900,39 +8933,27 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
     <mergeCell ref="AD41:AE41"/>
     <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="AD40:AE40"/>
@@ -8949,27 +8970,39 @@
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="V40:W40"/>
     <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="87">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1315,6 +1315,12 @@
   </si>
   <si>
     <t>Hà Linh Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Đại Lý 3s</t>
+  </si>
+  <si>
+    <t>Chị Hải Lào Cai</t>
   </si>
 </sst>
 </file>
@@ -1753,25 +1759,55 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1804,55 +1840,28 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,13 +1879,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2222,11 +2228,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2262,11 +2268,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2302,235 +2308,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="82" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="94"/>
+      <c r="N7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="79"/>
+      <c r="P7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="90" t="s">
+      <c r="S7" s="79"/>
+      <c r="T7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="83"/>
+      <c r="V7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="91" t="s">
+      <c r="W7" s="79"/>
+      <c r="X7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="85" t="s">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="86" t="s">
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="86" t="s">
+      <c r="AG7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="79"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2615,9 +2621,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="74"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="79"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4066,76 +4072,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="68">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88">
+      <c r="E37" s="68"/>
+      <c r="F37" s="68">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88">
+      <c r="I37" s="68"/>
+      <c r="J37" s="68">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88">
+      <c r="K37" s="68"/>
+      <c r="L37" s="68">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88">
+      <c r="M37" s="68"/>
+      <c r="N37" s="68">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88">
+      <c r="O37" s="68"/>
+      <c r="P37" s="68">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88">
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88">
+      <c r="S37" s="68"/>
+      <c r="T37" s="68">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88">
+      <c r="U37" s="68"/>
+      <c r="V37" s="68">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88">
+      <c r="W37" s="68"/>
+      <c r="X37" s="68">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88">
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88">
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88">
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="88"/>
+      <c r="AE37" s="68"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4152,111 +4158,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="97">
+      <c r="D38" s="74">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="69">
+      <c r="E38" s="74"/>
+      <c r="F38" s="75">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="98">
+      <c r="G38" s="75"/>
+      <c r="H38" s="76">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="98"/>
-      <c r="J38" s="69">
+      <c r="I38" s="76"/>
+      <c r="J38" s="75">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="69"/>
-      <c r="L38" s="99">
+      <c r="K38" s="75"/>
+      <c r="L38" s="77">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="99"/>
-      <c r="N38" s="69">
+      <c r="M38" s="77"/>
+      <c r="N38" s="75">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="69"/>
-      <c r="P38" s="72">
+      <c r="O38" s="75"/>
+      <c r="P38" s="98">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="69">
+      <c r="Q38" s="98"/>
+      <c r="R38" s="75">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="69"/>
-      <c r="T38" s="73">
+      <c r="S38" s="75"/>
+      <c r="T38" s="99">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="73"/>
-      <c r="V38" s="69">
+      <c r="U38" s="99"/>
+      <c r="V38" s="75">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="69"/>
-      <c r="X38" s="68">
+      <c r="W38" s="75"/>
+      <c r="X38" s="95">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="69">
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="75">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="70">
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="96">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="70"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
+      <c r="AC38" s="96"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="93"/>
-      <c r="AA39" s="93"/>
-      <c r="AB39" s="93"/>
-      <c r="AC39" s="93"/>
-      <c r="AD39" s="93"/>
-      <c r="AE39" s="94"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="71"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -4268,44 +4274,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="93"/>
-      <c r="X40" s="93"/>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="93"/>
-      <c r="AB40" s="93"/>
-      <c r="AC40" s="93"/>
-      <c r="AD40" s="93"/>
-      <c r="AE40" s="94"/>
-      <c r="AF40" s="95">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="72">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="96"/>
+      <c r="AG40" s="73"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -4315,6 +4321,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="A39:AE39"/>
@@ -4331,47 +4378,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4419,11 +4425,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4459,11 +4465,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4499,235 +4505,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="82" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="94"/>
+      <c r="N7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="79"/>
+      <c r="P7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="90" t="s">
+      <c r="S7" s="79"/>
+      <c r="T7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="83"/>
+      <c r="V7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="91" t="s">
+      <c r="W7" s="79"/>
+      <c r="X7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="85" t="s">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="86" t="s">
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="86" t="s">
+      <c r="AG7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="79"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4812,9 +4818,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="74"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="79"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -6488,76 +6494,76 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="68">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
         <v>216</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="71">
+      <c r="E40" s="68"/>
+      <c r="F40" s="97">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
         <v>300</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="100">
+      <c r="G40" s="97"/>
+      <c r="H40" s="108">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="71">
+      <c r="I40" s="108"/>
+      <c r="J40" s="97">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
         <v>204</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="101">
+      <c r="K40" s="97"/>
+      <c r="L40" s="109">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="101"/>
-      <c r="N40" s="71">
+      <c r="M40" s="109"/>
+      <c r="N40" s="97">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
         <v>72</v>
       </c>
-      <c r="O40" s="71"/>
-      <c r="P40" s="104">
+      <c r="O40" s="97"/>
+      <c r="P40" s="105">
         <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="71">
+      <c r="Q40" s="105"/>
+      <c r="R40" s="97">
         <f>SUM(R9:R39)-SUM(S9:S39)</f>
         <v>72</v>
       </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="105">
+      <c r="S40" s="97"/>
+      <c r="T40" s="106">
         <f>SUM(T9:T39)-SUM(U9:U39)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="105"/>
-      <c r="V40" s="71">
+      <c r="U40" s="106"/>
+      <c r="V40" s="97">
         <f>SUM(V9:V39)-SUM(W9:W39)</f>
         <v>48</v>
       </c>
-      <c r="W40" s="71"/>
-      <c r="X40" s="106">
+      <c r="W40" s="97"/>
+      <c r="X40" s="107">
         <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="71">
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="97">
         <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
         <v>108</v>
       </c>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="102">
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="103">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
         <v>48</v>
       </c>
-      <c r="AC40" s="102"/>
-      <c r="AD40" s="71">
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="97">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="71"/>
+      <c r="AE40" s="97"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6574,111 +6580,111 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="74">
         <f>D40/24</f>
         <v>9</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="69">
+      <c r="E41" s="74"/>
+      <c r="F41" s="75">
         <f>F40/12</f>
         <v>25</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="98">
+      <c r="G41" s="75"/>
+      <c r="H41" s="76">
         <f>H40/24</f>
         <v>0</v>
       </c>
-      <c r="I41" s="98"/>
-      <c r="J41" s="103">
+      <c r="I41" s="76"/>
+      <c r="J41" s="104">
         <f>J40/12</f>
         <v>17</v>
       </c>
-      <c r="K41" s="103"/>
-      <c r="L41" s="99">
+      <c r="K41" s="104"/>
+      <c r="L41" s="77">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="99"/>
-      <c r="N41" s="69">
+      <c r="M41" s="77"/>
+      <c r="N41" s="75">
         <f>N40/12</f>
         <v>6</v>
       </c>
-      <c r="O41" s="69"/>
-      <c r="P41" s="72">
+      <c r="O41" s="75"/>
+      <c r="P41" s="98">
         <f>P40/24</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="69">
+      <c r="Q41" s="98"/>
+      <c r="R41" s="75">
         <f>R40/12</f>
         <v>6</v>
       </c>
-      <c r="S41" s="69"/>
-      <c r="T41" s="73">
+      <c r="S41" s="75"/>
+      <c r="T41" s="99">
         <f>T40/24</f>
         <v>0</v>
       </c>
-      <c r="U41" s="73"/>
-      <c r="V41" s="69">
+      <c r="U41" s="99"/>
+      <c r="V41" s="75">
         <f>V40/12</f>
         <v>4</v>
       </c>
-      <c r="W41" s="69"/>
-      <c r="X41" s="68">
+      <c r="W41" s="75"/>
+      <c r="X41" s="95">
         <f>X40/12</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="107">
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="102">
         <f>Z40/12</f>
         <v>9</v>
       </c>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="70">
+      <c r="AA41" s="102"/>
+      <c r="AB41" s="96">
         <f>AB40/24</f>
         <v>2</v>
       </c>
-      <c r="AC41" s="70"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
+      <c r="AC41" s="96"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="94"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="71"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
         <v>2427</v>
@@ -6690,73 +6696,73 @@
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="94"/>
-      <c r="AF43" s="95">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="72">
         <f>AG42-AF42</f>
         <v>1195</v>
       </c>
-      <c r="AG43" s="96"/>
+      <c r="AG43" s="73"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -6765,28 +6771,38 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="AD40:AE40"/>
     <mergeCell ref="D41:E41"/>
@@ -6803,38 +6819,28 @@
     <mergeCell ref="V40:W40"/>
     <mergeCell ref="X40:Y40"/>
     <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6846,8 +6852,8 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB41" sqref="AB41:AC41"/>
+      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6881,11 +6887,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
@@ -6921,11 +6927,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -6961,235 +6967,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="64"/>
       <c r="AG5" s="64"/>
       <c r="AH5" s="64"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="82" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="94"/>
+      <c r="N7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="79"/>
+      <c r="P7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="90" t="s">
+      <c r="S7" s="79"/>
+      <c r="T7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="83"/>
+      <c r="V7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="91" t="s">
+      <c r="W7" s="79"/>
+      <c r="X7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="85" t="s">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="86" t="s">
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="86" t="s">
+      <c r="AG7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="79"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
@@ -7274,9 +7280,9 @@
       <c r="AE8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="74"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="79"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -7561,19 +7567,29 @@
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="C14" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="32">
+        <v>48</v>
+      </c>
       <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="31">
+        <v>36</v>
+      </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="31">
+        <v>36</v>
+      </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="O14" s="31">
+        <v>24</v>
+      </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="31"/>
@@ -7581,18 +7597,24 @@
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
       <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
+      <c r="W14" s="31">
+        <v>12</v>
+      </c>
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
+      <c r="AA14" s="31">
+        <v>24</v>
+      </c>
       <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
+      <c r="AC14" s="38">
+        <v>48</v>
+      </c>
       <c r="AD14" s="31"/>
       <c r="AE14" s="31"/>
       <c r="AF14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AG14" s="20">
         <f t="shared" si="1"/>
@@ -7603,7 +7625,9 @@
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="C15" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
@@ -7619,7 +7643,9 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="S15" s="31">
+        <v>12</v>
+      </c>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="31"/>
@@ -7627,14 +7653,16 @@
       <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
       <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="AA15" s="31">
+        <v>12</v>
+      </c>
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
       <c r="AD15" s="31"/>
       <c r="AE15" s="31"/>
       <c r="AF15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG15" s="20">
         <f t="shared" si="1"/>
@@ -8656,83 +8684,83 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="68">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
-        <v>168</v>
-      </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="71">
+        <v>120</v>
+      </c>
+      <c r="E40" s="68"/>
+      <c r="F40" s="97">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
-        <v>228</v>
-      </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="100">
+        <v>192</v>
+      </c>
+      <c r="G40" s="97"/>
+      <c r="H40" s="108">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="71">
+      <c r="I40" s="108"/>
+      <c r="J40" s="97">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
-        <v>132</v>
-      </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="101">
+        <v>96</v>
+      </c>
+      <c r="K40" s="97"/>
+      <c r="L40" s="109">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="101"/>
-      <c r="N40" s="71">
+      <c r="M40" s="109"/>
+      <c r="N40" s="97">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
+        <v>24</v>
+      </c>
+      <c r="O40" s="97"/>
+      <c r="P40" s="105">
+        <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="97">
+        <f>SUM(R9:R39)-SUM(S9:S39)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="97"/>
+      <c r="T40" s="106">
+        <f>SUM(T9:T39)-SUM(U9:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="106"/>
+      <c r="V40" s="97">
+        <f>SUM(V9:V39)-SUM(W9:W39)</f>
+        <v>12</v>
+      </c>
+      <c r="W40" s="97"/>
+      <c r="X40" s="107">
+        <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="97">
+        <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
         <v>48</v>
       </c>
-      <c r="O40" s="71"/>
-      <c r="P40" s="104">
-        <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="71">
-        <f>SUM(R9:R39)-SUM(S9:S39)</f>
-        <v>12</v>
-      </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="105">
-        <f>SUM(T9:T39)-SUM(U9:U39)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="105"/>
-      <c r="V40" s="71">
-        <f>SUM(V9:V39)-SUM(W9:W39)</f>
-        <v>24</v>
-      </c>
-      <c r="W40" s="71"/>
-      <c r="X40" s="106">
-        <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="71">
-        <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
-        <v>84</v>
-      </c>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="102">
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="103">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
-        <v>48</v>
-      </c>
-      <c r="AC40" s="102"/>
-      <c r="AD40" s="71">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="97">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="71"/>
+      <c r="AE40" s="97"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG40" s="20">
         <f t="shared" si="1"/>
-        <v>871</v>
+        <v>619</v>
       </c>
       <c r="AH40" s="42"/>
     </row>
@@ -8742,114 +8770,114 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="74">
         <f>D40/24</f>
-        <v>7</v>
-      </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="69">
+        <v>5</v>
+      </c>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75">
         <f>F40/12</f>
-        <v>19</v>
-      </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="98">
+        <v>16</v>
+      </c>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76">
         <f>H40/24</f>
         <v>0</v>
       </c>
-      <c r="I41" s="98"/>
-      <c r="J41" s="103">
+      <c r="I41" s="76"/>
+      <c r="J41" s="104">
         <f>J40/12</f>
-        <v>11</v>
-      </c>
-      <c r="K41" s="103"/>
-      <c r="L41" s="99">
+        <v>8</v>
+      </c>
+      <c r="K41" s="104"/>
+      <c r="L41" s="77">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="99"/>
-      <c r="N41" s="69">
+      <c r="M41" s="77"/>
+      <c r="N41" s="75">
         <f>N40/12</f>
+        <v>2</v>
+      </c>
+      <c r="O41" s="75"/>
+      <c r="P41" s="98">
+        <f>P40/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="98"/>
+      <c r="R41" s="75">
+        <f>R40/12</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="75"/>
+      <c r="T41" s="99">
+        <f>T40/24</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="99"/>
+      <c r="V41" s="75">
+        <f>V40/12</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="75"/>
+      <c r="X41" s="95">
+        <f>X40/12</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="102">
+        <f>Z40/12</f>
         <v>4</v>
       </c>
-      <c r="O41" s="69"/>
-      <c r="P41" s="72">
-        <f>P40/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="69">
-        <f>R40/12</f>
-        <v>1</v>
-      </c>
-      <c r="S41" s="69"/>
-      <c r="T41" s="73">
-        <f>T40/24</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="73"/>
-      <c r="V41" s="69">
-        <f>V40/12</f>
-        <v>2</v>
-      </c>
-      <c r="W41" s="69"/>
-      <c r="X41" s="68">
-        <f>X40/12</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="107">
-        <f>Z40/12</f>
-        <v>7</v>
-      </c>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="70">
+      <c r="AA41" s="102"/>
+      <c r="AB41" s="96">
         <f>AB40/24</f>
-        <v>2</v>
-      </c>
-      <c r="AC41" s="70"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="96"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="94"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="71"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="AG42" s="43">
         <f>SUM(AG9:AG39)</f>
@@ -8858,73 +8886,73 @@
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="94"/>
-      <c r="AF43" s="95">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="72">
         <f>AG42-AF42</f>
-        <v>871</v>
-      </c>
-      <c r="AG43" s="96"/>
+        <v>619</v>
+      </c>
+      <c r="AG43" s="73"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -8933,6 +8961,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
     <mergeCell ref="AB44:AC44"/>
     <mergeCell ref="A42:AE42"/>
     <mergeCell ref="A43:AE43"/>
@@ -8949,60 +9031,6 @@
     <mergeCell ref="V44:W44"/>
     <mergeCell ref="X44:Y44"/>
     <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1321,6 +1321,18 @@
   </si>
   <si>
     <t>Chị Hải Lào Cai</t>
+  </si>
+  <si>
+    <t>Thanh hà trả hàng</t>
+  </si>
+  <si>
+    <t>Chị Hà TP ViệtTrif</t>
+  </si>
+  <si>
+    <t>5 áo 5 bộ cốc</t>
+  </si>
+  <si>
+    <t>5 bộ cốc 6 áo</t>
   </si>
 </sst>
 </file>
@@ -1759,55 +1771,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1840,28 +1822,55 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,10 +1888,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2228,11 +2240,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2268,11 +2280,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2308,235 +2320,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="79" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="92" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="79" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="94" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="79" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="79" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="84" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="79" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="78" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="80" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="80" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="79"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2621,9 +2633,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="79"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -4072,76 +4084,76 @@
       <c r="C37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="88">
         <f>SUM(D9:D36)-SUM(E9:E36)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68">
+      <c r="E37" s="88"/>
+      <c r="F37" s="88">
         <f t="shared" ref="F37" si="2">SUM(F9:F36)-SUM(G9:G36)</f>
         <v>396</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68">
+      <c r="G37" s="88"/>
+      <c r="H37" s="88">
         <f t="shared" ref="H37" si="3">SUM(H9:H36)-SUM(I9:I36)</f>
         <v>5</v>
       </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68">
+      <c r="I37" s="88"/>
+      <c r="J37" s="88">
         <f t="shared" ref="J37" si="4">SUM(J9:J36)-SUM(K9:K36)</f>
         <v>36</v>
       </c>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68">
+      <c r="K37" s="88"/>
+      <c r="L37" s="88">
         <f t="shared" ref="L37" si="5">SUM(L9:L36)-SUM(M9:M36)</f>
         <v>13</v>
       </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68">
+      <c r="M37" s="88"/>
+      <c r="N37" s="88">
         <f t="shared" ref="N37" si="6">SUM(N9:N36)-SUM(O9:O36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68">
+      <c r="O37" s="88"/>
+      <c r="P37" s="88">
         <f t="shared" ref="P37" si="7">SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68">
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88">
         <f t="shared" ref="R37" si="8">SUM(R9:R36)-SUM(S9:S36)</f>
         <v>48</v>
       </c>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68">
+      <c r="S37" s="88"/>
+      <c r="T37" s="88">
         <f t="shared" ref="T37" si="9">SUM(T9:T36)-SUM(U9:U36)</f>
         <v>7</v>
       </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68">
+      <c r="U37" s="88"/>
+      <c r="V37" s="88">
         <f t="shared" ref="V37" si="10">SUM(V9:V36)-SUM(W9:W36)</f>
         <v>24</v>
       </c>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68">
+      <c r="W37" s="88"/>
+      <c r="X37" s="88">
         <f t="shared" ref="X37" si="11">SUM(X9:X36)-SUM(Y9:Y36)</f>
         <v>39</v>
       </c>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68">
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88">
         <f t="shared" ref="Z37" si="12">SUM(Z9:Z36)-SUM(AA9:AA36)</f>
         <v>60</v>
       </c>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68">
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88">
         <f t="shared" ref="AB37" si="13">SUM(AB9:AB36)-SUM(AC9:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68">
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88">
         <f t="shared" ref="AD37" si="14">SUM(AD9:AD36)-SUM(AE9:AE36)</f>
         <v>127</v>
       </c>
-      <c r="AE37" s="68"/>
+      <c r="AE37" s="88"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4158,111 +4170,111 @@
       <c r="C38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="97">
         <f>D37/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75">
+      <c r="E38" s="97"/>
+      <c r="F38" s="69">
         <f>F37/12</f>
         <v>33</v>
       </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76">
+      <c r="G38" s="69"/>
+      <c r="H38" s="98">
         <f>H37/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I38" s="76"/>
-      <c r="J38" s="75">
+      <c r="I38" s="98"/>
+      <c r="J38" s="69">
         <f>J37/12</f>
         <v>3</v>
       </c>
-      <c r="K38" s="75"/>
-      <c r="L38" s="77">
+      <c r="K38" s="69"/>
+      <c r="L38" s="99">
         <f>L37/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M38" s="77"/>
-      <c r="N38" s="75">
+      <c r="M38" s="99"/>
+      <c r="N38" s="69">
         <f>N37/12</f>
         <v>0</v>
       </c>
-      <c r="O38" s="75"/>
-      <c r="P38" s="98">
+      <c r="O38" s="69"/>
+      <c r="P38" s="72">
         <f>P37/24</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="75">
+      <c r="Q38" s="72"/>
+      <c r="R38" s="69">
         <f>R37/12</f>
         <v>4</v>
       </c>
-      <c r="S38" s="75"/>
-      <c r="T38" s="99">
+      <c r="S38" s="69"/>
+      <c r="T38" s="73">
         <f>T37/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="U38" s="99"/>
-      <c r="V38" s="75">
+      <c r="U38" s="73"/>
+      <c r="V38" s="69">
         <f>V37/12</f>
         <v>2</v>
       </c>
-      <c r="W38" s="75"/>
-      <c r="X38" s="95">
+      <c r="W38" s="69"/>
+      <c r="X38" s="68">
         <f>X37/12</f>
         <v>3.25</v>
       </c>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="75">
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="69">
         <f>Z37/12</f>
         <v>5</v>
       </c>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="96">
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="70">
         <f>AB37/24</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="70"/>
-      <c r="AD39" s="70"/>
-      <c r="AE39" s="71"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="94"/>
       <c r="AF39" s="43">
         <f>SUM(AF9:AF35)</f>
         <v>763</v>
@@ -4274,44 +4286,44 @@
       <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="70"/>
-      <c r="AD40" s="70"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="72">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="93"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="95">
         <f>AG39-AF39</f>
         <v>855</v>
       </c>
-      <c r="AG40" s="73"/>
+      <c r="AG40" s="96"/>
       <c r="AH40" s="44"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -4321,15 +4333,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4346,38 +4381,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="A40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4425,11 +4437,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -4465,11 +4477,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4505,235 +4517,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="79" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="92" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="79" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="94" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="79" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="79" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="84" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="79" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="78" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="80" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="80" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="79"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
@@ -4818,9 +4830,9 @@
       <c r="AE8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="79"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -6494,76 +6506,76 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="88">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
         <v>216</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="97">
+      <c r="E40" s="88"/>
+      <c r="F40" s="71">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
         <v>300</v>
       </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="108">
+      <c r="G40" s="71"/>
+      <c r="H40" s="100">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="97">
+      <c r="I40" s="100"/>
+      <c r="J40" s="71">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
         <v>204</v>
       </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="109">
+      <c r="K40" s="71"/>
+      <c r="L40" s="101">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="109"/>
-      <c r="N40" s="97">
+      <c r="M40" s="101"/>
+      <c r="N40" s="71">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
         <v>72</v>
       </c>
-      <c r="O40" s="97"/>
-      <c r="P40" s="105">
+      <c r="O40" s="71"/>
+      <c r="P40" s="104">
         <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="97">
+      <c r="Q40" s="104"/>
+      <c r="R40" s="71">
         <f>SUM(R9:R39)-SUM(S9:S39)</f>
         <v>72</v>
       </c>
-      <c r="S40" s="97"/>
-      <c r="T40" s="106">
+      <c r="S40" s="71"/>
+      <c r="T40" s="105">
         <f>SUM(T9:T39)-SUM(U9:U39)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="106"/>
-      <c r="V40" s="97">
+      <c r="U40" s="105"/>
+      <c r="V40" s="71">
         <f>SUM(V9:V39)-SUM(W9:W39)</f>
         <v>48</v>
       </c>
-      <c r="W40" s="97"/>
-      <c r="X40" s="107">
+      <c r="W40" s="71"/>
+      <c r="X40" s="106">
         <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="97">
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="71">
         <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
         <v>108</v>
       </c>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="103">
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="102">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
         <v>48</v>
       </c>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="97">
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="71">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="97"/>
+      <c r="AE40" s="71"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6580,111 +6592,111 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="97">
         <f>D40/24</f>
         <v>9</v>
       </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75">
+      <c r="E41" s="97"/>
+      <c r="F41" s="69">
         <f>F40/12</f>
         <v>25</v>
       </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76">
+      <c r="G41" s="69"/>
+      <c r="H41" s="98">
         <f>H40/24</f>
         <v>0</v>
       </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="104">
+      <c r="I41" s="98"/>
+      <c r="J41" s="103">
         <f>J40/12</f>
         <v>17</v>
       </c>
-      <c r="K41" s="104"/>
-      <c r="L41" s="77">
+      <c r="K41" s="103"/>
+      <c r="L41" s="99">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="77"/>
-      <c r="N41" s="75">
+      <c r="M41" s="99"/>
+      <c r="N41" s="69">
         <f>N40/12</f>
         <v>6</v>
       </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="98">
+      <c r="O41" s="69"/>
+      <c r="P41" s="72">
         <f>P40/24</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="75">
+      <c r="Q41" s="72"/>
+      <c r="R41" s="69">
         <f>R40/12</f>
         <v>6</v>
       </c>
-      <c r="S41" s="75"/>
-      <c r="T41" s="99">
+      <c r="S41" s="69"/>
+      <c r="T41" s="73">
         <f>T40/24</f>
         <v>0</v>
       </c>
-      <c r="U41" s="99"/>
-      <c r="V41" s="75">
+      <c r="U41" s="73"/>
+      <c r="V41" s="69">
         <f>V40/12</f>
         <v>4</v>
       </c>
-      <c r="W41" s="75"/>
-      <c r="X41" s="95">
+      <c r="W41" s="69"/>
+      <c r="X41" s="68">
         <f>X40/12</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="102">
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="107">
         <f>Z40/12</f>
         <v>9</v>
       </c>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="96">
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="70">
         <f>AB40/24</f>
         <v>2</v>
       </c>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70"/>
-      <c r="AE42" s="71"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="94"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
         <v>2427</v>
@@ -6696,73 +6708,73 @@
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="72">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="95">
         <f>AG42-AF42</f>
         <v>1195</v>
       </c>
-      <c r="AG43" s="73"/>
+      <c r="AG43" s="96"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="100"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -6771,6 +6783,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6787,60 +6853,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6852,8 +6864,8 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
+      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,11 +6899,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
@@ -6927,11 +6939,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -6967,235 +6979,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
       <c r="AF5" s="64"/>
       <c r="AG5" s="64"/>
       <c r="AH5" s="64"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="79" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="92" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="79" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="94" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="79" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="79" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="84" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="79" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="78" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79" t="s">
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="80" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="80" t="s">
+      <c r="AG7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="79"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
@@ -7280,9 +7292,9 @@
       <c r="AE8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="79"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -7562,11 +7574,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="31"/>
+      <c r="AH13" s="31" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="30">
+        <v>44055</v>
+      </c>
       <c r="C14" s="31" t="s">
         <v>85</v>
       </c>
@@ -7620,11 +7636,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="31"/>
+      <c r="AH14" s="31" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="30">
+        <v>44055</v>
+      </c>
       <c r="C15" s="31" t="s">
         <v>86</v>
       </c>
@@ -7672,8 +7692,12 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="30">
+        <v>44056</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="31"/>
@@ -7688,13 +7712,17 @@
       <c r="O16" s="31"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
-      <c r="R16" s="31"/>
+      <c r="R16" s="31">
+        <v>24</v>
+      </c>
       <c r="S16" s="31"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
-      <c r="X16" s="37"/>
+      <c r="X16" s="37">
+        <v>5</v>
+      </c>
       <c r="Y16" s="37"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
@@ -7708,14 +7736,18 @@
       </c>
       <c r="AG16" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH16" s="31"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="30">
+        <v>44056</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
@@ -7731,7 +7763,9 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="S17" s="31">
+        <v>24</v>
+      </c>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
       <c r="V17" s="31"/>
@@ -7746,7 +7780,7 @@
       <c r="AE17" s="31"/>
       <c r="AF17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG17" s="20">
         <f t="shared" si="1"/>
@@ -7756,20 +7790,30 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="30">
+        <v>44056</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="G18" s="31">
+        <v>36</v>
+      </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="31">
+        <v>36</v>
+      </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="O18" s="31">
+        <v>24</v>
+      </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="31"/>
@@ -7777,18 +7821,24 @@
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
       <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
+      <c r="W18" s="31">
+        <v>12</v>
+      </c>
       <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
+      <c r="Y18" s="37">
+        <v>5</v>
+      </c>
       <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="AA18" s="31">
+        <v>24</v>
+      </c>
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
       <c r="AF18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AG18" s="20">
         <f t="shared" si="1"/>
@@ -7798,10 +7848,16 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="30">
+        <v>44056</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32">
+        <v>24</v>
+      </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="33"/>
@@ -7830,7 +7886,7 @@
       <c r="AE19" s="31"/>
       <c r="AF19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG19" s="20">
         <f t="shared" si="1"/>
@@ -8684,83 +8740,83 @@
       <c r="C40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="88">
         <f>SUM(D9:D39)-SUM(E9:E39)</f>
-        <v>120</v>
-      </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="97">
+        <v>96</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="71">
         <f>SUM(F9:F39)-SUM(G9:G39)</f>
-        <v>192</v>
-      </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="108">
+        <v>156</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="100">
         <f>SUM(H9:H39)-SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="97">
+      <c r="I40" s="100"/>
+      <c r="J40" s="71">
         <f>SUM(J9:J39)-SUM(K9:K39)</f>
-        <v>96</v>
-      </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="109">
+        <v>60</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="101">
         <f>SUM(L9:L39)-SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="109"/>
-      <c r="N40" s="97">
+      <c r="M40" s="101"/>
+      <c r="N40" s="71">
         <f>SUM(N9:N39)-SUM(O9:O39)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="104">
+        <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="71">
+        <f>SUM(R9:R39)-SUM(S9:S39)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="71"/>
+      <c r="T40" s="105">
+        <f>SUM(T9:T39)-SUM(U9:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="105"/>
+      <c r="V40" s="71">
+        <f>SUM(V9:V39)-SUM(W9:W39)</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="71"/>
+      <c r="X40" s="106">
+        <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="71">
+        <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
         <v>24</v>
       </c>
-      <c r="O40" s="97"/>
-      <c r="P40" s="105">
-        <f>SUM(P9:P39)-SUM(Q9:Q39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="97">
-        <f>SUM(R9:R39)-SUM(S9:S39)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="97"/>
-      <c r="T40" s="106">
-        <f>SUM(T9:T39)-SUM(U9:U39)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="106"/>
-      <c r="V40" s="97">
-        <f>SUM(V9:V39)-SUM(W9:W39)</f>
-        <v>12</v>
-      </c>
-      <c r="W40" s="97"/>
-      <c r="X40" s="107">
-        <f>SUM(X9:X39)-SUM(Y9:Y39)</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="97">
-        <f>SUM(Z9:Z39)-SUM(AA9:AA39)</f>
-        <v>48</v>
-      </c>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="103">
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="102">
         <f>SUM(AB9:AB39)-SUM(AC9:AC39)</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="97">
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="71">
         <f>SUM(AD9:AD39)-SUM(AE9:AE39)</f>
         <v>127</v>
       </c>
-      <c r="AE40" s="97"/>
+      <c r="AE40" s="71"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG40" s="20">
         <f t="shared" si="1"/>
-        <v>619</v>
+        <v>463</v>
       </c>
       <c r="AH40" s="42"/>
     </row>
@@ -8770,189 +8826,189 @@
       <c r="C41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="97">
         <f>D40/24</f>
+        <v>4</v>
+      </c>
+      <c r="E41" s="97"/>
+      <c r="F41" s="69">
+        <f>F40/12</f>
+        <v>13</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="98">
+        <f>H40/24</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="98"/>
+      <c r="J41" s="103">
+        <f>J40/12</f>
         <v>5</v>
       </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75">
-        <f>F40/12</f>
-        <v>16</v>
-      </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76">
-        <f>H40/24</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="104">
-        <f>J40/12</f>
-        <v>8</v>
-      </c>
-      <c r="K41" s="104"/>
-      <c r="L41" s="77">
+      <c r="K41" s="103"/>
+      <c r="L41" s="99">
         <f>L40/24</f>
         <v>0</v>
       </c>
-      <c r="M41" s="77"/>
-      <c r="N41" s="75">
+      <c r="M41" s="99"/>
+      <c r="N41" s="69">
         <f>N40/12</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="69"/>
+      <c r="P41" s="72">
+        <f>P40/24</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="69">
+        <f>R40/12</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="69"/>
+      <c r="T41" s="73">
+        <f>T40/24</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="73"/>
+      <c r="V41" s="69">
+        <f>V40/12</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="69"/>
+      <c r="X41" s="68">
+        <f>X40/12</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="107">
+        <f>Z40/12</f>
         <v>2</v>
       </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="98">
-        <f>P40/24</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="75">
-        <f>R40/12</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="75"/>
-      <c r="T41" s="99">
-        <f>T40/24</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="99"/>
-      <c r="V41" s="75">
-        <f>V40/12</f>
-        <v>1</v>
-      </c>
-      <c r="W41" s="75"/>
-      <c r="X41" s="95">
-        <f>X40/12</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="102">
-        <f>Z40/12</f>
-        <v>4</v>
-      </c>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="96">
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="70">
         <f>AB40/24</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="42"/>
     </row>
     <row r="42" spans="1:34" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70"/>
-      <c r="AE42" s="71"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="94"/>
       <c r="AF42" s="43">
         <f>SUM(AF9:AF39)</f>
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="AG42" s="43">
         <f>SUM(AG9:AG39)</f>
-        <v>1195</v>
+        <v>1224</v>
       </c>
       <c r="AH42" s="44"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="72">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="95">
         <f>AG42-AF42</f>
-        <v>619</v>
-      </c>
-      <c r="AG43" s="73"/>
+        <v>463</v>
+      </c>
+      <c r="AG43" s="96"/>
       <c r="AH43" s="44"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="100"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X48" s="6" t="s">
@@ -8961,39 +9017,27 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
     <mergeCell ref="AD41:AE41"/>
     <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="AD40:AE40"/>
@@ -9010,27 +9054,39 @@
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="V40:W40"/>
     <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO KÍN.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1333,6 +1333,15 @@
   </si>
   <si>
     <t>5 bộ cốc 6 áo</t>
+  </si>
+  <si>
+    <t>chị Huệ điện biên</t>
+  </si>
+  <si>
+    <t>4 bộ cốc</t>
+  </si>
+  <si>
+    <t>ĐL Thanh Hà</t>
   </si>
 </sst>
 </file>
@@ -4402,7 +4411,7 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -6864,8 +6873,8 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7896,11 +7905,18 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="30">
+        <v>44057</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
+      <c r="F20" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
       <c r="G20" s="31"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
@@ -7908,19 +7924,31 @@
       <c r="K20" s="31"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="31"/>
+      <c r="N20" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
       <c r="O20" s="31"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
-      <c r="R20" s="31"/>
+      <c r="R20" s="31">
+        <f>30*12</f>
+        <v>360</v>
+      </c>
       <c r="S20" s="31"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
-      <c r="X20" s="37"/>
+      <c r="X20" s="37">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
       <c r="Y20" s="37"/>
-      <c r="Z20" s="31"/>
+      <c r="Z20" s="31">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
       <c r="AA20" s="31"/>
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
@@ -7932,45 +7960,64 @@
       </c>
       <c r="AG20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="AH20" s="31"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="30">
+        <v>44057</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="G21" s="31">
+        <v>24</v>
+      </c>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="31">
+        <v>24</v>
+      </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="O21" s="31">
+        <v>24</v>
+      </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
+      <c r="S21" s="31">
+        <f>6*12</f>
+        <v>72</v>
+      </c>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="31"/>
       <c r="W21" s="31"/>
       <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
+      <c r="Y21" s="37">
+        <f>3*12</f>
+        <v>36</v>
+      </c>
       <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
+      <c r="AA21" s="31">
+        <f>3*12</f>
+        <v>36</v>
+      </c>
       <c r="AB21" s="38"/>
       <c r="AC21" s="38"/>
       <c r="AD21" s="31"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="1"/>
@@ -7980,12 +8027,20 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="30">
+        <v>44060</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="E22" s="32">
+        <v>24</v>
+      </c>
       <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="G22" s="31">
+        <v>24</v>
+      </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="31"/>
@@ -7997,7 +8052,9 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="S22" s="31">
+        <v>12</v>
+      </c>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
       <c r="V22" s="31"/>
@@ -8005,29 +8062,43 @@
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
       <c r="Z22